--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>variable_id</t>
   </si>
@@ -79,13 +79,19 @@
     <t>v1</t>
   </si>
   <si>
+    <t>fx</t>
+  </si>
+  <si>
     <t>mon</t>
   </si>
   <si>
-    <t>v20240529</t>
-  </si>
-  <si>
-    <t>['hurs', 'pr', 'prsn', 'ps', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+    <t>v20241120</t>
+  </si>
+  <si>
+    <t>['orog', 'sftlf']</t>
+  </si>
+  <si>
+    <t>['pr', 'tas', 'tasmax', 'tasmin', 'psl']</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +528,44 @@
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>variable_id</t>
   </si>
@@ -61,6 +61,9 @@
     <t>EUR-12</t>
   </si>
   <si>
+    <t>CLMcom-Hereon</t>
+  </si>
+  <si>
     <t>GERICS</t>
   </si>
   <si>
@@ -73,9 +76,15 @@
     <t>r1i1p1f1</t>
   </si>
   <si>
+    <t>ICON-CLM-202407-1-1</t>
+  </si>
+  <si>
     <t>REMO2020</t>
   </si>
   <si>
+    <t>v1-r1</t>
+  </si>
+  <si>
     <t>v1</t>
   </si>
   <si>
@@ -85,7 +94,16 @@
     <t>mon</t>
   </si>
   <si>
+    <t>v20240920</t>
+  </si>
+  <si>
     <t>v20241120</t>
+  </si>
+  <si>
+    <t>['areacella', 'sftlaf', 'mrsofc', 'rootd', 'sftlf', 'sftgif', 'orog', 'sfturf']</t>
+  </si>
+  <si>
+    <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['orog', 'sftlf']</t>
@@ -449,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,28 +528,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -545,26 +563,84 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="15">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>variable_id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>GERICS</t>
   </si>
   <si>
+    <t>HCLIMcom-SMHI</t>
+  </si>
+  <si>
     <t>ERA5</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>REMO2020</t>
   </si>
   <si>
+    <t>HCLIM43-ALADIN</t>
+  </si>
+  <si>
     <t>v1-r1</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>v20241120</t>
   </si>
   <si>
+    <t>v20241205</t>
+  </si>
+  <si>
     <t>['areacella', 'sftlaf', 'mrsofc', 'rootd', 'sftlf', 'sftgif', 'orog', 'sfturf']</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
   </si>
   <si>
     <t>['pr', 'tas', 'tasmax', 'tasmin', 'psl']</t>
+  </si>
+  <si>
+    <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin']</t>
   </si>
 </sst>
 </file>
@@ -467,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,28 +540,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -563,13 +575,13 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -580,28 +592,28 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -615,32 +627,90 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
-        <v>31</v>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
+  <mergeCells count="21">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -91,9 +91,6 @@
     <t>v1-r1</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
     <t>fx</t>
   </si>
   <si>
@@ -115,10 +112,13 @@
     <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
+    <t>['areacella', 'orog', 'sftlf']</t>
+  </si>
+  <si>
+    <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+  </si>
+  <si>
     <t>['orog', 'sftlf']</t>
-  </si>
-  <si>
-    <t>['pr', 'tas', 'tasmax', 'tasmin', 'psl']</t>
   </si>
   <si>
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin']</t>
@@ -555,13 +555,13 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -575,13 +575,13 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -604,16 +604,16 @@
         <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -627,13 +627,13 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -659,13 +659,13 @@
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -679,10 +679,10 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
         <v>35</v>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -115,7 +115,7 @@
     <t>['areacella', 'orog', 'sftlf']</t>
   </si>
   <si>
-    <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+    <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr']</t>
   </si>
   <si>
     <t>['orog', 'sftlf']</t>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>variable_id</t>
   </si>
@@ -97,6 +97,9 @@
     <t>mon</t>
   </si>
   <si>
+    <t>1hr</t>
+  </si>
+  <si>
     <t>v20240920</t>
   </si>
   <si>
@@ -112,7 +115,10 @@
     <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
-    <t>['areacella', 'orog', 'sftlf']</t>
+    <t>['hurs', 'pr']</t>
+  </si>
+  <si>
+    <t>['areacella', 'orog', 'sftlf', 'sftlaf']</t>
   </si>
   <si>
     <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr']</t>
@@ -479,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,10 +564,10 @@
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -578,10 +584,10 @@
         <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -607,13 +613,13 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -627,90 +633,110 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>variable_id</t>
   </si>
@@ -100,6 +100,9 @@
     <t>1hr</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>v20240920</t>
   </si>
   <si>
@@ -115,7 +118,10 @@
     <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
-    <t>['hurs', 'pr']</t>
+    <t>['hurs', 'pr', 'prw', 'tas']</t>
+  </si>
+  <si>
+    <t>['pr', 'sfcWindmax', 'snc', 'snd', 'snw', 'tasmax']</t>
   </si>
   <si>
     <t>['areacella', 'orog', 'sftlf', 'sftlaf']</t>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,10 +570,10 @@
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -584,10 +590,10 @@
         <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -616,10 +622,10 @@
         <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -633,13 +639,13 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -653,90 +659,110 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
+      <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -497,7 +497,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="112.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>variable_id</t>
   </si>
@@ -70,6 +70,9 @@
     <t>HCLIMcom-SMHI</t>
   </si>
   <si>
+    <t>KNMI</t>
+  </si>
+  <si>
     <t>ERA5</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>HCLIM43-ALADIN</t>
   </si>
   <si>
+    <t>RACMO23E</t>
+  </si>
+  <si>
     <t>v1-r1</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>v20241205</t>
   </si>
   <si>
+    <t>v20241216</t>
+  </si>
+  <si>
     <t>['areacella', 'sftlaf', 'mrsofc', 'rootd', 'sftlf', 'sftgif', 'orog', 'sfturf']</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
   </si>
   <si>
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin']</t>
+  </si>
+  <si>
+    <t>['areacella', 'orog', 'sftlf']</t>
   </si>
 </sst>
 </file>
@@ -491,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,28 +572,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -595,13 +607,13 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -612,28 +624,28 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -647,13 +659,13 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -667,13 +679,13 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -687,13 +699,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -704,28 +716,28 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -739,38 +751,96 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
+  <mergeCells count="27">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H7"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>variable_id</t>
   </si>
@@ -55,46 +55,106 @@
     <t>CORDEX</t>
   </si>
   <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>EUR-12</t>
-  </si>
-  <si>
-    <t>CLMcom-Hereon</t>
+    <t>output</t>
+  </si>
+  <si>
+    <t>EUR-11</t>
+  </si>
+  <si>
+    <t>CLMcom</t>
+  </si>
+  <si>
+    <t>CLMcom-ETH</t>
+  </si>
+  <si>
+    <t>CNRM</t>
+  </si>
+  <si>
+    <t>DHMZ</t>
+  </si>
+  <si>
+    <t>DMI</t>
   </si>
   <si>
     <t>GERICS</t>
   </si>
   <si>
-    <t>HCLIMcom-SMHI</t>
+    <t>ICTP</t>
+  </si>
+  <si>
+    <t>IPSL</t>
   </si>
   <si>
     <t>KNMI</t>
   </si>
   <si>
-    <t>ERA5</t>
+    <t>MOHC</t>
+  </si>
+  <si>
+    <t>MPI-CSC</t>
+  </si>
+  <si>
+    <t>RMIB-UGent</t>
+  </si>
+  <si>
+    <t>SMHI</t>
+  </si>
+  <si>
+    <t>ECMWF-ERAINT</t>
   </si>
   <si>
     <t>evaluation</t>
   </si>
   <si>
-    <t>r1i1p1f1</t>
-  </si>
-  <si>
-    <t>ICON-CLM-202407-1-1</t>
-  </si>
-  <si>
-    <t>REMO2020</t>
-  </si>
-  <si>
-    <t>HCLIM43-ALADIN</t>
-  </si>
-  <si>
-    <t>RACMO23E</t>
-  </si>
-  <si>
-    <t>v1-r1</t>
+    <t>r0i0p0</t>
+  </si>
+  <si>
+    <t>r1i1p1</t>
+  </si>
+  <si>
+    <t>CCLM4-8-17</t>
+  </si>
+  <si>
+    <t>COSMO-crCLIM-v1-1</t>
+  </si>
+  <si>
+    <t>ALADIN53</t>
+  </si>
+  <si>
+    <t>ALADIN63</t>
+  </si>
+  <si>
+    <t>RegCM4-2</t>
+  </si>
+  <si>
+    <t>HIRHAM5</t>
+  </si>
+  <si>
+    <t>REMO2015</t>
+  </si>
+  <si>
+    <t>RegCM4-6</t>
+  </si>
+  <si>
+    <t>WRF381P</t>
+  </si>
+  <si>
+    <t>RACMO22E</t>
+  </si>
+  <si>
+    <t>HadREM3-GA7-05</t>
+  </si>
+  <si>
+    <t>REMO2009</t>
+  </si>
+  <si>
+    <t>ALARO-0</t>
+  </si>
+  <si>
+    <t>RCA4</t>
+  </si>
+  <si>
+    <t>v1</t>
   </si>
   <si>
     <t>fx</t>
@@ -103,40 +163,61 @@
     <t>mon</t>
   </si>
   <si>
-    <t>1hr</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>v20240920</t>
-  </si>
-  <si>
-    <t>v20241120</t>
-  </si>
-  <si>
-    <t>v20241205</t>
-  </si>
-  <si>
-    <t>v20241216</t>
-  </si>
-  <si>
-    <t>['areacella', 'sftlaf', 'mrsofc', 'rootd', 'sftlf', 'sftgif', 'orog', 'sfturf']</t>
-  </si>
-  <si>
-    <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
-  </si>
-  <si>
-    <t>['hurs', 'pr', 'prw', 'tas']</t>
-  </si>
-  <si>
-    <t>['pr', 'sfcWindmax', 'snc', 'snd', 'snw', 'tasmax']</t>
-  </si>
-  <si>
-    <t>['areacella', 'orog', 'sftlf', 'sftlaf']</t>
-  </si>
-  <si>
-    <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr']</t>
+    <t>v20140515</t>
+  </si>
+  <si>
+    <t>v20191210</t>
+  </si>
+  <si>
+    <t>v20150127</t>
+  </si>
+  <si>
+    <t>v20191118</t>
+  </si>
+  <si>
+    <t>v20160112</t>
+  </si>
+  <si>
+    <t>v20150527</t>
+  </si>
+  <si>
+    <t>v20140620</t>
+  </si>
+  <si>
+    <t>v20180813</t>
+  </si>
+  <si>
+    <t>v20190502</t>
+  </si>
+  <si>
+    <t>v20190919</t>
+  </si>
+  <si>
+    <t>v20140218</t>
+  </si>
+  <si>
+    <t>v20140319</t>
+  </si>
+  <si>
+    <t>v20200706</t>
+  </si>
+  <si>
+    <t>v20200330</t>
+  </si>
+  <si>
+    <t>v20160525</t>
+  </si>
+  <si>
+    <t>v20170523</t>
+  </si>
+  <si>
+    <t>v20170207</t>
+  </si>
+  <si>
+    <t>v20131026</t>
   </si>
   <si>
     <t>['orog', 'sftlf']</t>
@@ -145,7 +226,16 @@
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin']</t>
   </si>
   <si>
-    <t>['areacella', 'orog', 'sftlf']</t>
+    <t>['pr', 'tas', 'tasmax', 'tasmin']</t>
+  </si>
+  <si>
+    <t>['pr', 'psl']</t>
+  </si>
+  <si>
+    <t>['tas', 'tasmax', 'tasmin']</t>
+  </si>
+  <si>
+    <t>['pr', 'tas']</t>
   </si>
 </sst>
 </file>
@@ -503,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,9 +605,10 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="112.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -572,28 +663,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -603,17 +694,23 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -624,28 +721,28 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -655,37 +752,55 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -699,45 +814,37 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -751,13 +858,13 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -768,28 +875,28 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -803,44 +910,564 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
+  <mergeCells count="63">
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="C2:C29"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D9"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
   <si>
     <t>variable_id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>project_id</t>
   </si>
   <si>
+    <t>mip_era</t>
+  </si>
+  <si>
     <t>activity_id</t>
   </si>
   <si>
@@ -55,12 +58,24 @@
     <t>CORDEX</t>
   </si>
   <si>
+    <t>CMIP5</t>
+  </si>
+  <si>
+    <t>CMIP6</t>
+  </si>
+  <si>
     <t>output</t>
   </si>
   <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>EUR-11</t>
   </si>
   <si>
+    <t>EUR-12</t>
+  </si>
+  <si>
     <t>CLMcom</t>
   </si>
   <si>
@@ -100,9 +115,18 @@
     <t>SMHI</t>
   </si>
   <si>
+    <t>CLMcom-Hereon</t>
+  </si>
+  <si>
+    <t>HCLIMcom-SMHI</t>
+  </si>
+  <si>
     <t>ECMWF-ERAINT</t>
   </si>
   <si>
+    <t>ERA5</t>
+  </si>
+  <si>
     <t>evaluation</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t>r1i1p1</t>
   </si>
   <si>
+    <t>r1i1p1f1</t>
+  </si>
+  <si>
     <t>CCLM4-8-17</t>
   </si>
   <si>
@@ -154,9 +181,24 @@
     <t>RCA4</t>
   </si>
   <si>
+    <t>ICON-CLM-202407-1-1</t>
+  </si>
+  <si>
+    <t>REMO2020</t>
+  </si>
+  <si>
+    <t>HCLIM43-ALADIN</t>
+  </si>
+  <si>
+    <t>RACMO23E</t>
+  </si>
+  <si>
     <t>v1</t>
   </si>
   <si>
+    <t>v1-r1</t>
+  </si>
+  <si>
     <t>fx</t>
   </si>
   <si>
@@ -166,6 +208,9 @@
     <t>day</t>
   </si>
   <si>
+    <t>1hr</t>
+  </si>
+  <si>
     <t>v20140515</t>
   </si>
   <si>
@@ -220,6 +265,18 @@
     <t>v20131026</t>
   </si>
   <si>
+    <t>v20240920</t>
+  </si>
+  <si>
+    <t>v20241120</t>
+  </si>
+  <si>
+    <t>v20241205</t>
+  </si>
+  <si>
+    <t>v20241216</t>
+  </si>
+  <si>
     <t>['orog', 'sftlf']</t>
   </si>
   <si>
@@ -236,6 +293,27 @@
   </si>
   <si>
     <t>['pr', 'tas']</t>
+  </si>
+  <si>
+    <t>['areacella', 'sftlaf', 'mrsofc', 'rootd', 'sftlf', 'sftgif', 'orog', 'sfturf']</t>
+  </si>
+  <si>
+    <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+  </si>
+  <si>
+    <t>['hurs', 'pr', 'prw', 'tas']</t>
+  </si>
+  <si>
+    <t>['pr', 'sfcWindmax', 'snc', 'snd', 'snw', 'tasmax']</t>
+  </si>
+  <si>
+    <t>['areacella', 'orog', 'sftlf', 'sftlaf']</t>
+  </si>
+  <si>
+    <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr']</t>
+  </si>
+  <si>
+    <t>['areacella', 'orog', 'sftlf']</t>
   </si>
 </sst>
 </file>
@@ -593,25 +671,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="112.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -646,164 +724,174 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -813,17 +901,18 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -831,23 +920,24 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -857,49 +947,51 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -909,49 +1001,51 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -961,107 +1055,111 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1071,81 +1169,84 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>63</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1155,17 +1256,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1176,46 +1278,48 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1225,107 +1329,111 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1335,91 +1443,350 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M39" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A2:A29"/>
+  <mergeCells count="91">
+    <mergeCell ref="A2:A39"/>
     <mergeCell ref="B2:B29"/>
+    <mergeCell ref="B30:B39"/>
     <mergeCell ref="C2:C29"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D2:D29"/>
+    <mergeCell ref="D30:D39"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -1432,6 +1799,10 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -1444,21 +1815,37 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -1467,7 +1854,23 @@
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K20:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
   <si>
     <t>variable_id</t>
   </si>
@@ -118,6 +118,9 @@
     <t>CLMcom-Hereon</t>
   </si>
   <si>
+    <t>CNRM-MF</t>
+  </si>
+  <si>
     <t>HCLIMcom-SMHI</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>ICON-CLM-202407-1-1</t>
   </si>
   <si>
+    <t>CNRM-ALADIN64E1</t>
+  </si>
+  <si>
     <t>REMO2020</t>
   </si>
   <si>
@@ -268,6 +274,9 @@
     <t>v20240920</t>
   </si>
   <si>
+    <t>v20250116</t>
+  </si>
+  <si>
     <t>v20241120</t>
   </si>
   <si>
@@ -286,6 +295,9 @@
     <t>['pr', 'tas', 'tasmax', 'tasmin']</t>
   </si>
   <si>
+    <t>['pr', 'psl', 'tasmax', 'tasmin']</t>
+  </si>
+  <si>
     <t>['pr', 'psl']</t>
   </si>
   <si>
@@ -299,6 +311,12 @@
   </si>
   <si>
     <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+  </si>
+  <si>
+    <t>['orog', 'areacella', 'rootd', 'sftlf']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin']</t>
   </si>
   <si>
     <t>['hurs', 'pr', 'prw', 'tas']</t>
@@ -671,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,7 +704,7 @@
     <col min="7" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="112.7109375" customWidth="1"/>
+    <col min="13" max="13" width="128.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -747,28 +765,28 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -780,22 +798,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -807,28 +825,28 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -840,22 +858,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -867,28 +885,28 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -903,13 +921,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -922,19 +940,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -949,13 +967,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -967,28 +985,28 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1003,13 +1021,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1021,28 +1039,28 @@
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1057,13 +1075,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1075,28 +1093,28 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1108,22 +1126,22 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1135,28 +1153,28 @@
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1171,13 +1189,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1189,28 +1207,28 @@
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1222,28 +1240,28 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1258,13 +1276,13 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1280,10 +1298,10 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1295,28 +1313,28 @@
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1331,13 +1349,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1349,28 +1367,28 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1382,22 +1400,22 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1409,28 +1427,28 @@
         <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1445,13 +1463,13 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1463,28 +1481,28 @@
         <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1496,22 +1514,22 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1529,28 +1547,28 @@
         <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1565,13 +1583,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1580,31 +1598,31 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1619,13 +1637,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1633,20 +1651,32 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K34" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1661,13 +1691,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1675,32 +1705,20 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M36" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1715,13 +1733,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M37" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1730,31 +1748,31 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M38" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1769,24 +1787,78 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M39" t="s">
-        <v>88</v>
+      <c r="K40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M41" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A2:A39"/>
+  <mergeCells count="97">
+    <mergeCell ref="A2:A41"/>
     <mergeCell ref="B2:B29"/>
-    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="B30:B41"/>
     <mergeCell ref="C2:C29"/>
-    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C30:C41"/>
     <mergeCell ref="D2:D29"/>
-    <mergeCell ref="D30:D39"/>
+    <mergeCell ref="D30:D41"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -1800,9 +1872,10 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -1816,9 +1889,10 @@
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F37"/>
     <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -1832,9 +1906,10 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G37"/>
     <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
@@ -1843,9 +1918,10 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H37"/>
     <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -1855,9 +1931,10 @@
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I37"/>
     <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -1867,9 +1944,10 @@
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J37"/>
     <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
     <mergeCell ref="K20:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -1081,7 +1081,7 @@
         <v>73</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -295,7 +295,7 @@
     <t>['pr', 'tas', 'tasmax', 'tasmin']</t>
   </si>
   <si>
-    <t>['pr', 'psl', 'tasmax', 'tasmin']</t>
+    <t>['psl', 'tasmax', 'tasmin']</t>
   </si>
   <si>
     <t>['pr', 'psl']</t>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="115">
   <si>
     <t>variable_id</t>
   </si>
@@ -115,6 +115,9 @@
     <t>SMHI</t>
   </si>
   <si>
+    <t>CLMcom-CMCC</t>
+  </si>
+  <si>
     <t>CLMcom-Hereon</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>RCA4</t>
   </si>
   <si>
+    <t>CCLM6-0-1-URB</t>
+  </si>
+  <si>
     <t>ICON-CLM-202407-1-1</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>RACMO23E</t>
   </si>
   <si>
+    <t>ALARO1-SFX</t>
+  </si>
+  <si>
     <t>v1</t>
   </si>
   <si>
@@ -271,6 +280,9 @@
     <t>v20131026</t>
   </si>
   <si>
+    <t>v20250201</t>
+  </si>
+  <si>
     <t>v20240920</t>
   </si>
   <si>
@@ -286,6 +298,9 @@
     <t>v20241216</t>
   </si>
   <si>
+    <t>v20241009</t>
+  </si>
+  <si>
     <t>['orog', 'sftlf']</t>
   </si>
   <si>
@@ -307,10 +322,19 @@
     <t>['pr', 'tas']</t>
   </si>
   <si>
+    <t>['tas', 'pr', 'hurs', 'prw', 'sfcWind']</t>
+  </si>
+  <si>
+    <t>['hurs', 'pr', 'tasmax', 'clt', 'tasmin', 'psl']</t>
+  </si>
+  <si>
+    <t>['clt', 'pr', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'sfcWind']</t>
+  </si>
+  <si>
     <t>['areacella', 'sftlaf', 'mrsofc', 'rootd', 'sftlf', 'sftgif', 'orog', 'sfturf']</t>
   </si>
   <si>
-    <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+    <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'mrro', 'mrros', 'snw', 'evspsbl']</t>
   </si>
   <si>
     <t>['orog', 'areacella', 'rootd', 'sftlf']</t>
@@ -332,6 +356,9 @@
   </si>
   <si>
     <t>['areacella', 'orog', 'sftlf']</t>
+  </si>
+  <si>
+    <t>['orog', 'sftlf', 'sfturf', 'sftlaf']</t>
   </si>
 </sst>
 </file>
@@ -689,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,28 +792,28 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -798,22 +825,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -825,28 +852,28 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -858,22 +885,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -885,28 +912,28 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -921,13 +948,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -940,19 +967,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -967,13 +994,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -985,28 +1012,28 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1021,13 +1048,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1039,28 +1066,28 @@
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1075,13 +1102,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1093,28 +1120,28 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1126,22 +1153,22 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1153,28 +1180,28 @@
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1189,13 +1216,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1207,28 +1234,28 @@
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1240,28 +1267,28 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1276,13 +1303,13 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1298,10 +1325,10 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1313,28 +1340,28 @@
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1349,13 +1376,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1367,28 +1394,28 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1400,22 +1427,22 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1427,28 +1454,28 @@
         <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1463,13 +1490,13 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M27" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1481,28 +1508,28 @@
         <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1514,22 +1541,22 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1547,28 +1574,28 @@
         <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M30" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1583,13 +1610,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1597,32 +1624,20 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1630,20 +1645,32 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1651,32 +1678,20 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M34" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1684,20 +1699,32 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1712,13 +1739,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1726,20 +1753,32 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1747,32 +1786,20 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M38" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1787,13 +1814,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M39" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1801,32 +1828,20 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M40" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1834,31 +1849,172 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M41" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M46" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="A2:A41"/>
+  <mergeCells count="109">
+    <mergeCell ref="A2:A46"/>
     <mergeCell ref="B2:B29"/>
-    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="B30:B46"/>
     <mergeCell ref="C2:C29"/>
-    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="C30:C46"/>
     <mergeCell ref="D2:D29"/>
-    <mergeCell ref="D30:D41"/>
+    <mergeCell ref="D30:D46"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -1871,11 +2027,13 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -1888,11 +2046,13 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -1905,11 +2065,13 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
@@ -1917,11 +2079,13 @@
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -1930,11 +2094,13 @@
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -1943,11 +2109,13 @@
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
     <mergeCell ref="K20:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="111">
   <si>
     <t>variable_id</t>
   </si>
@@ -115,9 +115,6 @@
     <t>SMHI</t>
   </si>
   <si>
-    <t>CLMcom-CMCC</t>
-  </si>
-  <si>
     <t>CLMcom-Hereon</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>RCA4</t>
   </si>
   <si>
-    <t>CCLM6-0-1-URB</t>
-  </si>
-  <si>
     <t>ICON-CLM-202407-1-1</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>v20131026</t>
   </si>
   <si>
-    <t>v20250201</t>
-  </si>
-  <si>
     <t>v20240920</t>
   </si>
   <si>
@@ -322,15 +313,6 @@
     <t>['pr', 'tas']</t>
   </si>
   <si>
-    <t>['tas', 'pr', 'hurs', 'prw', 'sfcWind']</t>
-  </si>
-  <si>
-    <t>['hurs', 'pr', 'tasmax', 'clt', 'tasmin', 'psl']</t>
-  </si>
-  <si>
-    <t>['clt', 'pr', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'sfcWind']</t>
-  </si>
-  <si>
     <t>['areacella', 'sftlaf', 'mrsofc', 'rootd', 'sftlf', 'sftgif', 'orog', 'sfturf']</t>
   </si>
   <si>
@@ -355,7 +337,13 @@
     <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr']</t>
   </si>
   <si>
+    <t>['pr', 'tas', 'zg500']</t>
+  </si>
+  <si>
     <t>['areacella', 'orog', 'sftlf']</t>
+  </si>
+  <si>
+    <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'sfcWind']</t>
   </si>
   <si>
     <t>['orog', 'sftlf', 'sfturf', 'sftlaf']</t>
@@ -716,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,28 +780,28 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -825,22 +813,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -852,28 +840,28 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -885,22 +873,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -912,28 +900,28 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -948,13 +936,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -967,19 +955,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -994,13 +982,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1012,28 +1000,28 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1048,13 +1036,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1066,28 +1054,28 @@
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1102,13 +1090,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1120,28 +1108,28 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1153,22 +1141,22 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1180,28 +1168,28 @@
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1216,13 +1204,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1234,28 +1222,28 @@
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1267,28 +1255,28 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1303,13 +1291,13 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1325,10 +1313,10 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1340,28 +1328,28 @@
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1376,13 +1364,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1394,28 +1382,28 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1427,22 +1415,22 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1454,28 +1442,28 @@
         <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1490,13 +1478,13 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1508,28 +1496,28 @@
         <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1541,22 +1529,22 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1574,28 +1562,28 @@
         <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1610,13 +1598,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1624,20 +1612,32 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1645,32 +1645,20 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1678,20 +1666,32 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1699,32 +1699,20 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1739,13 +1727,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1753,32 +1741,20 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L37" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1786,20 +1762,32 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M38" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1814,13 +1802,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M39" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1828,20 +1816,32 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1849,32 +1849,20 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1889,13 +1877,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1904,31 +1892,31 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1943,78 +1931,24 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M44" t="s">
         <v>93</v>
       </c>
-      <c r="M44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M46" t="s">
-        <v>96</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="A2:A46"/>
+  <mergeCells count="103">
+    <mergeCell ref="A2:A44"/>
     <mergeCell ref="B2:B29"/>
-    <mergeCell ref="B30:B46"/>
+    <mergeCell ref="B30:B44"/>
     <mergeCell ref="C2:C29"/>
-    <mergeCell ref="C30:C46"/>
+    <mergeCell ref="C30:C44"/>
     <mergeCell ref="D2:D29"/>
-    <mergeCell ref="D30:D46"/>
+    <mergeCell ref="D30:D44"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -2027,13 +1961,12 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E42"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -2046,13 +1979,12 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F42"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -2065,13 +1997,12 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
@@ -2079,13 +2010,12 @@
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H42"/>
     <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -2094,13 +2024,12 @@
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I42"/>
     <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -2109,13 +2038,12 @@
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J40"/>
-    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J42"/>
     <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
     <mergeCell ref="K20:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
   <si>
     <t>variable_id</t>
   </si>
@@ -94,9 +94,6 @@
     <t>GERICS</t>
   </si>
   <si>
-    <t>ICTP</t>
-  </si>
-  <si>
     <t>IPSL</t>
   </si>
   <si>
@@ -115,9 +112,15 @@
     <t>SMHI</t>
   </si>
   <si>
+    <t>CLMcom-CMCC</t>
+  </si>
+  <si>
     <t>CLMcom-Hereon</t>
   </si>
   <si>
+    <t>CLMcom-KUL</t>
+  </si>
+  <si>
     <t>CNRM-MF</t>
   </si>
   <si>
@@ -163,9 +166,6 @@
     <t>REMO2015</t>
   </si>
   <si>
-    <t>RegCM4-6</t>
-  </si>
-  <si>
     <t>WRF381P</t>
   </si>
   <si>
@@ -184,9 +184,15 @@
     <t>RCA4</t>
   </si>
   <si>
+    <t>CCLM6-0-1-URB</t>
+  </si>
+  <si>
     <t>ICON-CLM-202407-1-1</t>
   </si>
   <si>
+    <t>CCLM6-0-1-URB-ESG</t>
+  </si>
+  <si>
     <t>CNRM-ALADIN64E1</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>1hr</t>
   </si>
   <si>
+    <t>6hr</t>
+  </si>
+  <si>
     <t>v20140515</t>
   </si>
   <si>
@@ -244,9 +253,6 @@
     <t>v20180813</t>
   </si>
   <si>
-    <t>v20190502</t>
-  </si>
-  <si>
     <t>v20190919</t>
   </si>
   <si>
@@ -274,9 +280,18 @@
     <t>v20131026</t>
   </si>
   <si>
+    <t>v20250201</t>
+  </si>
+  <si>
     <t>v20240920</t>
   </si>
   <si>
+    <t>v20250130</t>
+  </si>
+  <si>
+    <t>v20250304</t>
+  </si>
+  <si>
     <t>v20250116</t>
   </si>
   <si>
@@ -301,9 +316,6 @@
     <t>['pr', 'tas', 'tasmax', 'tasmin']</t>
   </si>
   <si>
-    <t>['psl', 'tasmax', 'tasmin']</t>
-  </si>
-  <si>
     <t>['pr', 'psl']</t>
   </si>
   <si>
@@ -313,12 +325,33 @@
     <t>['pr', 'tas']</t>
   </si>
   <si>
+    <t>['hurs', 'pr', 'prw', 'sfcWind', 'tas']</t>
+  </si>
+  <si>
+    <t>['hus1000', 'hus200', 'hus250', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ta1000', 'ta200', 'ta250', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua1000', 'ua200', 'ua250', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+  </si>
+  <si>
+    <t>['clt', 'hurs', 'pr', 'psl', 'tasmax', 'tasmin', 'zg500', 'sfcWindmax', 'snw']</t>
+  </si>
+  <si>
+    <t>['orog', 'sftlf', 'sfturf']</t>
+  </si>
+  <si>
+    <t>['clt', 'hfls', 'pr', 'psl', 'rlut', 'rlutcs', 'rsds', 'rsut', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500', 'snw']</t>
+  </si>
+  <si>
     <t>['areacella', 'sftlaf', 'mrsofc', 'rootd', 'sftlf', 'sftgif', 'orog', 'sfturf']</t>
   </si>
   <si>
     <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'mrro', 'mrros', 'snw', 'evspsbl']</t>
   </si>
   <si>
+    <t>['clt', 'evspsbl', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas', 'vas']</t>
+  </si>
+  <si>
+    <t>['pr']</t>
+  </si>
+  <si>
     <t>['orog', 'areacella', 'rootd', 'sftlf']</t>
   </si>
   <si>
@@ -334,7 +367,7 @@
     <t>['areacella', 'orog', 'sftlf', 'sftlaf']</t>
   </si>
   <si>
-    <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr']</t>
+    <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr', 'psl']</t>
   </si>
   <si>
     <t>['pr', 'tas', 'zg500']</t>
@@ -347,6 +380,9 @@
   </si>
   <si>
     <t>['orog', 'sftlf', 'sfturf', 'sftlaf']</t>
+  </si>
+  <si>
+    <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'rsds', 'rlds']</t>
   </si>
 </sst>
 </file>
@@ -704,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,7 +755,7 @@
     <col min="7" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="128.7109375" customWidth="1"/>
+    <col min="13" max="13" width="285.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -780,28 +816,28 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -813,22 +849,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -840,28 +876,28 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -873,22 +909,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -900,28 +936,28 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -936,13 +972,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -955,19 +991,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -982,13 +1018,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1000,28 +1036,28 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1036,13 +1072,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1054,28 +1090,28 @@
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1090,13 +1126,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1108,28 +1144,28 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1141,22 +1177,22 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1168,28 +1204,28 @@
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,20 +1233,32 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1218,32 +1266,20 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1251,32 +1287,18 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M19" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1284,20 +1306,32 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1311,12 +1345,14 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L21" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1328,28 +1364,28 @@
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1360,17 +1396,23 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1382,28 +1424,28 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1414,23 +1456,17 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1442,28 +1478,28 @@
         <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1474,14 +1510,20 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M27" t="s">
         <v>98</v>
@@ -1489,35 +1531,41 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M28" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1528,62 +1576,38 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M29" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1598,13 +1622,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1612,32 +1636,20 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1645,20 +1657,32 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1666,32 +1690,20 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1699,20 +1711,32 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1727,13 +1751,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1741,20 +1765,32 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1762,32 +1798,20 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M38" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1802,13 +1826,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M39" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1817,31 +1841,31 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M40" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1856,13 +1880,13 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M41" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1877,13 +1901,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M42" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1891,32 +1915,20 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1924,127 +1936,295 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M44" t="s">
-        <v>93</v>
+      <c r="K46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M50" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="A2:A44"/>
-    <mergeCell ref="B2:B29"/>
-    <mergeCell ref="B30:B44"/>
-    <mergeCell ref="C2:C29"/>
-    <mergeCell ref="C30:C44"/>
-    <mergeCell ref="D2:D29"/>
-    <mergeCell ref="D30:D44"/>
+  <mergeCells count="109">
+    <mergeCell ref="A2:A50"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="B28:B50"/>
+    <mergeCell ref="C2:C27"/>
+    <mergeCell ref="C28:C50"/>
+    <mergeCell ref="D2:D27"/>
+    <mergeCell ref="D28:D50"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="E49:E50"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G50"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H49:H50"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I49:I50"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="123">
   <si>
     <t>variable_id</t>
   </si>
@@ -740,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1955,13 +1955,13 @@
         <v>65</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>94</v>
       </c>
       <c r="M44" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1976,13 +1976,13 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="M45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -1990,32 +1990,20 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M46" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2023,20 +2011,32 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K47" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2051,13 +2051,13 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2065,32 +2065,20 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2098,31 +2086,64 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>96</v>
       </c>
       <c r="M50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M51" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="A2:A50"/>
+    <mergeCell ref="A2:A51"/>
     <mergeCell ref="B2:B27"/>
-    <mergeCell ref="B28:B50"/>
+    <mergeCell ref="B28:B51"/>
     <mergeCell ref="C2:C27"/>
-    <mergeCell ref="C28:C50"/>
+    <mergeCell ref="C28:C51"/>
     <mergeCell ref="D2:D27"/>
-    <mergeCell ref="D28:D50"/>
+    <mergeCell ref="D28:D51"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -2139,9 +2160,9 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E51"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -2158,9 +2179,9 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="F37:F39"/>
     <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F50:F51"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -2177,9 +2198,9 @@
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G37:G39"/>
     <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G51"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
@@ -2191,9 +2212,9 @@
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H39"/>
     <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="H50:H51"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -2206,9 +2227,9 @@
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="I37:I39"/>
     <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="I50:I51"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -2221,9 +2242,9 @@
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="J37:J39"/>
     <mergeCell ref="J40:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J51"/>
     <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="132">
   <si>
     <t>variable_id</t>
   </si>
@@ -133,9 +133,24 @@
     <t>ERA5</t>
   </si>
   <si>
+    <t>CNRM-ESM2-1</t>
+  </si>
+  <si>
+    <t>EC-Earth3-Veg</t>
+  </si>
+  <si>
+    <t>MIROC6</t>
+  </si>
+  <si>
     <t>evaluation</t>
   </si>
   <si>
+    <t>historical</t>
+  </si>
+  <si>
+    <t>ssp370</t>
+  </si>
+  <si>
     <t>r0i0p0</t>
   </si>
   <si>
@@ -145,6 +160,15 @@
     <t>r1i1p1f1</t>
   </si>
   <si>
+    <t>r1i1p1f2</t>
+  </si>
+  <si>
+    <t>r2i1p1f1</t>
+  </si>
+  <si>
+    <t>r3i1p1f1</t>
+  </si>
+  <si>
     <t>CCLM4-8-17</t>
   </si>
   <si>
@@ -368,6 +392,9 @@
   </si>
   <si>
     <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr', 'psl']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['pr', 'tas', 'zg500']</t>
@@ -740,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,25 +846,25 @@
         <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -849,22 +876,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -879,25 +906,25 @@
         <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -909,22 +936,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -939,25 +966,25 @@
         <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -972,13 +999,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -991,19 +1018,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1018,13 +1045,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1039,25 +1066,25 @@
         <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1072,13 +1099,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1093,25 +1120,25 @@
         <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1126,13 +1153,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1147,25 +1174,25 @@
         <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1177,22 +1204,22 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1207,25 +1234,25 @@
         <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1240,25 +1267,25 @@
         <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1273,13 +1300,13 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1295,10 +1322,10 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1313,25 +1340,25 @@
         <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1346,13 +1373,13 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1367,25 +1394,25 @@
         <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1397,22 +1424,22 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1427,25 +1454,25 @@
         <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M24" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1460,13 +1487,13 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1481,25 +1508,25 @@
         <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M26" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1511,22 +1538,22 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1547,25 +1574,25 @@
         <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1580,13 +1607,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1601,13 +1628,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M30" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1622,13 +1649,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M31" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1643,13 +1670,13 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M32" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1664,25 +1691,25 @@
         <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M33" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1697,13 +1724,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M34" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1718,25 +1745,25 @@
         <v>38</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M35" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1751,13 +1778,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M36" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1772,25 +1799,25 @@
         <v>38</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M37" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1805,13 +1832,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M38" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1826,13 +1853,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M39" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1847,25 +1874,25 @@
         <v>38</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M40" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1880,13 +1907,13 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M41" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1901,13 +1928,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M42" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1922,13 +1949,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M43" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1940,28 +1967,28 @@
         <v>36</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M44" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1971,18 +1998,26 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K45" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M45" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -1991,19 +2026,29 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2011,32 +2056,26 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M47" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2047,17 +2086,23 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K48" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M48" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2066,19 +2111,29 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K49" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2086,32 +2141,20 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2126,24 +2169,213 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M51" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M58" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="A2:A51"/>
+  <mergeCells count="113">
+    <mergeCell ref="A2:A58"/>
     <mergeCell ref="B2:B27"/>
-    <mergeCell ref="B28:B51"/>
+    <mergeCell ref="B28:B58"/>
     <mergeCell ref="C2:C27"/>
-    <mergeCell ref="C28:C51"/>
+    <mergeCell ref="C28:C58"/>
     <mergeCell ref="D2:D27"/>
-    <mergeCell ref="D28:D51"/>
+    <mergeCell ref="D28:D58"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -2160,9 +2392,9 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E57:E58"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -2179,9 +2411,12 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="F37:F39"/>
     <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F57:F58"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -2198,9 +2433,10 @@
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G37:G39"/>
     <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G58"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
@@ -2212,9 +2448,9 @@
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H39"/>
     <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H58"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -2227,9 +2463,9 @@
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="I37:I39"/>
     <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I57:I58"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -2242,9 +2478,9 @@
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="J37:J39"/>
     <mergeCell ref="J40:J43"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="J57:J58"/>
     <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="139">
   <si>
     <t>variable_id</t>
   </si>
@@ -124,6 +124,9 @@
     <t>CNRM-MF</t>
   </si>
   <si>
+    <t>HCLIMcom-METNo</t>
+  </si>
+  <si>
     <t>HCLIMcom-SMHI</t>
   </si>
   <si>
@@ -136,12 +139,18 @@
     <t>CNRM-ESM2-1</t>
   </si>
   <si>
+    <t>NorESM2-MM</t>
+  </si>
+  <si>
     <t>EC-Earth3-Veg</t>
   </si>
   <si>
     <t>MIROC6</t>
   </si>
   <si>
+    <t>MPI-ESM1-2-HR</t>
+  </si>
+  <si>
     <t>evaluation</t>
   </si>
   <si>
@@ -313,6 +322,9 @@
     <t>v20250130</t>
   </si>
   <si>
+    <t>v20250327</t>
+  </si>
+  <si>
     <t>v20250304</t>
   </si>
   <si>
@@ -373,6 +385,9 @@
     <t>['clt', 'evspsbl', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas', 'vas']</t>
   </si>
   <si>
+    <t>['tasmax', 'tasmin', 'tas', 'huss', 'pr', 'rlds', 'rsds', 'evspsbl', 'psl', 'clt', 'zg500']</t>
+  </si>
+  <si>
     <t>['pr']</t>
   </si>
   <si>
@@ -394,7 +409,13 @@
     <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr', 'psl']</t>
   </si>
   <si>
-    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
+  </si>
+  <si>
+    <t>['sfcWind']</t>
+  </si>
+  <si>
+    <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'clt', 'evspsbl', 'huss', 'rlds', 'rsds', 'uas', 'vas', 'sfcWind']</t>
   </si>
   <si>
     <t>['pr', 'tas', 'zg500']</t>
@@ -767,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,28 +864,28 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -876,22 +897,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -903,28 +924,28 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -936,22 +957,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -963,28 +984,28 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -999,13 +1020,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1018,19 +1039,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1045,13 +1066,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1063,28 +1084,28 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1099,13 +1120,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1117,28 +1138,28 @@
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1153,13 +1174,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1171,28 +1192,28 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1204,22 +1225,22 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1231,28 +1252,28 @@
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1264,28 +1285,28 @@
         <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1300,13 +1321,13 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1322,10 +1343,10 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1337,28 +1358,28 @@
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1373,13 +1394,13 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1391,28 +1412,28 @@
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1424,22 +1445,22 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1451,28 +1472,28 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1487,13 +1508,13 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1505,28 +1526,28 @@
         <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1538,22 +1559,22 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1571,28 +1592,28 @@
         <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1607,13 +1628,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1628,13 +1649,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1649,13 +1670,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1670,13 +1691,13 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1688,28 +1709,28 @@
         <v>33</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1724,13 +1745,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1742,28 +1763,28 @@
         <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1778,13 +1799,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1796,28 +1817,28 @@
         <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M37" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1827,18 +1848,26 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1847,19 +1876,29 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K39" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1867,32 +1906,20 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1907,13 +1934,13 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M41" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1921,20 +1948,32 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K42" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1949,13 +1988,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1963,32 +2002,20 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1998,26 +2025,18 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2025,30 +2044,32 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F46" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M46" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2059,23 +2080,17 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M47" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2085,24 +2100,26 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M48" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2111,29 +2128,19 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M49" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2141,20 +2148,32 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K50" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M50" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2169,13 +2188,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M51" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2184,29 +2203,27 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M52" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2216,26 +2233,18 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M53" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2243,32 +2252,30 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M54" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2283,13 +2290,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M55" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2300,17 +2307,23 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K56" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M56" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2318,32 +2331,20 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M57" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2354,28 +2355,628 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K58" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M58" t="s">
         <v>131</v>
       </c>
     </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M79" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M82" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="A2:A58"/>
+  <mergeCells count="168">
+    <mergeCell ref="A2:A82"/>
     <mergeCell ref="B2:B27"/>
-    <mergeCell ref="B28:B58"/>
+    <mergeCell ref="B28:B82"/>
     <mergeCell ref="C2:C27"/>
-    <mergeCell ref="C28:C58"/>
+    <mergeCell ref="C28:C82"/>
     <mergeCell ref="D2:D27"/>
-    <mergeCell ref="D28:D58"/>
+    <mergeCell ref="D28:D82"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -2390,11 +2991,12 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E77"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="E81:E82"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -2409,14 +3011,17 @@
     <mergeCell ref="F28:F32"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F54:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="F81:F82"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -2431,12 +3036,21 @@
     <mergeCell ref="G28:G32"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="G81:G82"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
@@ -2446,11 +3060,25 @@
     <mergeCell ref="H28:H32"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H81:H82"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -2461,11 +3089,25 @@
     <mergeCell ref="I28:I32"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="I81:I82"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -2476,11 +3118,25 @@
     <mergeCell ref="J28:J32"/>
     <mergeCell ref="J33:J34"/>
     <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="J81:J82"/>
     <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -322,7 +322,7 @@
     <t>v20250130</t>
   </si>
   <si>
-    <t>v20250327</t>
+    <t>v20240122</t>
   </si>
   <si>
     <t>v20250304</t>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -322,7 +322,7 @@
     <t>v20250130</t>
   </si>
   <si>
-    <t>v20240122</t>
+    <t>v20250328</t>
   </si>
   <si>
     <t>v20250304</t>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="137">
   <si>
     <t>variable_id</t>
   </si>
@@ -88,9 +88,6 @@
     <t>DHMZ</t>
   </si>
   <si>
-    <t>DMI</t>
-  </si>
-  <si>
     <t>GERICS</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>RegCM4-2</t>
   </si>
   <si>
-    <t>HIRHAM5</t>
-  </si>
-  <si>
     <t>REMO2015</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>v20150527</t>
   </si>
   <si>
-    <t>v20140620</t>
-  </si>
-  <si>
     <t>v20180813</t>
   </si>
   <si>
@@ -319,12 +310,12 @@
     <t>v20240920</t>
   </si>
   <si>
+    <t>v20250328</t>
+  </si>
+  <si>
     <t>v20250130</t>
   </si>
   <si>
-    <t>v20250328</t>
-  </si>
-  <si>
     <t>v20250304</t>
   </si>
   <si>
@@ -382,13 +373,16 @@
     <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'mrro', 'mrros', 'snw', 'evspsbl']</t>
   </si>
   <si>
+    <t>['pr']</t>
+  </si>
+  <si>
     <t>['clt', 'evspsbl', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas', 'vas']</t>
   </si>
   <si>
+    <t>['clt', 'evspsbl', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas']</t>
+  </si>
+  <si>
     <t>['tasmax', 'tasmin', 'tas', 'huss', 'pr', 'rlds', 'rsds', 'evspsbl', 'psl', 'clt', 'zg500']</t>
-  </si>
-  <si>
-    <t>['pr']</t>
   </si>
   <si>
     <t>['orog', 'areacella', 'rootd', 'sftlf']</t>
@@ -788,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,28 +858,28 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -897,22 +891,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -924,28 +918,28 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -957,22 +951,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -984,28 +978,28 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1020,13 +1014,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1039,19 +1033,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1066,13 +1060,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1084,28 +1078,28 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1120,13 +1114,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1138,28 +1132,28 @@
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1170,17 +1164,23 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1192,28 +1192,28 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1221,26 +1221,32 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1248,32 +1254,20 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1281,32 +1275,18 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1314,20 +1294,32 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1341,12 +1333,14 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1358,28 +1352,28 @@
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1390,17 +1384,23 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1412,28 +1412,28 @@
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1444,23 +1444,17 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1472,28 +1466,28 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1504,24 +1498,36 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1529,25 +1535,25 @@
         <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1558,62 +1564,38 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1628,13 +1610,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1649,13 +1631,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1663,20 +1645,32 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1691,13 +1685,13 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1709,28 +1703,28 @@
         <v>33</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1745,13 +1739,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1759,32 +1753,18 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1799,13 +1779,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M36" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1813,32 +1793,20 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1848,26 +1816,16 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1875,7 +1833,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1886,19 +1846,19 @@
         <v>50</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1908,18 +1868,26 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1928,19 +1896,29 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M41" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1948,32 +1926,20 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1988,13 +1954,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2002,20 +1968,32 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2030,13 +2008,13 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2044,32 +2022,20 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2084,13 +2050,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M47" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2098,28 +2064,32 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2134,13 +2104,13 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2148,32 +2118,28 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2188,13 +2154,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2202,28 +2168,32 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G52" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2238,13 +2208,13 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2253,9 +2223,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2263,19 +2231,19 @@
         <v>50</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2290,13 +2258,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2305,25 +2273,29 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H56" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2338,13 +2310,13 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2356,22 +2328,22 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2386,13 +2358,13 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2402,26 +2374,24 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2436,13 +2406,13 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2452,24 +2422,26 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H62" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2484,13 +2456,13 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2502,22 +2474,22 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2532,13 +2504,13 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2547,29 +2519,25 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M66" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2584,13 +2552,13 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2599,19 +2567,29 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M68" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2626,13 +2604,13 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M69" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2641,29 +2619,19 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M70" t="s">
         <v>106</v>
-      </c>
-      <c r="M70" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2678,13 +2646,13 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2693,27 +2661,29 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G72" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2728,13 +2698,13 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2743,29 +2713,27 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2780,13 +2748,13 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2795,27 +2763,29 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G76" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2830,13 +2800,13 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2844,32 +2814,28 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M78" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2884,13 +2850,13 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M79" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2898,20 +2864,32 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M80" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2919,32 +2897,20 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M81" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2959,110 +2925,159 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M82" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M84" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="A2:A82"/>
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="B28:B82"/>
-    <mergeCell ref="C2:C27"/>
-    <mergeCell ref="C28:C82"/>
-    <mergeCell ref="D2:D27"/>
-    <mergeCell ref="D28:D82"/>
+  <mergeCells count="164">
+    <mergeCell ref="A2:A84"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="B26:B84"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="C26:C84"/>
+    <mergeCell ref="D2:D25"/>
+    <mergeCell ref="D26:D84"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E77"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E79"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E83:E84"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="F54:F65"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="F56:F67"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F83:F84"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G47"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G61"/>
+    <mergeCell ref="G62:G67"/>
+    <mergeCell ref="G68:G71"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="G83:G84"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H47"/>
     <mergeCell ref="H48:H49"/>
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="H52:H53"/>
@@ -3072,26 +3087,25 @@
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H71"/>
     <mergeCell ref="H72:H73"/>
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="H83:H84"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="I44:I47"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="I52:I53"/>
@@ -3101,26 +3115,25 @@
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="I62:I63"/>
     <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I71"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="I74:I75"/>
     <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I83:I84"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="J44:J47"/>
     <mergeCell ref="J48:J49"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="J52:J53"/>
@@ -3130,14 +3143,17 @@
     <mergeCell ref="J60:J61"/>
     <mergeCell ref="J62:J63"/>
     <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J71"/>
     <mergeCell ref="J72:J73"/>
     <mergeCell ref="J74:J75"/>
     <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K37:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="135">
   <si>
     <t>variable_id</t>
   </si>
@@ -313,9 +313,6 @@
     <t>v20250328</t>
   </si>
   <si>
-    <t>v20250130</t>
-  </si>
-  <si>
     <t>v20250304</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
   </si>
   <si>
     <t>['pr']</t>
-  </si>
-  <si>
-    <t>['clt', 'evspsbl', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas']</t>
@@ -782,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,7 +873,7 @@
         <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -906,7 +900,7 @@
         <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -939,7 +933,7 @@
         <v>81</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -966,7 +960,7 @@
         <v>81</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -999,7 +993,7 @@
         <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1020,7 +1014,7 @@
         <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1045,7 +1039,7 @@
         <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1066,7 +1060,7 @@
         <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1099,7 +1093,7 @@
         <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1120,7 +1114,7 @@
         <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1153,7 +1147,7 @@
         <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1180,7 +1174,7 @@
         <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1213,7 +1207,7 @@
         <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1246,7 +1240,7 @@
         <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1267,7 +1261,7 @@
         <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1286,7 +1280,7 @@
         <v>89</v>
       </c>
       <c r="M17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1319,7 +1313,7 @@
         <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1340,7 +1334,7 @@
         <v>91</v>
       </c>
       <c r="M19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1373,7 +1367,7 @@
         <v>92</v>
       </c>
       <c r="M20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1400,7 +1394,7 @@
         <v>92</v>
       </c>
       <c r="M21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1433,7 +1427,7 @@
         <v>93</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1454,7 +1448,7 @@
         <v>94</v>
       </c>
       <c r="M23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1487,7 +1481,7 @@
         <v>95</v>
       </c>
       <c r="M24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1514,7 +1508,7 @@
         <v>95</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1553,7 +1547,7 @@
         <v>96</v>
       </c>
       <c r="M26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1574,7 +1568,7 @@
         <v>96</v>
       </c>
       <c r="M27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1595,7 +1589,7 @@
         <v>96</v>
       </c>
       <c r="M28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1616,7 +1610,7 @@
         <v>96</v>
       </c>
       <c r="M29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1637,7 +1631,7 @@
         <v>96</v>
       </c>
       <c r="M30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1670,7 +1664,7 @@
         <v>97</v>
       </c>
       <c r="M31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1691,7 +1685,7 @@
         <v>97</v>
       </c>
       <c r="M32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1724,7 +1718,7 @@
         <v>98</v>
       </c>
       <c r="M33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1742,10 +1736,10 @@
         <v>77</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1759,12 +1753,14 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L35" s="1" t="s">
         <v>98</v>
       </c>
       <c r="M35" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1779,13 +1775,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>98</v>
       </c>
       <c r="M36" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1793,17 +1789,29 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M37" t="s">
         <v>120</v>
@@ -1816,16 +1824,26 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L38" s="1" t="s">
         <v>98</v>
       </c>
       <c r="M38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1833,17 +1851,15 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>68</v>
@@ -1852,13 +1868,13 @@
         <v>74</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1868,26 +1884,18 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1896,29 +1904,19 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>100</v>
       </c>
       <c r="M41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1926,14 +1924,26 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K42" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>101</v>
@@ -1954,7 +1964,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>101</v>
@@ -1968,29 +1978,17 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M44" t="s">
         <v>125</v>
@@ -2008,10 +2006,10 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M45" t="s">
         <v>126</v>
@@ -2022,14 +2020,26 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>102</v>
@@ -2064,14 +2074,10 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>49</v>
@@ -2086,10 +2092,10 @@
         <v>77</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2107,10 +2113,10 @@
         <v>76</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2118,13 +2124,17 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>70</v>
@@ -2136,10 +2146,10 @@
         <v>77</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2157,10 +2167,10 @@
         <v>76</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2168,14 +2178,10 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>50</v>
@@ -2190,10 +2196,10 @@
         <v>77</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2211,10 +2217,10 @@
         <v>76</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2223,12 +2229,14 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>70</v>
@@ -2240,10 +2248,10 @@
         <v>77</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2261,10 +2269,10 @@
         <v>76</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2273,14 +2281,10 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>70</v>
@@ -2292,10 +2296,10 @@
         <v>77</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2313,10 +2317,10 @@
         <v>76</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2328,7 +2332,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>70</v>
@@ -2340,10 +2344,10 @@
         <v>77</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2361,10 +2365,10 @@
         <v>76</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2374,9 +2378,11 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H60" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>70</v>
@@ -2388,10 +2394,10 @@
         <v>77</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2409,10 +2415,10 @@
         <v>76</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2422,11 +2428,9 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>70</v>
@@ -2438,10 +2442,10 @@
         <v>77</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2459,10 +2463,10 @@
         <v>76</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2474,7 +2478,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>70</v>
@@ -2486,10 +2490,10 @@
         <v>77</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2507,10 +2511,10 @@
         <v>76</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2519,10 +2523,14 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H66" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>70</v>
@@ -2531,13 +2539,13 @@
         <v>74</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M66" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2552,13 +2560,13 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2567,29 +2575,19 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M68" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2604,10 +2602,10 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M69" t="s">
         <v>129</v>
@@ -2619,19 +2617,29 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M70" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2649,10 +2657,10 @@
         <v>76</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2661,11 +2669,9 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>49</v>
@@ -2680,10 +2686,10 @@
         <v>77</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2701,10 +2707,10 @@
         <v>76</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2713,9 +2719,11 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G74" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>49</v>
@@ -2730,10 +2738,10 @@
         <v>77</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2751,10 +2759,10 @@
         <v>76</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2763,11 +2771,9 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>49</v>
@@ -2782,10 +2788,10 @@
         <v>77</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2803,10 +2809,10 @@
         <v>76</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2814,16 +2820,20 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G78" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>74</v>
@@ -2835,7 +2845,7 @@
         <v>103</v>
       </c>
       <c r="M78" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2850,13 +2860,13 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2864,29 +2874,17 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M80" t="s">
         <v>132</v>
@@ -2897,12 +2895,24 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K81" s="1" t="s">
         <v>75</v>
       </c>
@@ -2934,69 +2944,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M83" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M84" t="s">
-        <v>136</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="164">
-    <mergeCell ref="A2:A84"/>
+  <mergeCells count="162">
+    <mergeCell ref="A2:A82"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B84"/>
+    <mergeCell ref="B26:B82"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C84"/>
+    <mergeCell ref="C26:C82"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D84"/>
+    <mergeCell ref="D26:D82"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -3009,13 +2965,13 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E30"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E79"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E77"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="E81:E82"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -3028,18 +2984,18 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F30"/>
     <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="F56:F67"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F54:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="F81:F82"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -3052,22 +3008,22 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G26:G30"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G46:G47"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G61"/>
-    <mergeCell ref="G62:G67"/>
-    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G70:G71"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="G81:G82"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -3075,9 +3031,10 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H26:H30"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H47"/>
     <mergeCell ref="H48:H49"/>
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="H52:H53"/>
@@ -3087,14 +3044,13 @@
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H70:H71"/>
     <mergeCell ref="H72:H73"/>
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H81:H82"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -3103,9 +3059,10 @@
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I26:I30"/>
     <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I46:I47"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="I52:I53"/>
@@ -3115,14 +3072,13 @@
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="I62:I63"/>
     <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I70:I71"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="I74:I75"/>
     <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="I81:I82"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -3131,9 +3087,10 @@
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="J26:J30"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J46:J47"/>
     <mergeCell ref="J48:J49"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="J52:J53"/>
@@ -3143,17 +3100,14 @@
     <mergeCell ref="J60:J61"/>
     <mergeCell ref="J62:J63"/>
     <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="J70:J71"/>
     <mergeCell ref="J72:J73"/>
     <mergeCell ref="J74:J75"/>
     <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="J81:J82"/>
     <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K37:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="117">
   <si>
     <t>variable_id</t>
   </si>
@@ -58,6 +58,9 @@
     <t>CORDEX</t>
   </si>
   <si>
+    <t>CORDEX-CMIP6</t>
+  </si>
+  <si>
     <t>CMIP5</t>
   </si>
   <si>
@@ -76,18 +79,9 @@
     <t>EUR-12</t>
   </si>
   <si>
-    <t>CLMcom</t>
-  </si>
-  <si>
-    <t>CLMcom-ETH</t>
-  </si>
-  <si>
     <t>CNRM</t>
   </si>
   <si>
-    <t>DHMZ</t>
-  </si>
-  <si>
     <t>GERICS</t>
   </si>
   <si>
@@ -97,37 +91,34 @@
     <t>KNMI</t>
   </si>
   <si>
-    <t>MOHC</t>
-  </si>
-  <si>
     <t>MPI-CSC</t>
   </si>
   <si>
+    <t>SMHI</t>
+  </si>
+  <si>
+    <t>CLMcom-CMCC</t>
+  </si>
+  <si>
+    <t>CLMcom-Hereon</t>
+  </si>
+  <si>
+    <t>CLMcom-KUL</t>
+  </si>
+  <si>
+    <t>CNRM-MF</t>
+  </si>
+  <si>
+    <t>HCLIMcom-METNo</t>
+  </si>
+  <si>
+    <t>HCLIMcom-SMHI</t>
+  </si>
+  <si>
     <t>RMIB-UGent</t>
   </si>
   <si>
-    <t>SMHI</t>
-  </si>
-  <si>
-    <t>CLMcom-CMCC</t>
-  </si>
-  <si>
-    <t>CLMcom-Hereon</t>
-  </si>
-  <si>
-    <t>CLMcom-KUL</t>
-  </si>
-  <si>
-    <t>CNRM-MF</t>
-  </si>
-  <si>
-    <t>HCLIMcom-METNo</t>
-  </si>
-  <si>
-    <t>HCLIMcom-SMHI</t>
-  </si>
-  <si>
-    <t>ECMWF-ERAINT</t>
+    <t>ERAINT</t>
   </si>
   <si>
     <t>ERA5</t>
@@ -157,12 +148,12 @@
     <t>ssp370</t>
   </si>
   <si>
+    <t>r1i1p1</t>
+  </si>
+  <si>
     <t>r0i0p0</t>
   </si>
   <si>
-    <t>r1i1p1</t>
-  </si>
-  <si>
     <t>r1i1p1f1</t>
   </si>
   <si>
@@ -175,21 +166,12 @@
     <t>r3i1p1f1</t>
   </si>
   <si>
-    <t>CCLM4-8-17</t>
-  </si>
-  <si>
-    <t>COSMO-crCLIM-v1-1</t>
-  </si>
-  <si>
     <t>ALADIN53</t>
   </si>
   <si>
     <t>ALADIN63</t>
   </si>
   <si>
-    <t>RegCM4-2</t>
-  </si>
-  <si>
     <t>REMO2015</t>
   </si>
   <si>
@@ -199,15 +181,9 @@
     <t>RACMO22E</t>
   </si>
   <si>
-    <t>HadREM3-GA7-05</t>
-  </si>
-  <si>
     <t>REMO2009</t>
   </si>
   <si>
-    <t>ALARO-0</t>
-  </si>
-  <si>
     <t>RCA4</t>
   </si>
   <si>
@@ -256,24 +232,12 @@
     <t>6hr</t>
   </si>
   <si>
-    <t>v20140515</t>
-  </si>
-  <si>
-    <t>v20191210</t>
-  </si>
-  <si>
     <t>v20150127</t>
   </si>
   <si>
     <t>v20191118</t>
   </si>
   <si>
-    <t>v20160112</t>
-  </si>
-  <si>
-    <t>v20150527</t>
-  </si>
-  <si>
     <t>v20180813</t>
   </si>
   <si>
@@ -286,21 +250,9 @@
     <t>v20140319</t>
   </si>
   <si>
-    <t>v20200706</t>
-  </si>
-  <si>
-    <t>v20200330</t>
-  </si>
-  <si>
     <t>v20160525</t>
   </si>
   <si>
-    <t>v20170523</t>
-  </si>
-  <si>
-    <t>v20170207</t>
-  </si>
-  <si>
     <t>v20131026</t>
   </si>
   <si>
@@ -337,16 +289,10 @@
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin']</t>
   </si>
   <si>
-    <t>['pr', 'tas', 'tasmax', 'tasmin']</t>
-  </si>
-  <si>
     <t>['pr', 'psl']</t>
   </si>
   <si>
     <t>['tas', 'tasmax', 'tasmin']</t>
-  </si>
-  <si>
-    <t>['pr', 'tas']</t>
   </si>
   <si>
     <t>['hurs', 'pr', 'prw', 'sfcWind', 'tas']</t>
@@ -776,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -840,40 +786,40 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -884,23 +830,17 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -908,32 +848,24 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -944,23 +876,17 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -972,28 +898,28 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1004,17 +930,23 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1022,24 +954,32 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1047,20 +987,32 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1068,32 +1020,20 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1107,14 +1047,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1123,31 +1061,31 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1159,22 +1097,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1183,31 +1121,31 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1215,53 +1153,67 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M15" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1275,12 +1227,14 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L17" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1288,32 +1242,20 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1328,13 +1270,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="M19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1342,32 +1284,20 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="M20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1375,26 +1305,32 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1402,32 +1338,20 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1435,20 +1359,32 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M23" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1456,32 +1392,20 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1492,62 +1416,38 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1555,20 +1455,32 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="M27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1578,18 +1490,26 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K28" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1598,19 +1518,29 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1625,13 +1555,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1639,32 +1569,20 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="M31" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1672,20 +1590,32 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M32" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1693,32 +1623,20 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M33" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1733,13 +1651,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1754,13 +1672,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1768,20 +1686,32 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M36" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1789,32 +1719,20 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L37" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1825,25 +1743,25 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1852,29 +1770,19 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="L39" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1882,20 +1790,32 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M40" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1910,13 +1830,13 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M41" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1924,32 +1844,28 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="L42" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M42" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1964,13 +1880,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M43" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1979,19 +1895,29 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M44" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2006,13 +1932,13 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M45" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2020,32 +1946,26 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M46" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2060,13 +1980,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M47" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2076,26 +1996,24 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M48" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2110,13 +2028,13 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2124,32 +2042,28 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M50" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2164,13 +2078,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M51" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2180,26 +2094,24 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M52" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2214,13 +2126,13 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M53" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2229,29 +2141,25 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M54" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2266,13 +2174,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M55" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2281,25 +2189,29 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H56" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L56" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M56" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2314,13 +2226,13 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M57" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2331,23 +2243,17 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M58" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2362,13 +2268,13 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M59" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2377,27 +2283,29 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M60" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2412,13 +2320,13 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M61" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2428,24 +2336,26 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H62" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M62" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2460,13 +2370,13 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M63" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2475,25 +2385,29 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H64" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M64" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2508,13 +2422,13 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M65" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2523,29 +2437,27 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M66" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2560,13 +2472,13 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M67" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2574,20 +2486,32 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K68" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M68" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2602,13 +2526,13 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M69" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2617,29 +2541,19 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M70" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2647,20 +2561,32 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K71" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M71" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2670,444 +2596,161 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M75" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M78" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M79" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M80" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M82" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="A2:A82"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B82"/>
-    <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C82"/>
-    <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D82"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E11"/>
+  <mergeCells count="139">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A72"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="B16:B72"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="C16:C72"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="D16:D72"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E77"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E40:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F9:F11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="F54:F65"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F44:F55"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
     <mergeCell ref="H46:H47"/>
     <mergeCell ref="H48:H49"/>
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="H52:H53"/>
     <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H56:H59"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I45"/>
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="I52:I53"/>
     <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I56:I59"/>
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="I62:I63"/>
     <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="J48:J49"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J56:J59"/>
     <mergeCell ref="J60:J61"/>
     <mergeCell ref="J62:J63"/>
     <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="120">
   <si>
     <t>variable_id</t>
   </si>
@@ -310,10 +310,19 @@
     <t>['clt', 'hfls', 'pr', 'psl', 'rlut', 'rlutcs', 'rsds', 'rsut', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500', 'snw']</t>
   </si>
   <si>
-    <t>['areacella', 'sftlaf', 'mrsofc', 'rootd', 'sftlf', 'sftgif', 'orog', 'sfturf']</t>
-  </si>
-  <si>
-    <t>['hurs', 'pr', 'prsn', 'ps', 'psl', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'mrro', 'mrros', 'snw', 'evspsbl']</t>
+    <t>['hurs', 'pr', 'prw', 'psl', 'rlut']</t>
+  </si>
+  <si>
+    <t>['hus1000', 'hus200', 'hus250', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds']</t>
+  </si>
+  <si>
+    <t>['orog']</t>
+  </si>
+  <si>
+    <t>['zg500', 'clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'od550aer', 'pr', 'prsn', 'psl', 'rlds', 'rldscs']</t>
   </si>
   <si>
     <t>['pr']</t>
@@ -722,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1333,7 @@
         <v>66</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>81</v>
@@ -1345,7 +1354,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>81</v>
@@ -1359,29 +1368,17 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M23" t="s">
         <v>100</v>
@@ -1399,10 +1396,10 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M24" t="s">
         <v>101</v>
@@ -1420,13 +1417,13 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1434,20 +1431,32 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1455,24 +1464,12 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1480,7 +1477,7 @@
         <v>82</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1490,26 +1487,18 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1518,29 +1507,19 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1548,20 +1527,32 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1571,18 +1562,26 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1590,9 +1589,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1603,7 +1600,7 @@
         <v>46</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>66</v>
@@ -1612,10 +1609,10 @@
         <v>70</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1630,10 +1627,10 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M33" t="s">
         <v>106</v>
@@ -1651,10 +1648,10 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M34" t="s">
         <v>107</v>
@@ -1665,14 +1662,26 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>85</v>
@@ -1686,29 +1695,17 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M36" t="s">
         <v>109</v>
@@ -1726,10 +1723,10 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M37" t="s">
         <v>110</v>
@@ -1742,26 +1739,18 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1769,20 +1758,32 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K39" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1790,32 +1791,20 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M40" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1825,18 +1814,26 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1846,26 +1843,18 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1873,20 +1862,32 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1895,29 +1896,19 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M44" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1927,18 +1918,26 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K45" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -1949,23 +1948,17 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -1974,19 +1967,29 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K47" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -1997,23 +2000,17 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2024,17 +2021,23 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K49" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2044,26 +2047,18 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M50" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2074,17 +2069,23 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K51" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2095,23 +2096,17 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2121,18 +2116,26 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2143,23 +2146,17 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M54" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2170,17 +2167,23 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K55" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2189,29 +2192,19 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M56" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2222,9 +2215,15 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K57" s="1" t="s">
         <v>69</v>
       </c>
@@ -2232,7 +2231,7 @@
         <v>86</v>
       </c>
       <c r="M57" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2247,13 +2246,13 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M58" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2262,19 +2261,29 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K59" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M59" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2283,21 +2292,11 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
         <v>69</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>86</v>
       </c>
       <c r="M60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2320,13 +2319,13 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M61" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2336,26 +2335,18 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M62" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2364,19 +2355,29 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K63" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2385,29 +2386,19 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M64" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2417,18 +2408,26 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2438,26 +2437,18 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M66" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2466,19 +2457,29 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2486,32 +2487,20 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2521,18 +2510,26 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K69" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2550,10 +2547,10 @@
         <v>68</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2562,7 +2559,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>35</v>
@@ -2574,16 +2571,16 @@
         <v>46</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M71" t="s">
         <v>115</v>
@@ -2601,155 +2598,230 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M72" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M75" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="139">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A72"/>
+    <mergeCell ref="A16:A75"/>
     <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B72"/>
+    <mergeCell ref="B16:B75"/>
     <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C16:C72"/>
+    <mergeCell ref="C16:C75"/>
     <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D72"/>
+    <mergeCell ref="D16:D75"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E40:E67"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E74:E75"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F55"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F74:F75"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="G74:G75"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H75"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I16:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I74:I75"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="J16:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J56:J59"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="J74:J75"/>
     <mergeCell ref="K10:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -310,19 +310,19 @@
     <t>['clt', 'hfls', 'pr', 'psl', 'rlut', 'rlutcs', 'rsds', 'rsut', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500', 'snw']</t>
   </si>
   <si>
-    <t>['hurs', 'pr', 'prw', 'psl', 'rlut']</t>
-  </si>
-  <si>
-    <t>['hus1000', 'hus200', 'hus250', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925']</t>
-  </si>
-  <si>
-    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds']</t>
-  </si>
-  <si>
-    <t>['orog']</t>
-  </si>
-  <si>
-    <t>['zg500', 'clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'od550aer', 'pr', 'prsn', 'psl', 'rlds', 'rldscs']</t>
+    <t>['hurs', 'pr', 'prw', 'psl', 'rlut', 'sfcWind', 'tas']</t>
+  </si>
+  <si>
+    <t>['hus1000', 'hus200', 'hus250', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ta850', 'ua1000', 'ua200', 'ua250', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va1000', 'va200', 'va250', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zg500']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
+  </si>
+  <si>
+    <t>['orog', 'sftlaf', 'sftlf', 'sfturf']</t>
+  </si>
+  <si>
+    <t>['zg500', 'clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'od550aer', 'pr', 'prsn', 'psl', 'rlds', 'rldscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsut', 'rsutcs', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['pr']</t>
@@ -746,7 +746,7 @@
     <col min="7" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="285.7109375" customWidth="1"/>
+    <col min="13" max="13" width="303.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="126">
   <si>
     <t>variable_id</t>
   </si>
@@ -115,6 +115,9 @@
     <t>HCLIMcom-SMHI</t>
   </si>
   <si>
+    <t>ICTP</t>
+  </si>
+  <si>
     <t>RMIB-UGent</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
     <t>HCLIM43-ALADIN</t>
   </si>
   <si>
+    <t>RegCM5-0</t>
+  </si>
+  <si>
     <t>RACMO23E</t>
   </si>
   <si>
@@ -262,6 +268,9 @@
     <t>v20240920</t>
   </si>
   <si>
+    <t>v20250409</t>
+  </si>
+  <si>
     <t>v20250328</t>
   </si>
   <si>
@@ -277,6 +286,9 @@
     <t>v20241205</t>
   </si>
   <si>
+    <t>v20250415</t>
+  </si>
+  <si>
     <t>v20241216</t>
   </si>
   <si>
@@ -325,15 +337,15 @@
     <t>['zg500', 'clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'od550aer', 'pr', 'prsn', 'psl', 'rlds', 'rldscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsut', 'rsutcs', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas', 'vas']</t>
+  </si>
+  <si>
+    <t>['tasmax', 'tasmin', 'tas', 'huss', 'pr', 'rlds', 'rsds', 'evspsbl', 'psl', 'clt', 'zg500']</t>
+  </si>
+  <si>
     <t>['pr']</t>
   </si>
   <si>
-    <t>['clt', 'evspsbl', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas']</t>
-  </si>
-  <si>
-    <t>['tasmax', 'tasmin', 'tas', 'huss', 'pr', 'rlds', 'rsds', 'evspsbl', 'psl', 'clt', 'zg500']</t>
-  </si>
-  <si>
     <t>['orog', 'areacella', 'rootd', 'sftlf']</t>
   </si>
   <si>
@@ -361,10 +373,16 @@
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'clt', 'evspsbl', 'huss', 'rlds', 'rsds', 'uas', 'vas', 'sfcWind']</t>
   </si>
   <si>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'sfcWind', 'sfcWindmax', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
+  </si>
+  <si>
+    <t>['areacella', 'orog', 'sftlf']</t>
+  </si>
+  <si>
+    <t>['pr', 'tas', 'clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
+  </si>
+  <si>
     <t>['pr', 'tas', 'zg500']</t>
-  </si>
-  <si>
-    <t>['areacella', 'orog', 'sftlf']</t>
   </si>
   <si>
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'sfcWind']</t>
@@ -731,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,28 +825,28 @@
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -843,13 +861,13 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -862,19 +880,19 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -889,13 +907,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -907,28 +925,28 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -940,22 +958,22 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -967,28 +985,28 @@
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1000,28 +1018,28 @@
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1036,13 +1054,13 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1058,10 +1076,10 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1073,28 +1091,28 @@
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1106,22 +1124,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1133,28 +1151,28 @@
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1166,22 +1184,22 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1201,28 +1219,28 @@
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1237,13 +1255,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1258,13 +1276,13 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1279,13 +1297,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1300,13 +1318,13 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1318,28 +1336,28 @@
         <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1354,13 +1372,13 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1375,13 +1393,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1396,13 +1414,13 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1417,13 +1435,13 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1435,28 +1453,28 @@
         <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1474,10 +1492,10 @@
         <v>69</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1492,13 +1510,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1506,20 +1524,32 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1527,32 +1557,28 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1561,27 +1587,29 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1590,29 +1618,19 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1627,13 +1645,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1641,20 +1659,32 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K34" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1662,32 +1692,20 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M35" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1705,10 +1723,10 @@
         <v>69</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1723,13 +1741,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M37" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1737,20 +1755,32 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M38" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1758,32 +1788,20 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M39" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1798,13 +1816,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M40" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1815,25 +1833,25 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1848,13 +1866,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M42" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1866,28 +1884,28 @@
         <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1902,13 +1920,13 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M44" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1918,26 +1936,18 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M45" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -1947,18 +1957,26 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -1967,29 +1985,19 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M47" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -1998,19 +2006,29 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K48" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M48" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2021,23 +2039,17 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M49" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2052,13 +2064,13 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M50" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2073,19 +2085,19 @@
         <v>49</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2100,13 +2112,13 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M52" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2116,26 +2128,18 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M53" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2146,17 +2150,23 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K54" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M54" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2167,23 +2177,17 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M55" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2198,13 +2202,13 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M56" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2214,24 +2218,26 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H57" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M57" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2246,13 +2252,13 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2261,29 +2267,25 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M59" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2298,13 +2300,13 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M60" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2315,17 +2317,23 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M61" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2340,13 +2348,13 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2356,28 +2364,28 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2392,13 +2400,13 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2408,26 +2416,18 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M65" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2442,13 +2442,13 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M66" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2461,25 +2461,25 @@
         <v>40</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M67" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2494,13 +2494,13 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M68" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2510,26 +2510,18 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M69" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2539,18 +2531,26 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K70" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M70" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2558,32 +2558,20 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2592,16 +2580,26 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K72" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M72" t="s">
         <v>116</v>
@@ -2619,13 +2617,13 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M73" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2633,32 +2631,20 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2668,30 +2654,263 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M75" t="s">
+      <c r="K77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M77" t="s">
         <v>119</v>
       </c>
     </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M84" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="139">
+  <mergeCells count="145">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A75"/>
+    <mergeCell ref="A16:A84"/>
     <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B75"/>
+    <mergeCell ref="B16:B84"/>
     <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C16:C75"/>
+    <mergeCell ref="C16:C84"/>
     <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D75"/>
+    <mergeCell ref="D16:D84"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E9:E11"/>
@@ -2699,13 +2918,14 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="E43:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E76"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E83:E84"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F9:F11"/>
@@ -2713,18 +2933,19 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F20"/>
     <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F58"/>
-    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="F48:F62"/>
     <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F83:F84"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G9:G11"/>
@@ -2732,96 +2953,100 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G40"/>
     <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="G83:G84"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H16:H20"/>
     <mergeCell ref="H21:H25"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H38:H40"/>
     <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
     <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="H83:H84"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="I21:I25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I38:I40"/>
     <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I54:I56"/>
     <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I83:I84"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="J16:J20"/>
     <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J38:J40"/>
     <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J54:J56"/>
     <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="J83:J84"/>
     <mergeCell ref="K10:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="129">
   <si>
     <t>variable_id</t>
   </si>
@@ -202,7 +202,10 @@
     <t>CNRM-ALADIN64E1</t>
   </si>
   <si>
-    <t>REMO2020</t>
+    <t>REMO2020-2-2</t>
+  </si>
+  <si>
+    <t>REMO2020-2-2-MR2</t>
   </si>
   <si>
     <t>HCLIM43-ALADIN</t>
@@ -289,6 +292,9 @@
     <t>v20250415</t>
   </si>
   <si>
+    <t>temp</t>
+  </si>
+  <si>
     <t>v20241216</t>
   </si>
   <si>
@@ -352,16 +358,10 @@
     <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin']</t>
   </si>
   <si>
-    <t>['hurs', 'pr', 'prw', 'tas']</t>
-  </si>
-  <si>
-    <t>['pr', 'sfcWindmax', 'snc', 'snd', 'snw', 'tasmax']</t>
-  </si>
-  <si>
-    <t>['areacella', 'orog', 'sftlf', 'sftlaf']</t>
-  </si>
-  <si>
-    <t>['clt', 'rlds', 'rlut', 'rsds', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'pr', 'psl']</t>
+    <t>['clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'pr', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+  </si>
+  <si>
+    <t>['orog', 'sftlaf', 'sftlf']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'clt', 'evspsbl', 'huss', 'rlds', 'rsds', 'uas', 'vas', 'sfcWind']</t>
+  </si>
+  <si>
+    <t>['pr', 'hurs', 'prw', 'psl', 'rlut', 'sfcWind', 'tas']</t>
+  </si>
+  <si>
+    <t>['va400']</t>
+  </si>
+  <si>
+    <t>['hus1000', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ta850', 'ua1000', 'ua200', 'ua250', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va1000', 'va200', 'va250', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zg500']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'sfcWind', 'sfcWindmax', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
@@ -749,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,16 +846,16 @@
         <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -861,13 +870,13 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -883,16 +892,16 @@
         <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -907,13 +916,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -937,16 +946,16 @@
         <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -964,16 +973,16 @@
         <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -997,16 +1006,16 @@
         <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1030,16 +1039,16 @@
         <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1054,13 +1063,13 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1076,10 +1085,10 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1103,16 +1112,16 @@
         <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1130,16 +1139,16 @@
         <v>56</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1163,16 +1172,16 @@
         <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1190,16 +1199,16 @@
         <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1231,16 +1240,16 @@
         <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1255,13 +1264,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1276,13 +1285,13 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1297,13 +1306,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1318,13 +1327,13 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1348,16 +1357,16 @@
         <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1372,13 +1381,13 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1393,13 +1402,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1414,13 +1423,13 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1435,13 +1444,13 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1465,16 +1474,16 @@
         <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1489,13 +1498,13 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1510,13 +1519,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1540,16 +1549,16 @@
         <v>61</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1569,16 +1578,16 @@
         <v>61</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1600,16 +1609,16 @@
         <v>61</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1624,13 +1633,13 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1645,13 +1654,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1675,16 +1684,16 @@
         <v>62</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M34" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1702,10 +1711,10 @@
         <v>71</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1717,16 +1726,20 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1741,13 +1754,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1768,16 +1781,16 @@
         <v>47</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M38" t="s">
         <v>116</v>
@@ -1795,13 +1808,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1816,10 +1829,10 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s">
         <v>117</v>
@@ -1839,16 +1852,16 @@
         <v>47</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s">
         <v>116</v>
@@ -1866,10 +1879,10 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
         <v>117</v>
@@ -1893,16 +1906,16 @@
         <v>48</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M43" t="s">
         <v>116</v>
@@ -1920,13 +1933,13 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1941,10 +1954,10 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M45" t="s">
         <v>117</v>
@@ -1964,16 +1977,16 @@
         <v>48</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M46" t="s">
         <v>116</v>
@@ -1991,10 +2004,10 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s">
         <v>117</v>
@@ -2016,16 +2029,16 @@
         <v>47</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M48" t="s">
         <v>116</v>
@@ -2043,13 +2056,13 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2064,10 +2077,10 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M50" t="s">
         <v>117</v>
@@ -2085,16 +2098,16 @@
         <v>49</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M51" t="s">
         <v>116</v>
@@ -2112,13 +2125,13 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2133,10 +2146,10 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s">
         <v>117</v>
@@ -2154,16 +2167,16 @@
         <v>50</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M54" t="s">
         <v>116</v>
@@ -2181,13 +2194,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2202,10 +2215,10 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M56" t="s">
         <v>117</v>
@@ -2225,16 +2238,16 @@
         <v>47</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M57" t="s">
         <v>116</v>
@@ -2252,10 +2265,10 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M58" t="s">
         <v>117</v>
@@ -2273,16 +2286,16 @@
         <v>49</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M59" t="s">
         <v>116</v>
@@ -2300,10 +2313,10 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M60" t="s">
         <v>117</v>
@@ -2321,16 +2334,16 @@
         <v>50</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M61" t="s">
         <v>116</v>
@@ -2348,10 +2361,10 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M62" t="s">
         <v>117</v>
@@ -2373,19 +2386,19 @@
         <v>47</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M63" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2400,10 +2413,10 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M64" t="s">
         <v>116</v>
@@ -2421,13 +2434,13 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2442,10 +2455,10 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M66" t="s">
         <v>118</v>
@@ -2467,16 +2480,16 @@
         <v>47</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M67" t="s">
         <v>116</v>
@@ -2494,13 +2507,13 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M68" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2515,10 +2528,10 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M69" t="s">
         <v>117</v>
@@ -2538,16 +2551,16 @@
         <v>47</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M70" t="s">
         <v>116</v>
@@ -2565,10 +2578,10 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M71" t="s">
         <v>117</v>
@@ -2590,16 +2603,16 @@
         <v>47</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M72" t="s">
         <v>116</v>
@@ -2617,13 +2630,13 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M73" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2638,10 +2651,10 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M74" t="s">
         <v>117</v>
@@ -2661,16 +2674,16 @@
         <v>47</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M75" t="s">
         <v>116</v>
@@ -2688,10 +2701,10 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M76" t="s">
         <v>117</v>
@@ -2715,16 +2728,16 @@
         <v>47</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M77" t="s">
         <v>119</v>
@@ -2742,10 +2755,10 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M78" t="s">
         <v>120</v>
@@ -2762,11 +2775,9 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M79" t="s">
         <v>121</v>
@@ -2777,26 +2788,14 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>91</v>
@@ -2817,13 +2816,13 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M81" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2838,13 +2837,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2853,7 +2852,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>36</v>
@@ -2868,16 +2867,16 @@
         <v>66</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M83" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2895,22 +2894,97 @@
         <v>70</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M84" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M87" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="145">
+  <mergeCells count="148">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A84"/>
+    <mergeCell ref="A16:A87"/>
     <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B84"/>
+    <mergeCell ref="B16:B87"/>
     <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C16:C84"/>
+    <mergeCell ref="C16:C87"/>
     <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D84"/>
+    <mergeCell ref="D16:D87"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E9:E11"/>
@@ -2923,9 +2997,9 @@
     <mergeCell ref="E34:E37"/>
     <mergeCell ref="E38:E42"/>
     <mergeCell ref="E43:E76"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E86:E87"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F9:F11"/>
@@ -2943,9 +3017,9 @@
     <mergeCell ref="F63:F66"/>
     <mergeCell ref="F67:F71"/>
     <mergeCell ref="F72:F76"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F86:F87"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G9:G11"/>
@@ -2967,9 +3041,9 @@
     <mergeCell ref="G70:G71"/>
     <mergeCell ref="G72:G74"/>
     <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="G86:G87"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H16:H20"/>
@@ -2992,9 +3066,9 @@
     <mergeCell ref="H70:H71"/>
     <mergeCell ref="H72:H74"/>
     <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="H86:H87"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I9:I11"/>
@@ -3002,7 +3076,8 @@
     <mergeCell ref="I21:I25"/>
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
     <mergeCell ref="I38:I40"/>
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="I43:I45"/>
@@ -3018,9 +3093,9 @@
     <mergeCell ref="I70:I71"/>
     <mergeCell ref="I72:I74"/>
     <mergeCell ref="I75:I76"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="I86:I87"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J9:J11"/>
@@ -3028,7 +3103,8 @@
     <mergeCell ref="J21:J25"/>
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
     <mergeCell ref="J38:J40"/>
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="J43:J45"/>
@@ -3044,10 +3120,11 @@
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="J72:J74"/>
     <mergeCell ref="J75:J76"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="J86:J87"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K78:K79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="129">
   <si>
     <t>variable_id</t>
   </si>
@@ -343,7 +343,7 @@
     <t>['zg500', 'clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'od550aer', 'pr', 'prsn', 'psl', 'rlds', 'rldscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsut', 'rsutcs', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
-    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas', 'vas']</t>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds']</t>
   </si>
   <si>
     <t>['tasmax', 'tasmin', 'tas', 'huss', 'pr', 'rlds', 'rsds', 'evspsbl', 'psl', 'clt', 'zg500']</t>
@@ -758,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1491,20 +1491,32 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M27" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1514,18 +1526,26 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1533,17 +1553,15 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>61</v>
@@ -1552,13 +1570,13 @@
         <v>69</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1568,26 +1586,18 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1596,29 +1606,19 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1626,20 +1626,32 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M32" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1657,10 +1669,10 @@
         <v>71</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1668,20 +1680,12 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>69</v>
@@ -1693,7 +1697,7 @@
         <v>89</v>
       </c>
       <c r="M34" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1722,24 +1726,32 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1754,13 +1766,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M37" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1768,32 +1780,20 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1803,18 +1803,26 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1843,13 +1851,17 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>64</v>
@@ -1879,13 +1891,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1893,32 +1905,20 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1928,18 +1928,26 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M44" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1969,12 +1977,14 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>64</v>
@@ -2004,13 +2014,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M47" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2019,29 +2029,19 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2052,17 +2052,23 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K49" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M49" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2077,13 +2083,13 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M50" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2094,23 +2100,17 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2121,17 +2121,23 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K52" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M52" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2146,13 +2152,13 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M53" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2163,23 +2169,17 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2189,18 +2189,26 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K55" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M55" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2231,11 +2239,9 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>64</v>
@@ -2283,7 +2289,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>64</v>
@@ -2328,10 +2334,14 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H61" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>64</v>
@@ -2340,13 +2350,13 @@
         <v>69</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M61" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2361,13 +2371,13 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2376,29 +2386,19 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M63" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2413,13 +2413,13 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M64" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2428,19 +2428,29 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M65" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2455,13 +2465,13 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M66" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2470,29 +2480,19 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2502,18 +2502,26 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M68" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2543,9 +2551,11 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G70" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>47</v>
@@ -2578,13 +2588,13 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M71" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2593,29 +2603,19 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M72" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2625,18 +2625,26 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K73" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M73" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2665,28 +2673,32 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G75" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2701,13 +2713,13 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M76" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2715,32 +2727,18 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M77" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2755,13 +2753,13 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2775,12 +2773,14 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="K79" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M79" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2795,13 +2795,13 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M80" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2809,20 +2809,32 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K81" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M81" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2837,13 +2849,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2851,32 +2863,20 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>93</v>
       </c>
       <c r="M83" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2884,20 +2884,32 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K84" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M84" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -2915,76 +2927,22 @@
         <v>71</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M86" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M87" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="142">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A87"/>
+    <mergeCell ref="A16:A85"/>
     <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B87"/>
+    <mergeCell ref="B16:B85"/>
     <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C16:C87"/>
+    <mergeCell ref="C16:C85"/>
     <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D87"/>
+    <mergeCell ref="D16:D85"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E9:E11"/>
@@ -2992,14 +2950,13 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="E43:E76"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E74"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E84:E85"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F9:F11"/>
@@ -3007,19 +2964,18 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F20"/>
     <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="F48:F62"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="F46:F60"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="F75:F80"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="F84:F85"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G9:G11"/>
@@ -3027,104 +2983,100 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G54"/>
+    <mergeCell ref="G55:G60"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G84:G85"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H16:H20"/>
     <mergeCell ref="H21:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H55:H56"/>
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H77:H82"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H80"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="H84:H85"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="I21:I25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="I55:I56"/>
     <mergeCell ref="I57:I58"/>
     <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="I75:I80"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="I84:I85"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="J16:J20"/>
     <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J55:J56"/>
     <mergeCell ref="J57:J58"/>
     <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J80"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="J84:J85"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K76:K77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -343,7 +343,7 @@
     <t>['zg500', 'clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'od550aer', 'pr', 'prsn', 'psl', 'rlds', 'rldscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsut', 'rsutcs', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
-    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds']</t>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
   </si>
   <si>
     <t>['tasmax', 'tasmin', 'tas', 'huss', 'pr', 'rlds', 'rsds', 'evspsbl', 'psl', 'clt', 'zg500']</t>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="130">
   <si>
     <t>variable_id</t>
   </si>
@@ -151,6 +151,9 @@
     <t>ssp370</t>
   </si>
   <si>
+    <t>ssp126</t>
+  </si>
+  <si>
     <t>r1i1p1</t>
   </si>
   <si>
@@ -343,7 +346,7 @@
     <t>['zg500', 'clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'od550aer', 'pr', 'prsn', 'psl', 'rlds', 'rldscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsut', 'rsutcs', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
-    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['tasmax', 'tasmin', 'tas', 'huss', 'pr', 'rlds', 'rsds', 'evspsbl', 'psl', 'clt', 'zg500']</t>
@@ -758,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,22 +843,22 @@
         <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -870,13 +873,13 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -889,19 +892,19 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -916,13 +919,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -940,22 +943,22 @@
         <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -967,22 +970,22 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1000,22 +1003,22 @@
         <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1033,22 +1036,22 @@
         <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1063,13 +1066,13 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1085,10 +1088,10 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1106,22 +1109,22 @@
         <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1133,22 +1136,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1166,22 +1169,22 @@
         <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1193,22 +1196,22 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1234,22 +1237,22 @@
         <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1264,13 +1267,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1285,13 +1288,13 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1306,13 +1309,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1327,13 +1330,13 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1351,22 +1354,22 @@
         <v>42</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1381,13 +1384,13 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1402,13 +1405,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1423,13 +1426,13 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1444,13 +1447,13 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1468,22 +1471,22 @@
         <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1491,32 +1494,20 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M27" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1526,18 +1517,10 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1553,21 +1536,23 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>73</v>
@@ -1586,18 +1571,26 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1606,19 +1599,29 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1626,32 +1629,20 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M32" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1666,7 +1657,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>89</v>
@@ -1680,24 +1671,32 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1712,13 +1711,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1726,26 +1725,18 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>90</v>
@@ -1766,13 +1757,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M37" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1780,17 +1771,29 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M38" t="s">
         <v>117</v>
@@ -1803,26 +1806,18 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M39" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1837,13 +1832,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1851,32 +1846,28 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M41" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1886,18 +1877,26 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K42" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M42" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1915,10 +1914,10 @@
         <v>71</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M43" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1928,26 +1927,18 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1955,17 +1946,29 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K45" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M45" t="s">
         <v>117</v>
@@ -1977,29 +1980,19 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M46" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2014,13 +2007,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M47" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2030,18 +2023,26 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K48" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M48" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2051,24 +2052,26 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2083,13 +2086,13 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2104,13 +2107,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2119,25 +2122,29 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H52" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2152,13 +2159,13 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2173,13 +2180,13 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2189,26 +2196,24 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2226,10 +2231,10 @@
         <v>71</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M56" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2240,23 +2245,17 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M57" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2267,14 +2266,20 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K58" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M58" t="s">
         <v>117</v>
@@ -2288,23 +2293,17 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M59" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2319,13 +2318,13 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2334,29 +2333,27 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M61" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2367,17 +2364,23 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M62" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2388,17 +2391,23 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K63" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2408,18 +2417,26 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K64" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2428,29 +2445,19 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M65" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2465,13 +2472,13 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M66" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2482,14 +2489,20 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M67" t="s">
         <v>117</v>
@@ -2502,26 +2515,18 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M68" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2536,13 +2541,13 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2551,29 +2556,25 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2588,13 +2589,13 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2609,13 +2610,13 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M72" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2624,27 +2625,29 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G73" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M73" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2659,10 +2662,10 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M74" t="s">
         <v>117</v>
@@ -2673,32 +2676,20 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M75" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2713,13 +2704,13 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2728,17 +2719,29 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="L77" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M77" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2753,13 +2756,13 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M78" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2774,13 +2777,13 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M79" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2790,10 +2793,18 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K80" s="1" t="s">
         <v>71</v>
       </c>
@@ -2801,7 +2812,7 @@
         <v>91</v>
       </c>
       <c r="M80" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2809,32 +2820,28 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M81" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2849,13 +2856,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M82" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2870,13 +2877,13 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M83" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2884,32 +2891,30 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M84" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -2927,22 +2932,408 @@
         <v>71</v>
       </c>
       <c r="L85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M100" t="s">
         <v>128</v>
       </c>
     </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M101" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="149">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A85"/>
+    <mergeCell ref="A16:A101"/>
     <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B85"/>
+    <mergeCell ref="B16:B101"/>
     <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C16:C85"/>
+    <mergeCell ref="C16:C101"/>
     <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D85"/>
+    <mergeCell ref="D16:D101"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E9:E11"/>
@@ -2950,13 +3341,14 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E74"/>
-    <mergeCell ref="E75:E80"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="E45:E90"/>
+    <mergeCell ref="E91:E96"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="E100:E101"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F9:F11"/>
@@ -2964,18 +3356,19 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F20"/>
     <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="F46:F60"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="F75:F80"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="F45:F51"/>
+    <mergeCell ref="F52:F72"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F77:F83"/>
+    <mergeCell ref="F84:F90"/>
+    <mergeCell ref="F91:F96"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="F100:F101"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G9:G11"/>
@@ -2983,100 +3376,105 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G54"/>
-    <mergeCell ref="G55:G60"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G52:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G72"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="G77:G79"/>
     <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="G91:G96"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="G100:G101"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H16:H20"/>
     <mergeCell ref="H21:H25"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
     <mergeCell ref="H49:H51"/>
     <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H67:H69"/>
     <mergeCell ref="H70:H72"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H80"/>
+    <mergeCell ref="H73:H76"/>
+    <mergeCell ref="H77:H79"/>
     <mergeCell ref="H81:H83"/>
-    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="H91:H96"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="H100:H101"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="I21:I25"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I31:I33"/>
     <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="I45:I47"/>
     <mergeCell ref="I49:I51"/>
     <mergeCell ref="I52:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I67:I69"/>
     <mergeCell ref="I70:I72"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="I75:I80"/>
+    <mergeCell ref="I73:I76"/>
+    <mergeCell ref="I77:I79"/>
     <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="I91:I96"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="I100:I101"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="J16:J20"/>
     <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J31:J33"/>
     <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="J45:J47"/>
     <mergeCell ref="J49:J51"/>
     <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J67:J69"/>
     <mergeCell ref="J70:J72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J80"/>
+    <mergeCell ref="J73:J76"/>
+    <mergeCell ref="J77:J79"/>
     <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="J91:J96"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="J100:J101"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K92:K93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="133">
   <si>
     <t>variable_id</t>
   </si>
@@ -283,6 +283,9 @@
     <t>v20250304</t>
   </si>
   <si>
+    <t>v20250428</t>
+  </si>
+  <si>
     <t>v20250116</t>
   </si>
   <si>
@@ -355,10 +358,16 @@
     <t>['pr']</t>
   </si>
   <si>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'zg500']</t>
+  </si>
+  <si>
     <t>['orog', 'areacella', 'rootd', 'sftlf']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin', 'mrro', 'mrros', 'mrso', 'prsn', 'rldscs', 'rlutcs', 'rsdscs', 'rsutcs', 'snc', 'snd', 'snw', 'zg500']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'pr', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
@@ -761,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,7 +867,7 @@
         <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -879,7 +888,7 @@
         <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -904,7 +913,7 @@
         <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -925,7 +934,7 @@
         <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -958,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -985,7 +994,7 @@
         <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1018,7 +1027,7 @@
         <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1051,7 +1060,7 @@
         <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1072,7 +1081,7 @@
         <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1091,7 +1100,7 @@
         <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1124,7 +1133,7 @@
         <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1151,7 +1160,7 @@
         <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1184,7 +1193,7 @@
         <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1211,7 +1220,7 @@
         <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1252,7 +1261,7 @@
         <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1273,7 +1282,7 @@
         <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1294,7 +1303,7 @@
         <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1315,7 +1324,7 @@
         <v>84</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1336,7 +1345,7 @@
         <v>84</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1369,7 +1378,7 @@
         <v>85</v>
       </c>
       <c r="M21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1390,7 +1399,7 @@
         <v>85</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1411,7 +1420,7 @@
         <v>85</v>
       </c>
       <c r="M23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1432,7 +1441,7 @@
         <v>85</v>
       </c>
       <c r="M24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1453,7 +1462,7 @@
         <v>85</v>
       </c>
       <c r="M25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1486,7 +1495,7 @@
         <v>86</v>
       </c>
       <c r="M26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1507,7 +1516,7 @@
         <v>86</v>
       </c>
       <c r="M27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1528,7 +1537,7 @@
         <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1561,7 +1570,7 @@
         <v>87</v>
       </c>
       <c r="M29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1590,7 +1599,7 @@
         <v>87</v>
       </c>
       <c r="M30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1621,7 +1630,7 @@
         <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1635,9 +1644,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
         <v>89</v>
       </c>
@@ -1657,7 +1664,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>89</v>
@@ -1671,24 +1678,12 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
         <v>71</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1710,11 +1705,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M35" t="s">
         <v>115</v>
@@ -1729,14 +1722,10 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>90</v>
@@ -1756,14 +1745,12 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1772,31 +1759,31 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M38" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1811,13 +1798,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M39" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1829,16 +1816,20 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1848,26 +1839,18 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>91</v>
       </c>
       <c r="M41" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1875,10 +1858,14 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>48</v>
@@ -1893,10 +1880,10 @@
         <v>73</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1914,10 +1901,10 @@
         <v>71</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1935,10 +1922,10 @@
         <v>72</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1946,17 +1933,13 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>65</v>
@@ -1965,13 +1948,13 @@
         <v>70</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M45" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -1981,18 +1964,26 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M46" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2007,13 +1998,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M47" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2023,26 +2014,18 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M48" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2050,10 +2033,14 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>49</v>
@@ -2068,10 +2055,10 @@
         <v>73</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2089,10 +2076,10 @@
         <v>71</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2110,10 +2097,10 @@
         <v>72</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M51" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2122,14 +2109,12 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>65</v>
@@ -2138,13 +2123,13 @@
         <v>70</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M52" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2154,18 +2139,26 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K53" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M53" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2180,13 +2173,13 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M54" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2197,23 +2190,17 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M55" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2222,19 +2209,29 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K56" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M56" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2249,13 +2246,13 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M57" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2266,23 +2263,17 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M58" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2293,17 +2284,23 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K59" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M59" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2318,13 +2315,13 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M60" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2334,26 +2331,18 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M61" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2365,7 +2354,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>65</v>
@@ -2374,13 +2363,13 @@
         <v>70</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M62" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2391,23 +2380,17 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2417,26 +2400,18 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M64" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2446,18 +2421,26 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2468,17 +2451,23 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M66" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2490,7 +2479,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>65</v>
@@ -2499,13 +2488,13 @@
         <v>70</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M67" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2515,18 +2504,26 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M68" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2541,13 +2538,13 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M69" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2558,23 +2555,17 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M70" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2585,17 +2576,23 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K71" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M71" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2610,13 +2607,13 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M72" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2625,29 +2622,19 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M73" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2658,17 +2645,23 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M74" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2686,10 +2679,10 @@
         <v>71</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2707,10 +2700,10 @@
         <v>72</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M76" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2720,10 +2713,10 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>48</v>
@@ -2735,13 +2728,13 @@
         <v>70</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M77" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2756,13 +2749,13 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M78" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2777,13 +2770,13 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M79" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2793,26 +2786,18 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M80" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2821,9 +2806,11 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G81" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>48</v>
@@ -2838,10 +2825,10 @@
         <v>73</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M81" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2859,10 +2846,10 @@
         <v>71</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2880,10 +2867,10 @@
         <v>72</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2892,11 +2879,9 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>48</v>
@@ -2908,13 +2893,13 @@
         <v>70</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M84" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -2924,18 +2909,26 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K85" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M85" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -2950,13 +2943,13 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M86" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -2966,26 +2959,18 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
       <c r="K87" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M87" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -2994,9 +2979,11 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G88" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>48</v>
@@ -3011,10 +2998,10 @@
         <v>73</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M88" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3032,10 +3019,10 @@
         <v>71</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3053,10 +3040,10 @@
         <v>72</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M90" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3064,32 +3051,28 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M91" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3099,18 +3082,26 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K92" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3124,12 +3115,14 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="K93" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M93" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3144,13 +3137,13 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3158,20 +3151,32 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K95" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3186,13 +3191,13 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3200,32 +3205,18 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
       <c r="L97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3240,13 +3231,13 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M98" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3261,10 +3252,10 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M99" t="s">
         <v>127</v>
@@ -3275,29 +3266,17 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M100" t="s">
         <v>128</v>
@@ -3308,14 +3287,26 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K101" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>95</v>
@@ -3324,16 +3315,112 @@
         <v>129</v>
       </c>
     </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M105" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="152">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A101"/>
+    <mergeCell ref="A16:A105"/>
     <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B101"/>
+    <mergeCell ref="B16:B105"/>
     <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C16:C101"/>
+    <mergeCell ref="C16:C105"/>
     <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D101"/>
+    <mergeCell ref="D16:D105"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E9:E11"/>
@@ -3342,13 +3429,13 @@
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="E45:E90"/>
-    <mergeCell ref="E91:E96"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="E49:E94"/>
+    <mergeCell ref="E95:E100"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="E104:E105"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F9:F11"/>
@@ -3358,17 +3445,17 @@
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="F45:F51"/>
-    <mergeCell ref="F52:F72"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F77:F83"/>
-    <mergeCell ref="F84:F90"/>
-    <mergeCell ref="F91:F96"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="F49:F55"/>
+    <mergeCell ref="F56:F76"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="F81:F87"/>
+    <mergeCell ref="F88:F94"/>
+    <mergeCell ref="F95:F100"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F104:F105"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G9:G11"/>
@@ -3377,104 +3464,107 @@
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G31:G37"/>
+    <mergeCell ref="G38:G41"/>
     <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G46:G48"/>
     <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G52:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G72"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G68:G76"/>
+    <mergeCell ref="G77:G80"/>
     <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="G85:G87"/>
     <mergeCell ref="G88:G90"/>
-    <mergeCell ref="G91:G96"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G95:G100"/>
+    <mergeCell ref="G101:G103"/>
+    <mergeCell ref="G104:G105"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H16:H20"/>
     <mergeCell ref="H21:H25"/>
     <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H31:H37"/>
+    <mergeCell ref="H38:H41"/>
     <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H46:H48"/>
     <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="H73:H76"/>
-    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="H77:H80"/>
     <mergeCell ref="H81:H83"/>
-    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H85:H87"/>
     <mergeCell ref="H88:H90"/>
-    <mergeCell ref="H91:H96"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="H95:H100"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H104:H105"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="I21:I25"/>
     <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="I31:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
     <mergeCell ref="I42:I44"/>
-    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I46:I48"/>
     <mergeCell ref="I49:I51"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="I73:I76"/>
-    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="I77:I80"/>
     <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I85:I87"/>
     <mergeCell ref="I88:I90"/>
-    <mergeCell ref="I91:I96"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="I95:I100"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="I104:I105"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="J16:J20"/>
     <mergeCell ref="J21:J25"/>
     <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="J31:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
     <mergeCell ref="J42:J44"/>
-    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J46:J48"/>
     <mergeCell ref="J49:J51"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="J73:J76"/>
-    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="J77:J80"/>
     <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="J85:J87"/>
     <mergeCell ref="J88:J90"/>
-    <mergeCell ref="J91:J96"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="J95:J100"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="J104:J105"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K96:K97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="132">
   <si>
     <t>variable_id</t>
   </si>
@@ -298,9 +298,6 @@
     <t>v20250415</t>
   </si>
   <si>
-    <t>temp</t>
-  </si>
-  <si>
     <t>v20241216</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
     <t>['pr']</t>
   </si>
   <si>
+    <t>['pr', 'rlut']</t>
+  </si>
+  <si>
     <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'zg500']</t>
   </si>
   <si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t>['pr', 'hurs', 'prw', 'psl', 'rlut', 'sfcWind', 'tas']</t>
-  </si>
-  <si>
-    <t>['va400']</t>
   </si>
   <si>
     <t>['hus1000', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ta850', 'ua1000', 'ua200', 'ua250', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va1000', 'va200', 'va250', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zg500']</t>
@@ -770,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -867,7 +864,7 @@
         <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -888,7 +885,7 @@
         <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -913,7 +910,7 @@
         <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -934,7 +931,7 @@
         <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -967,7 +964,7 @@
         <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -994,7 +991,7 @@
         <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1027,7 +1024,7 @@
         <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1060,7 +1057,7 @@
         <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1081,7 +1078,7 @@
         <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1100,7 +1097,7 @@
         <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1133,7 +1130,7 @@
         <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1160,7 +1157,7 @@
         <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1193,7 +1190,7 @@
         <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1220,7 +1217,7 @@
         <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1261,7 +1258,7 @@
         <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1282,7 +1279,7 @@
         <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1303,7 +1300,7 @@
         <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1324,7 +1321,7 @@
         <v>84</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1345,7 +1342,7 @@
         <v>84</v>
       </c>
       <c r="M20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1378,7 +1375,7 @@
         <v>85</v>
       </c>
       <c r="M21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1399,7 +1396,7 @@
         <v>85</v>
       </c>
       <c r="M22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1420,7 +1417,7 @@
         <v>85</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1441,7 +1438,7 @@
         <v>85</v>
       </c>
       <c r="M24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1462,7 +1459,7 @@
         <v>85</v>
       </c>
       <c r="M25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1495,7 +1492,7 @@
         <v>86</v>
       </c>
       <c r="M26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1516,7 +1513,7 @@
         <v>86</v>
       </c>
       <c r="M27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1537,7 +1534,7 @@
         <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1570,7 +1567,7 @@
         <v>87</v>
       </c>
       <c r="M29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1580,26 +1577,18 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="M30" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1608,14 +1597,12 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>62</v>
@@ -1624,13 +1611,13 @@
         <v>70</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1644,12 +1631,14 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1658,19 +1647,29 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K33" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1684,14 +1683,12 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1705,12 +1702,14 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="L35" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1725,13 +1724,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1750,7 +1749,7 @@
         <v>89</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1758,32 +1757,20 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M38" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1797,14 +1784,12 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1812,12 +1797,20 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="I40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>70</v>
@@ -1829,7 +1822,7 @@
         <v>91</v>
       </c>
       <c r="M40" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1858,32 +1851,24 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1898,13 +1883,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M43" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1912,20 +1897,32 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1935,18 +1932,10 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
         <v>71</v>
       </c>
@@ -1954,7 +1943,7 @@
         <v>92</v>
       </c>
       <c r="M45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -1964,26 +1953,18 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -1993,10 +1974,18 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K47" s="1" t="s">
         <v>71</v>
       </c>
@@ -2004,7 +1993,7 @@
         <v>92</v>
       </c>
       <c r="M47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2014,18 +2003,26 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2033,32 +2030,20 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M49" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2073,13 +2058,13 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M50" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2087,20 +2072,32 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K51" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2110,18 +2107,10 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
         <v>71</v>
       </c>
@@ -2129,7 +2118,7 @@
         <v>92</v>
       </c>
       <c r="M52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2139,26 +2128,18 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2168,10 +2149,18 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K54" s="1" t="s">
         <v>71</v>
       </c>
@@ -2179,7 +2168,7 @@
         <v>92</v>
       </c>
       <c r="M54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2189,18 +2178,26 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K55" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2209,29 +2206,19 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M56" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2246,13 +2233,13 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M57" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2261,19 +2248,29 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K58" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2284,23 +2281,17 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M59" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2315,13 +2306,13 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M60" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2332,17 +2323,23 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2353,23 +2350,17 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M62" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2384,13 +2375,13 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M63" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2401,17 +2392,23 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2421,18 +2418,10 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
         <v>71</v>
       </c>
@@ -2440,7 +2429,7 @@
         <v>92</v>
       </c>
       <c r="M65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2451,23 +2440,17 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M66" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2477,9 +2460,11 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H67" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>65</v>
@@ -2494,7 +2479,7 @@
         <v>92</v>
       </c>
       <c r="M67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2504,11 +2489,9 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>65</v>
@@ -2517,13 +2500,13 @@
         <v>70</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M68" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2534,9 +2517,15 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K69" s="1" t="s">
         <v>71</v>
       </c>
@@ -2544,7 +2533,7 @@
         <v>92</v>
       </c>
       <c r="M69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2554,18 +2543,26 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2576,23 +2573,17 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M71" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2607,13 +2598,13 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M72" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2624,17 +2615,23 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K73" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2645,23 +2642,17 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M74" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2676,13 +2667,13 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M75" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2693,17 +2684,23 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K76" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2712,29 +2709,19 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M77" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2749,13 +2736,13 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2764,19 +2751,29 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K79" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M79" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2791,13 +2788,13 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M80" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2806,29 +2803,19 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M81" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2843,13 +2830,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M82" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2858,19 +2845,29 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K83" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2880,18 +2877,10 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,7 +2888,7 @@
         <v>92</v>
       </c>
       <c r="M84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -2909,26 +2898,18 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -2938,10 +2919,18 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K86" s="1" t="s">
         <v>71</v>
       </c>
@@ -2949,7 +2938,7 @@
         <v>92</v>
       </c>
       <c r="M86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -2959,18 +2948,26 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K87" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -2979,29 +2976,19 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M88" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3016,13 +3003,13 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M89" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3031,19 +3018,29 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K90" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3053,18 +3050,10 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
         <v>71</v>
       </c>
@@ -3072,7 +3061,7 @@
         <v>92</v>
       </c>
       <c r="M91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3082,26 +3071,18 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3111,10 +3092,18 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K93" s="1" t="s">
         <v>71</v>
       </c>
@@ -3122,7 +3111,7 @@
         <v>92</v>
       </c>
       <c r="M93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3132,18 +3121,26 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K94" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3151,32 +3148,20 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M95" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3191,13 +3176,13 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M96" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3205,18 +3190,32 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="L97" s="1" t="s">
         <v>93</v>
       </c>
       <c r="M97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3231,13 +3230,13 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>93</v>
       </c>
       <c r="M98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3252,13 +3251,13 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>93</v>
       </c>
       <c r="M99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3273,13 +3272,13 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>93</v>
       </c>
       <c r="M100" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3287,32 +3286,20 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3320,20 +3307,32 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K102" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M102" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3348,13 +3347,13 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M103" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3362,32 +3361,20 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3395,32 +3382,65 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L105" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M105" t="s">
-        <v>132</v>
+      <c r="L106" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M106" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="159">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A105"/>
+    <mergeCell ref="A16:A106"/>
     <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B105"/>
+    <mergeCell ref="B16:B106"/>
     <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C16:C105"/>
+    <mergeCell ref="C16:C106"/>
     <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D105"/>
+    <mergeCell ref="D16:D106"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E9:E11"/>
@@ -3429,13 +3449,13 @@
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="E49:E94"/>
-    <mergeCell ref="E95:E100"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E29:E39"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="E51:E96"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="E105:E106"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F9:F11"/>
@@ -3444,18 +3464,18 @@
     <mergeCell ref="F16:F20"/>
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F42:F48"/>
-    <mergeCell ref="F49:F55"/>
-    <mergeCell ref="F56:F76"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="F81:F87"/>
-    <mergeCell ref="F88:F94"/>
-    <mergeCell ref="F95:F100"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="F58:F78"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="F83:F89"/>
+    <mergeCell ref="F90:F96"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="F105:F106"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G9:G11"/>
@@ -3464,107 +3484,114 @@
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G31:G37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G76"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G95:G100"/>
-    <mergeCell ref="G101:G103"/>
-    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="G58:G66"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G70:G78"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="G105:G106"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H16:H20"/>
     <mergeCell ref="H21:H25"/>
     <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H31:H37"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H95:H100"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="H97:H101"/>
+    <mergeCell ref="H102:H104"/>
+    <mergeCell ref="H105:H106"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="I21:I25"/>
     <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I31:I37"/>
-    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I39"/>
     <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="I77:I80"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="I95:I100"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="I97:I101"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="I105:I106"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="J16:J20"/>
     <mergeCell ref="J21:J25"/>
     <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J31:J37"/>
-    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J39"/>
     <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="J77:J80"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="J95:J100"/>
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="J102:J104"/>
+    <mergeCell ref="J105:J106"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K33:K34"/>
     <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="K38:K39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="151">
   <si>
     <t>variable_id</t>
   </si>
@@ -79,9 +79,18 @@
     <t>EUR-12</t>
   </si>
   <si>
+    <t>CLMcom</t>
+  </si>
+  <si>
+    <t>CLMcom-ETH</t>
+  </si>
+  <si>
     <t>CNRM</t>
   </si>
   <si>
+    <t>DHMZ</t>
+  </si>
+  <si>
     <t>GERICS</t>
   </si>
   <si>
@@ -91,9 +100,15 @@
     <t>KNMI</t>
   </si>
   <si>
+    <t>MOHC</t>
+  </si>
+  <si>
     <t>MPI-CSC</t>
   </si>
   <si>
+    <t>RMIB-UGent</t>
+  </si>
+  <si>
     <t>SMHI</t>
   </si>
   <si>
@@ -118,9 +133,6 @@
     <t>ICTP</t>
   </si>
   <si>
-    <t>RMIB-UGent</t>
-  </si>
-  <si>
     <t>ERAINT</t>
   </si>
   <si>
@@ -154,12 +166,12 @@
     <t>ssp126</t>
   </si>
   <si>
+    <t>r0i0p0</t>
+  </si>
+  <si>
     <t>r1i1p1</t>
   </si>
   <si>
-    <t>r0i0p0</t>
-  </si>
-  <si>
     <t>r1i1p1f1</t>
   </si>
   <si>
@@ -172,12 +184,21 @@
     <t>r3i1p1f1</t>
   </si>
   <si>
+    <t>CCLM4-8-17</t>
+  </si>
+  <si>
+    <t>COSMO-crCLIM-v1-1</t>
+  </si>
+  <si>
     <t>ALADIN53</t>
   </si>
   <si>
     <t>ALADIN63</t>
   </si>
   <si>
+    <t>RegCM4-2</t>
+  </si>
+  <si>
     <t>REMO2015</t>
   </si>
   <si>
@@ -187,9 +208,15 @@
     <t>RACMO22E</t>
   </si>
   <si>
+    <t>HadREM3-GA7-05</t>
+  </si>
+  <si>
     <t>REMO2009</t>
   </si>
   <si>
+    <t>ALARO-0</t>
+  </si>
+  <si>
     <t>RCA4</t>
   </si>
   <si>
@@ -244,12 +271,24 @@
     <t>6hr</t>
   </si>
   <si>
+    <t>v20140515</t>
+  </si>
+  <si>
+    <t>v20191210</t>
+  </si>
+  <si>
     <t>v20150127</t>
   </si>
   <si>
     <t>v20191118</t>
   </si>
   <si>
+    <t>v20160112</t>
+  </si>
+  <si>
+    <t>v20150527</t>
+  </si>
+  <si>
     <t>v20180813</t>
   </si>
   <si>
@@ -262,9 +301,21 @@
     <t>v20140319</t>
   </si>
   <si>
+    <t>v20200706</t>
+  </si>
+  <si>
+    <t>v20200330</t>
+  </si>
+  <si>
     <t>v20160525</t>
   </si>
   <si>
+    <t>v20170523</t>
+  </si>
+  <si>
+    <t>v20170207</t>
+  </si>
+  <si>
     <t>v20131026</t>
   </si>
   <si>
@@ -310,10 +361,16 @@
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin']</t>
   </si>
   <si>
+    <t>['pr', 'tas', 'tasmax', 'tasmin']</t>
+  </si>
+  <si>
     <t>['pr', 'psl']</t>
   </si>
   <si>
     <t>['tas', 'tasmax', 'tasmin']</t>
+  </si>
+  <si>
+    <t>['pr', 'tas']</t>
   </si>
   <si>
     <t>['hurs', 'pr', 'prw', 'sfcWind', 'tas']</t>
@@ -767,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,28 +900,28 @@
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -875,17 +932,23 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -893,24 +956,32 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -921,17 +992,23 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -940,31 +1017,31 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -975,23 +1052,17 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -999,32 +1070,24 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1032,32 +1095,20 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1065,20 +1116,32 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1092,12 +1155,14 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1109,28 +1174,28 @@
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1142,22 +1207,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1169,28 +1234,28 @@
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M14" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1198,67 +1263,53 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1272,14 +1323,12 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1287,20 +1336,32 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1315,13 +1376,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1329,20 +1390,32 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1350,32 +1423,26 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1383,20 +1450,32 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1411,13 +1490,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="M23" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1425,20 +1504,32 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K24" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M24" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1449,50 +1540,64 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K25" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1507,13 +1612,13 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M27" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1528,13 +1633,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M28" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1542,32 +1647,20 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M29" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1582,13 +1675,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M30" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1596,28 +1689,32 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1632,13 +1729,13 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M32" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1647,29 +1744,19 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M33" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1683,12 +1770,14 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="L34" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M34" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1703,13 +1792,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1717,20 +1806,32 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="M36" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1744,12 +1845,14 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="L37" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1764,13 +1867,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="M38" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1778,18 +1881,32 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="L39" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M39" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1797,32 +1914,20 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M40" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1832,18 +1937,26 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M41" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1855,20 +1968,16 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M42" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1877,19 +1986,29 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K43" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M43" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -1897,32 +2016,18 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M44" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -1937,13 +2042,13 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M45" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -1958,13 +2063,13 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M46" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -1974,26 +2079,16 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M47" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2003,26 +2098,18 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M48" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2036,14 +2123,12 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M49" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2051,20 +2136,32 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K50" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2072,32 +2169,20 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2109,16 +2194,20 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K52" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M52" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2133,13 +2222,13 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M53" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2147,28 +2236,32 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G54" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M54" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2178,26 +2271,18 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M55" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2212,13 +2297,13 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M56" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2228,18 +2313,26 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K57" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M57" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2248,29 +2341,27 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M58" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2285,13 +2376,13 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M59" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2306,13 +2397,13 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M60" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2320,26 +2411,32 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H61" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M61" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2354,13 +2451,13 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M62" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2375,13 +2472,13 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M63" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2391,24 +2488,26 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H64" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M64" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2418,18 +2517,26 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K65" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M65" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2444,13 +2551,13 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M66" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2460,26 +2567,18 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M67" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2488,25 +2587,29 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H68" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M68" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2517,23 +2620,17 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M69" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2543,26 +2640,18 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M70" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2573,17 +2662,23 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K71" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M71" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2598,13 +2693,13 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M72" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2615,23 +2710,17 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M73" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2642,17 +2731,23 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K74" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M74" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2667,13 +2762,13 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M75" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2684,23 +2779,17 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M76" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2710,18 +2799,26 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K77" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M77" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2732,17 +2829,23 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K78" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M78" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2751,29 +2854,25 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2783,18 +2882,26 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K80" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M80" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2809,13 +2916,13 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M81" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2830,13 +2937,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M82" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2845,29 +2952,25 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M83" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2882,13 +2985,13 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M84" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -2903,13 +3006,13 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M85" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -2919,26 +3022,24 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M86" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -2948,26 +3049,18 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
       <c r="K87" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M87" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -2982,13 +3075,13 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M88" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -2997,19 +3090,29 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K89" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M89" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3018,29 +3121,19 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M90" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3055,13 +3148,13 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M91" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3076,13 +3169,13 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M92" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3091,27 +3184,29 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G93" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M93" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3121,26 +3216,18 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M94" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3155,13 +3242,13 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M95" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3171,18 +3258,26 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K96" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M96" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3190,32 +3285,28 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="M97" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3230,13 +3321,13 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="M98" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3251,13 +3342,13 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="M99" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3266,19 +3357,29 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K100" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="M100" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3293,13 +3394,13 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="M101" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3307,32 +3408,20 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M102" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3342,18 +3431,26 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K103" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M103" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3363,18 +3460,26 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K104" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M104" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3382,32 +3487,20 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="M105" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3422,176 +3515,446 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="M106" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M116" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A106"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B106"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C16:C106"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D106"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E9:E11"/>
+  <mergeCells count="183">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A116"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="B26:B116"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="C26:C116"/>
+    <mergeCell ref="D2:D25"/>
+    <mergeCell ref="D26:D116"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E39"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="E51:E96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E39:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="E61:E106"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="F58:F78"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="F83:F89"/>
-    <mergeCell ref="F90:F96"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F54:F60"/>
+    <mergeCell ref="F61:F67"/>
+    <mergeCell ref="F68:F88"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="F93:F99"/>
+    <mergeCell ref="F100:F106"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="G58:G66"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G70:G78"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G68:G76"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="G80:G88"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="G112:G114"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="H54:H56"/>
     <mergeCell ref="H58:H60"/>
     <mergeCell ref="H61:H63"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="H80:H82"/>
     <mergeCell ref="H83:H85"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="H97:H101"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="H112:H114"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I56"/>
     <mergeCell ref="I58:I60"/>
     <mergeCell ref="I61:I63"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="I80:I82"/>
     <mergeCell ref="I83:I85"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="I97:I101"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="I112:I114"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J56"/>
     <mergeCell ref="J58:J60"/>
     <mergeCell ref="J61:J63"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="J80:J82"/>
     <mergeCell ref="J83:J85"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="J102:J104"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -457,7 +457,7 @@
     <t>['pr', 'tas', 'clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
   </si>
   <si>
-    <t>['pr', 'tas', 'zg500']</t>
+    <t>['pr', 'tas', 'zg500', 'clt', 'evspsbl', 'huss', 'psl', 'rlds', 'rsds', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'sfcWind']</t>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="149">
   <si>
     <t>variable_id</t>
   </si>
@@ -331,13 +331,7 @@
     <t>v20250328</t>
   </si>
   <si>
-    <t>v20250304</t>
-  </si>
-  <si>
-    <t>v20250428</t>
-  </si>
-  <si>
-    <t>v20250116</t>
+    <t>v20250505</t>
   </si>
   <si>
     <t>v20241120</t>
@@ -409,34 +403,34 @@
     <t>['tasmax', 'tasmin', 'tas', 'huss', 'pr', 'rlds', 'rsds', 'evspsbl', 'psl', 'clt', 'zg500']</t>
   </si>
   <si>
+    <t>['pr', 'rlut', 'tas', 'hurs', 'prw', 'psl']</t>
+  </si>
+  <si>
+    <t>['hus1000', 'hus925', 'hus850', 'hus700', 'hus600', 'hus500', 'hus400', 'hus300', 'hus250', 'hus200', 'ta850']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'zg500']</t>
+  </si>
+  <si>
+    <t>['orog', 'areacella', 'rootd', 'sftlf', 'mrsofc', 'sftgif', 'sftlaf']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin', 'mrro', 'mrros', 'mrso', 'prsn', 'rldscs', 'rlutcs', 'rsdscs', 'rsutcs', 'snc', 'snd', 'snw', 'zg500']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'pr', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+  </si>
+  <si>
+    <t>['orog', 'sftlaf', 'sftlf']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
+  </si>
+  <si>
+    <t>['sfcWind']</t>
+  </si>
+  <si>
     <t>['pr']</t>
-  </si>
-  <si>
-    <t>['pr', 'rlut']</t>
-  </si>
-  <si>
-    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'zg500']</t>
-  </si>
-  <si>
-    <t>['orog', 'areacella', 'rootd', 'sftlf']</t>
-  </si>
-  <si>
-    <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin']</t>
-  </si>
-  <si>
-    <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin', 'mrro', 'mrros', 'mrso', 'prsn', 'rldscs', 'rlutcs', 'rsdscs', 'rsutcs', 'snc', 'snd', 'snw', 'zg500']</t>
-  </si>
-  <si>
-    <t>['clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'pr', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
-  </si>
-  <si>
-    <t>['orog', 'sftlaf', 'sftlf']</t>
-  </si>
-  <si>
-    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
-  </si>
-  <si>
-    <t>['sfcWind']</t>
   </si>
   <si>
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'clt', 'evspsbl', 'huss', 'rlds', 'rsds', 'uas', 'vas', 'sfcWind']</t>
@@ -824,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,7 +915,7 @@
         <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -948,7 +942,7 @@
         <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -981,7 +975,7 @@
         <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1008,7 +1002,7 @@
         <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1041,7 +1035,7 @@
         <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1062,7 +1056,7 @@
         <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1087,7 +1081,7 @@
         <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1108,7 +1102,7 @@
         <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1141,7 +1135,7 @@
         <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1162,7 +1156,7 @@
         <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1195,7 +1189,7 @@
         <v>91</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1222,7 +1216,7 @@
         <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1255,7 +1249,7 @@
         <v>92</v>
       </c>
       <c r="M14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1288,7 +1282,7 @@
         <v>93</v>
       </c>
       <c r="M15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1309,7 +1303,7 @@
         <v>93</v>
       </c>
       <c r="M16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1328,7 +1322,7 @@
         <v>94</v>
       </c>
       <c r="M17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1361,7 +1355,7 @@
         <v>95</v>
       </c>
       <c r="M18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1382,7 +1376,7 @@
         <v>96</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1415,7 +1409,7 @@
         <v>97</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1442,7 +1436,7 @@
         <v>97</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1475,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="M22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1496,7 +1490,7 @@
         <v>99</v>
       </c>
       <c r="M23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1529,7 +1523,7 @@
         <v>100</v>
       </c>
       <c r="M24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1556,7 +1550,7 @@
         <v>100</v>
       </c>
       <c r="M25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1597,7 +1591,7 @@
         <v>101</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1618,7 +1612,7 @@
         <v>101</v>
       </c>
       <c r="M27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1639,7 +1633,7 @@
         <v>101</v>
       </c>
       <c r="M28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1660,7 +1654,7 @@
         <v>101</v>
       </c>
       <c r="M29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1681,7 +1675,7 @@
         <v>101</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1714,7 +1708,7 @@
         <v>102</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1735,7 +1729,7 @@
         <v>102</v>
       </c>
       <c r="M32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1756,7 +1750,7 @@
         <v>102</v>
       </c>
       <c r="M33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1777,7 +1771,7 @@
         <v>102</v>
       </c>
       <c r="M34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1798,7 +1792,7 @@
         <v>102</v>
       </c>
       <c r="M35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1831,7 +1825,7 @@
         <v>103</v>
       </c>
       <c r="M36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1852,7 +1846,7 @@
         <v>103</v>
       </c>
       <c r="M37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1873,7 +1867,7 @@
         <v>103</v>
       </c>
       <c r="M38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1906,7 +1900,7 @@
         <v>104</v>
       </c>
       <c r="M39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1927,7 +1921,7 @@
         <v>104</v>
       </c>
       <c r="M40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1956,7 +1950,7 @@
         <v>104</v>
       </c>
       <c r="M41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1977,7 +1971,7 @@
         <v>104</v>
       </c>
       <c r="M42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2008,7 +2002,7 @@
         <v>105</v>
       </c>
       <c r="M43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2022,12 +2016,14 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="L44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2045,10 +2041,10 @@
         <v>82</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2066,10 +2062,10 @@
         <v>80</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2083,12 +2079,14 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="L47" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2096,20 +2094,32 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M48" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2123,12 +2133,14 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="L49" s="1" t="s">
         <v>106</v>
       </c>
       <c r="M49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2136,20 +2148,12 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>79</v>
@@ -2158,10 +2162,10 @@
         <v>80</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M50" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2179,10 +2183,10 @@
         <v>81</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2190,24 +2194,32 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="I52" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2222,13 +2234,13 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M53" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2236,32 +2248,20 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2271,18 +2271,26 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K55" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2292,18 +2300,26 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K56" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2313,26 +2329,18 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2342,26 +2350,18 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2369,20 +2369,32 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K59" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M59" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2397,13 +2409,13 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M60" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2411,32 +2423,20 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2446,18 +2446,26 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K62" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2467,18 +2475,26 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M63" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2488,26 +2504,18 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2517,26 +2525,18 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2545,19 +2545,29 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K66" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M66" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2572,13 +2582,13 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M67" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2587,29 +2597,19 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2620,17 +2620,23 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M69" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2645,13 +2651,13 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M70" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2662,23 +2668,17 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2689,17 +2689,23 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K72" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M72" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2714,13 +2720,13 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M73" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2731,23 +2737,17 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2757,18 +2757,26 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K75" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2779,17 +2787,23 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M76" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2799,11 +2813,9 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>74</v>
@@ -2815,10 +2827,10 @@
         <v>80</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2828,9 +2840,11 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H78" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>74</v>
@@ -2839,13 +2853,13 @@
         <v>79</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M78" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2856,23 +2870,17 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2882,26 +2890,18 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2912,17 +2912,23 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M81" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2937,13 +2943,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M82" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2954,23 +2960,17 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M83" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2981,17 +2981,23 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K84" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M84" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3006,13 +3012,13 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M85" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3023,23 +3029,17 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3048,19 +3048,29 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K87" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M87" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3075,13 +3085,13 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M88" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3090,29 +3100,19 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M89" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3127,10 +3127,10 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M90" t="s">
         <v>139</v>
@@ -3142,19 +3142,29 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K91" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M91" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3169,13 +3179,13 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M92" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3184,29 +3194,19 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3216,18 +3216,26 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K94" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3237,18 +3245,26 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K95" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M95" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3258,26 +3274,18 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3287,26 +3295,18 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M97" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3315,19 +3315,29 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K98" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M98" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3342,13 +3352,13 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M99" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3357,29 +3367,19 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3389,18 +3389,26 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K101" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3410,18 +3418,26 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K102" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M102" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3431,26 +3447,18 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3460,26 +3468,18 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M104" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3487,20 +3487,32 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K105" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M105" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3515,13 +3527,13 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3529,29 +3541,17 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M107" t="s">
         <v>142</v>
@@ -3569,10 +3569,10 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M108" t="s">
         <v>143</v>
@@ -3590,10 +3590,10 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M109" t="s">
         <v>144</v>
@@ -3604,17 +3604,29 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K110" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M110" t="s">
         <v>145</v>
@@ -3632,13 +3644,13 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M111" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3646,32 +3658,20 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
       <c r="K112" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3679,20 +3679,32 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K113" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M113" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3710,76 +3722,22 @@
         <v>81</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M116" t="s">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="183">
+  <mergeCells count="180">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A116"/>
+    <mergeCell ref="A26:A114"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B116"/>
+    <mergeCell ref="B26:B114"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C116"/>
+    <mergeCell ref="C26:C114"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D116"/>
+    <mergeCell ref="D26:D114"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -3793,13 +3751,13 @@
     <mergeCell ref="E26:E30"/>
     <mergeCell ref="E31:E35"/>
     <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E39:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="E61:E106"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E58"/>
+    <mergeCell ref="E59:E104"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="E113:E114"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -3814,17 +3772,17 @@
     <mergeCell ref="F31:F35"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="F54:F60"/>
-    <mergeCell ref="F61:F67"/>
-    <mergeCell ref="F68:F88"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="F93:F99"/>
-    <mergeCell ref="F100:F106"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="F66:F86"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="F91:F97"/>
+    <mergeCell ref="F98:F104"/>
+    <mergeCell ref="F105:F109"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="F113:F114"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -3840,23 +3798,23 @@
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G76"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="G80:G88"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="G112:G114"/>
-    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G66:G74"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="G78:G86"/>
+    <mergeCell ref="G87:G90"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="G98:G100"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="G105:G109"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -3867,26 +3825,26 @@
     <mergeCell ref="H36:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="H112:H114"/>
-    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="H102:H104"/>
+    <mergeCell ref="H105:H109"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="H113:H114"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -3898,27 +3856,27 @@
     <mergeCell ref="I36:I38"/>
     <mergeCell ref="I39:I40"/>
     <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="I48:I49"/>
     <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="I89:I92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="I112:I114"/>
-    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I87:I90"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="I105:I109"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="I113:I114"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -3930,31 +3888,28 @@
     <mergeCell ref="J36:J38"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="J48:J49"/>
     <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="J102:J104"/>
+    <mergeCell ref="J105:J109"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="J113:J114"/>
     <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K48:K49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="150">
   <si>
     <t>variable_id</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>['pr', 'tas', 'clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['pr', 'tas', 'zg500', 'clt', 'evspsbl', 'huss', 'psl', 'rlds', 'rsds', 'tasmax', 'tasmin', 'uas', 'vas']</t>
@@ -818,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3608,10 +3611,10 @@
         <v>27</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>52</v>
@@ -3639,18 +3642,26 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K111" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="M111" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3660,18 +3671,26 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K112" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>109</v>
       </c>
       <c r="M112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3679,9 +3698,7 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
         <v>40</v>
       </c>
@@ -3692,19 +3709,19 @@
         <v>52</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3719,25 +3736,100 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L114" s="1" t="s">
+      <c r="L115" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L116" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M116" t="s">
         <v>148</v>
       </c>
     </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M117" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="180">
+  <mergeCells count="181">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A114"/>
+    <mergeCell ref="A26:A117"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B114"/>
+    <mergeCell ref="B26:B117"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C114"/>
+    <mergeCell ref="C26:C117"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D114"/>
+    <mergeCell ref="D26:D117"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -3756,8 +3848,8 @@
     <mergeCell ref="E52:E58"/>
     <mergeCell ref="E59:E104"/>
     <mergeCell ref="E105:E109"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E110:E115"/>
+    <mergeCell ref="E116:E117"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -3782,7 +3874,8 @@
     <mergeCell ref="F98:F104"/>
     <mergeCell ref="F105:F109"/>
     <mergeCell ref="F110:F112"/>
-    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="F116:F117"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -3813,8 +3906,8 @@
     <mergeCell ref="G98:G100"/>
     <mergeCell ref="G102:G104"/>
     <mergeCell ref="G105:G109"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G113:G115"/>
+    <mergeCell ref="G116:G117"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -3843,8 +3936,8 @@
     <mergeCell ref="H98:H100"/>
     <mergeCell ref="H102:H104"/>
     <mergeCell ref="H105:H109"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="H116:H117"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -3875,8 +3968,8 @@
     <mergeCell ref="I98:I100"/>
     <mergeCell ref="I102:I104"/>
     <mergeCell ref="I105:I109"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="I116:I117"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -3907,8 +4000,8 @@
     <mergeCell ref="J98:J100"/>
     <mergeCell ref="J102:J104"/>
     <mergeCell ref="J105:J109"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="J116:J117"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="154">
   <si>
     <t>variable_id</t>
   </si>
@@ -154,6 +154,9 @@
     <t>MPI-ESM1-2-HR</t>
   </si>
   <si>
+    <t>EC-Earth3</t>
+  </si>
+  <si>
     <t>evaluation</t>
   </si>
   <si>
@@ -164,6 +167,15 @@
   </si>
   <si>
     <t>ssp126</t>
+  </si>
+  <si>
+    <t>ssp245</t>
+  </si>
+  <si>
+    <t>ssp585</t>
+  </si>
+  <si>
+    <t>ssp119</t>
   </si>
   <si>
     <t>r0i0p0</t>
@@ -821,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,25 +912,25 @@
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -930,22 +942,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -960,25 +972,25 @@
         <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -990,22 +1002,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1020,25 +1032,25 @@
         <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1053,13 +1065,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1072,19 +1084,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1099,13 +1111,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1120,25 +1132,25 @@
         <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1153,13 +1165,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1174,25 +1186,25 @@
         <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1204,22 +1216,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1234,25 +1246,25 @@
         <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1267,25 +1279,25 @@
         <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1300,13 +1312,13 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1322,10 +1334,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1340,25 +1352,25 @@
         <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1373,13 +1385,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1394,25 +1406,25 @@
         <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1424,22 +1436,22 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1454,25 +1466,25 @@
         <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1487,13 +1499,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1508,25 +1520,25 @@
         <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1538,22 +1550,22 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1576,25 +1588,25 @@
         <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1609,13 +1621,13 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M27" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1630,13 +1642,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1651,13 +1663,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1672,13 +1684,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1693,25 +1705,25 @@
         <v>40</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1726,13 +1738,13 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1747,13 +1759,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1768,13 +1780,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1789,13 +1801,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M35" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1810,25 +1822,25 @@
         <v>40</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M36" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1843,13 +1855,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1864,13 +1876,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M38" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1885,25 +1897,25 @@
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1918,13 +1930,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1935,25 +1947,25 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1968,13 +1980,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1987,25 +1999,25 @@
         <v>40</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M43" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2020,13 +2032,13 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M44" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2041,13 +2053,13 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2062,13 +2074,13 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M46" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2083,13 +2095,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2104,25 +2116,25 @@
         <v>40</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M48" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2137,13 +2149,13 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M49" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2156,19 +2168,19 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M50" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2183,13 +2195,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2204,25 +2216,25 @@
         <v>42</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M52" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2237,13 +2249,13 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M53" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2258,13 +2270,13 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M54" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2275,25 +2287,25 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M55" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2304,25 +2316,25 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M56" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2337,13 +2349,13 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M57" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2358,13 +2370,13 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M58" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2379,25 +2391,25 @@
         <v>41</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M59" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2412,13 +2424,13 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M60" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2433,13 +2445,13 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M61" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2450,25 +2462,25 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M62" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2479,25 +2491,25 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M63" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2512,13 +2524,13 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M64" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2533,13 +2545,13 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M65" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2552,25 +2564,25 @@
         <v>43</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M66" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2585,13 +2597,13 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M67" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2606,13 +2618,13 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M68" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2624,22 +2636,22 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M69" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2654,13 +2666,13 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M70" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2675,13 +2687,13 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M71" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2693,22 +2705,22 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M72" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2723,13 +2735,13 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M73" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2744,13 +2756,13 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M74" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2761,25 +2773,25 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M75" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2791,22 +2803,22 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M76" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2818,22 +2830,22 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M77" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2844,25 +2856,25 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M78" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2877,13 +2889,13 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M79" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2898,13 +2910,13 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M80" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2916,22 +2928,22 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M81" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2946,13 +2958,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M82" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2967,13 +2979,13 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M83" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2985,22 +2997,22 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M84" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3015,13 +3027,13 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M85" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3036,13 +3048,13 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M86" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3055,25 +3067,25 @@
         <v>40</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M87" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3088,13 +3100,13 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M88" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3109,13 +3121,13 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M89" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3130,13 +3142,13 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M90" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3149,25 +3161,25 @@
         <v>44</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M91" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3182,13 +3194,13 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M92" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3203,13 +3215,13 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M93" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3220,25 +3232,25 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M94" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3249,25 +3261,25 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M95" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3282,13 +3294,13 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M96" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3303,13 +3315,13 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M97" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3322,25 +3334,25 @@
         <v>45</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M98" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3355,13 +3367,13 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M99" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3376,13 +3388,13 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M100" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3393,25 +3405,25 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M101" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3422,25 +3434,25 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M102" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3455,13 +3467,13 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M103" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3476,13 +3488,13 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M104" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3497,25 +3509,25 @@
         <v>40</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M105" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3530,13 +3542,13 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M106" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3551,13 +3563,13 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M107" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3572,13 +3584,13 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M108" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3593,13 +3605,13 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M109" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3611,28 +3623,28 @@
         <v>27</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M110" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3643,25 +3655,25 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M111" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3672,25 +3684,25 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M112" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3700,28 +3712,28 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M113" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3731,18 +3743,26 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K114" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M114" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3752,18 +3772,26 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K115" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M115" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3771,32 +3799,28 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3806,30 +3830,519 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K117" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M117" t="s">
         <v>149</v>
       </c>
     </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M127" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M128" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M129" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M130" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M132" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M133" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M134" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="181">
+  <mergeCells count="185">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A117"/>
+    <mergeCell ref="A26:A134"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B117"/>
+    <mergeCell ref="B26:B134"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C117"/>
+    <mergeCell ref="C26:C134"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D117"/>
+    <mergeCell ref="D26:D134"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -3848,8 +4361,8 @@
     <mergeCell ref="E52:E58"/>
     <mergeCell ref="E59:E104"/>
     <mergeCell ref="E105:E109"/>
-    <mergeCell ref="E110:E115"/>
-    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E110:E132"/>
+    <mergeCell ref="E133:E134"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -3874,8 +4387,12 @@
     <mergeCell ref="F98:F104"/>
     <mergeCell ref="F105:F109"/>
     <mergeCell ref="F110:F112"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F113:F117"/>
+    <mergeCell ref="F118:F123"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="F133:F134"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -3906,8 +4423,8 @@
     <mergeCell ref="G98:G100"/>
     <mergeCell ref="G102:G104"/>
     <mergeCell ref="G105:G109"/>
-    <mergeCell ref="G113:G115"/>
-    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="G133:G134"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -3936,8 +4453,8 @@
     <mergeCell ref="H98:H100"/>
     <mergeCell ref="H102:H104"/>
     <mergeCell ref="H105:H109"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="H133:H134"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -3968,8 +4485,8 @@
     <mergeCell ref="I98:I100"/>
     <mergeCell ref="I102:I104"/>
     <mergeCell ref="I105:I109"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="I124:I126"/>
+    <mergeCell ref="I133:I134"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -4000,8 +4517,8 @@
     <mergeCell ref="J98:J100"/>
     <mergeCell ref="J102:J104"/>
     <mergeCell ref="J105:J109"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J124:J126"/>
+    <mergeCell ref="J133:J134"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="153">
   <si>
     <t>variable_id</t>
   </si>
@@ -461,9 +461,6 @@
   </si>
   <si>
     <t>['pr', 'tas', 'clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
-  </si>
-  <si>
-    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['pr', 'tas', 'zg500', 'clt', 'evspsbl', 'huss', 'psl', 'rlds', 'rsds', 'tasmax', 'tasmin', 'uas', 'vas']</t>
@@ -833,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3644,7 +3641,7 @@
         <v>113</v>
       </c>
       <c r="M110" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3654,26 +3651,18 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M111" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3684,7 +3673,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>57</v>
@@ -3702,7 +3691,7 @@
         <v>113</v>
       </c>
       <c r="M112" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3711,29 +3700,19 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M113" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3744,10 +3723,10 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>80</v>
@@ -3762,7 +3741,7 @@
         <v>113</v>
       </c>
       <c r="M114" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3772,26 +3751,18 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
       <c r="K115" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3800,9 +3771,11 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G116" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>56</v>
@@ -3820,7 +3793,7 @@
         <v>113</v>
       </c>
       <c r="M116" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3830,26 +3803,18 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
       <c r="K117" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M117" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3858,11 +3823,9 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F118" s="1"/>
       <c r="G118" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>56</v>
@@ -3880,7 +3843,7 @@
         <v>113</v>
       </c>
       <c r="M118" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3890,26 +3853,18 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
       <c r="K119" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M119" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3920,7 +3875,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>56</v>
@@ -3938,7 +3893,7 @@
         <v>113</v>
       </c>
       <c r="M120" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3949,7 +3904,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>56</v>
@@ -3967,7 +3922,7 @@
         <v>113</v>
       </c>
       <c r="M121" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3977,26 +3932,18 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
       <c r="K122" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M122" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4025,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="M123" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4035,10 +3982,10 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>56</v>
@@ -4056,7 +4003,7 @@
         <v>113</v>
       </c>
       <c r="M124" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4087,18 +4034,26 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K126" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M126" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4107,11 +4062,9 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>56</v>
@@ -4129,7 +4082,7 @@
         <v>113</v>
       </c>
       <c r="M127" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4139,26 +4092,18 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
       <c r="K128" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M128" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4169,7 +4114,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>56</v>
@@ -4187,7 +4132,7 @@
         <v>113</v>
       </c>
       <c r="M129" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4196,11 +4141,9 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F130" s="1"/>
       <c r="G130" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>56</v>
@@ -4218,7 +4161,7 @@
         <v>113</v>
       </c>
       <c r="M130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4228,26 +4171,18 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
       <c r="K131" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M131" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4258,7 +4193,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>56</v>
@@ -4276,7 +4211,7 @@
         <v>113</v>
       </c>
       <c r="M132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4284,9 +4219,7 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
         <v>40</v>
       </c>
@@ -4297,19 +4230,19 @@
         <v>56</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M133" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4324,25 +4257,404 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M134" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L134" s="1" t="s">
+      <c r="L135" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M135" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M137" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M139" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M146" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L148" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M134" t="s">
-        <v>153</v>
+      <c r="M148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M149" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="245">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A134"/>
+    <mergeCell ref="A26:A149"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B134"/>
+    <mergeCell ref="B26:B149"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C134"/>
+    <mergeCell ref="C26:C149"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D134"/>
+    <mergeCell ref="D26:D149"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -4361,8 +4673,8 @@
     <mergeCell ref="E52:E58"/>
     <mergeCell ref="E59:E104"/>
     <mergeCell ref="E105:E109"/>
-    <mergeCell ref="E110:E132"/>
-    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E110:E147"/>
+    <mergeCell ref="E148:E149"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -4386,13 +4698,13 @@
     <mergeCell ref="F91:F97"/>
     <mergeCell ref="F98:F104"/>
     <mergeCell ref="F105:F109"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="F113:F117"/>
-    <mergeCell ref="F118:F123"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="F110:F115"/>
+    <mergeCell ref="F116:F123"/>
+    <mergeCell ref="F124:F132"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="F136:F141"/>
+    <mergeCell ref="F142:F147"/>
+    <mergeCell ref="F148:F149"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -4423,8 +4735,23 @@
     <mergeCell ref="G98:G100"/>
     <mergeCell ref="G102:G104"/>
     <mergeCell ref="G105:G109"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="G148:G149"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -4453,8 +4780,23 @@
     <mergeCell ref="H98:H100"/>
     <mergeCell ref="H102:H104"/>
     <mergeCell ref="H105:H109"/>
-    <mergeCell ref="H124:H126"/>
-    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="H148:H149"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -4485,8 +4827,23 @@
     <mergeCell ref="I98:I100"/>
     <mergeCell ref="I102:I104"/>
     <mergeCell ref="I105:I109"/>
-    <mergeCell ref="I124:I126"/>
-    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="I133:I135"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="I146:I147"/>
+    <mergeCell ref="I148:I149"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -4517,8 +4874,23 @@
     <mergeCell ref="J98:J100"/>
     <mergeCell ref="J102:J104"/>
     <mergeCell ref="J105:J109"/>
-    <mergeCell ref="J124:J126"/>
-    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="J133:J135"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="J146:J147"/>
+    <mergeCell ref="J148:J149"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -3124,7 +3124,7 @@
         <v>111</v>
       </c>
       <c r="M89" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:13">

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="157">
   <si>
     <t>variable_id</t>
   </si>
@@ -112,6 +112,9 @@
     <t>SMHI</t>
   </si>
   <si>
+    <t>CESAM-UA</t>
+  </si>
+  <si>
     <t>CLMcom-CMCC</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     <t>RCA4</t>
   </si>
   <si>
+    <t>WRF451Q</t>
+  </si>
+  <si>
     <t>CCLM6-0-1-URB</t>
   </si>
   <si>
@@ -331,6 +337,9 @@
     <t>v20131026</t>
   </si>
   <si>
+    <t>v20250520</t>
+  </si>
+  <si>
     <t>v20250201</t>
   </si>
   <si>
@@ -377,6 +386,9 @@
   </si>
   <si>
     <t>['pr', 'tas']</t>
+  </si>
+  <si>
+    <t>['hurs', 'sfcWind', 'tas', 'pr']</t>
   </si>
   <si>
     <t>['hurs', 'pr', 'prw', 'sfcWind', 'tas']</t>
@@ -830,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -906,28 +918,28 @@
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -939,22 +951,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -966,28 +978,28 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -999,22 +1011,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1026,28 +1038,28 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1062,13 +1074,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1081,19 +1093,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1108,13 +1120,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1126,28 +1138,28 @@
         <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1162,13 +1174,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1180,28 +1192,28 @@
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1213,22 +1225,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1240,28 +1252,28 @@
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1273,28 +1285,28 @@
         <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1309,13 +1321,13 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1331,10 +1343,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1346,28 +1358,28 @@
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1382,13 +1394,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1400,28 +1412,28 @@
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1433,22 +1445,22 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1460,28 +1472,28 @@
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1496,13 +1508,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1514,28 +1526,28 @@
         <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1547,22 +1559,22 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1582,28 +1594,28 @@
         <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1611,20 +1623,32 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1639,13 +1663,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1660,13 +1684,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1681,13 +1705,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1695,32 +1719,20 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1728,20 +1740,32 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1756,13 +1780,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1777,13 +1801,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1798,13 +1822,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1812,32 +1836,20 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1845,20 +1857,32 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M37" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1873,13 +1897,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M38" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1887,32 +1911,20 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1920,20 +1932,32 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M40" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1943,26 +1967,18 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M41" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1972,18 +1988,26 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K42" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M42" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1992,29 +2016,19 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M43" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2023,19 +2037,29 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2050,13 +2074,13 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M45" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2071,13 +2095,13 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M46" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2092,13 +2116,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2106,32 +2130,20 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2139,20 +2151,32 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K49" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M49" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2164,20 +2188,16 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M50" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2189,16 +2209,20 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K51" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M51" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2206,32 +2230,20 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2239,20 +2251,32 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K53" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M53" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2267,13 +2291,13 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M54" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2283,26 +2307,18 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M55" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2313,25 +2329,25 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M56" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2341,18 +2357,26 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K57" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M57" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2367,13 +2391,13 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M58" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2381,32 +2405,20 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M59" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2414,20 +2426,32 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K60" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M60" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2442,13 +2466,13 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M61" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2458,26 +2482,18 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M62" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2488,25 +2504,25 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M63" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2516,18 +2532,26 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K64" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M64" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2542,13 +2566,13 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M65" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2557,29 +2581,19 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M66" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2588,19 +2602,29 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K67" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M67" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2615,13 +2639,13 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M68" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2632,23 +2656,17 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M69" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2659,17 +2677,23 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="H70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K70" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M70" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2684,13 +2708,13 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M71" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2701,23 +2725,17 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M72" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2728,17 +2746,23 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K73" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M73" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2753,13 +2777,13 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M74" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2769,26 +2793,18 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M75" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2798,24 +2814,26 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H76" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M76" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2830,19 +2848,19 @@
         <v>59</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M77" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2852,26 +2870,24 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M78" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2881,18 +2897,26 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M79" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2907,13 +2931,13 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M80" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2924,23 +2948,17 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M81" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2951,17 +2969,23 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M82" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2976,13 +3000,13 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M83" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2993,23 +3017,17 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M84" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3020,17 +3038,23 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K85" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M85" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3045,13 +3069,13 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M86" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3060,29 +3084,19 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
       <c r="K87" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M87" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3091,19 +3105,29 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K88" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M88" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3118,13 +3142,13 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M89" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3139,13 +3163,13 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M90" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3154,29 +3178,19 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M91" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3185,19 +3199,29 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K92" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M92" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3212,13 +3236,13 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M93" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3228,26 +3252,18 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M94" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3258,25 +3274,25 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M95" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3286,18 +3302,26 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K96" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M96" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3312,13 +3336,13 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M97" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3327,29 +3351,19 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M98" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3358,19 +3372,29 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K99" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M99" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3385,13 +3409,13 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M100" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3401,26 +3425,18 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M101" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3431,25 +3447,25 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M102" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3459,18 +3475,26 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K103" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M103" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3485,13 +3509,13 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M104" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3499,32 +3523,20 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M105" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3532,20 +3544,32 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K106" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M106" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3560,13 +3584,13 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M107" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3581,13 +3605,13 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M108" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3602,13 +3626,13 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M109" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3616,32 +3640,20 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M110" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3649,20 +3661,32 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K111" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M111" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3672,26 +3696,18 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
       <c r="K112" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M112" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3701,18 +3717,26 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K113" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M113" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3722,26 +3746,18 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
       <c r="K114" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M114" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3751,18 +3767,26 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K115" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M115" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3771,29 +3795,19 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
       <c r="K116" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M116" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3802,19 +3816,29 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K117" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M117" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3824,26 +3848,18 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M118" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3853,18 +3869,26 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K119" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M119" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3874,26 +3898,18 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
       <c r="K120" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M120" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3904,25 +3920,25 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M121" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3932,18 +3948,26 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K122" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M122" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -3953,26 +3977,18 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
       <c r="K123" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M123" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -3981,29 +3997,27 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F124" s="1"/>
       <c r="G124" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M124" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4012,19 +4026,29 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K125" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M125" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4034,26 +4058,18 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
       <c r="K126" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M126" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4064,25 +4080,25 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M127" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4092,18 +4108,26 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K128" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M128" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4113,26 +4137,18 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
       <c r="K129" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M129" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4143,25 +4159,25 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M130" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4171,18 +4187,26 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K131" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M131" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4192,26 +4216,18 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
       <c r="K132" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M132" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4220,29 +4236,27 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M133" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4251,19 +4265,29 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K134" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M134" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4278,13 +4302,13 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M135" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4293,29 +4317,19 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
       <c r="K136" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M136" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4324,19 +4338,29 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K137" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M137" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4346,26 +4370,18 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
       <c r="K138" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M138" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4375,18 +4391,26 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K139" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M139" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4396,26 +4420,18 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
       <c r="K140" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M140" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4425,18 +4441,26 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="G141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K141" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M141" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4445,29 +4469,19 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
       <c r="K142" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M142" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4476,19 +4490,29 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K143" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M143" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4498,26 +4522,18 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
       <c r="K144" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M144" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4527,18 +4543,26 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
+      <c r="G145" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K145" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M145" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4548,26 +4572,18 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
       <c r="K146" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M146" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4577,18 +4593,26 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
+      <c r="G147" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K147" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M147" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4596,29 +4620,17 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
       <c r="K148" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M148" t="s">
         <v>151</v>
@@ -4629,32 +4641,65 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K149" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M149" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M150" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="245">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A149"/>
+    <mergeCell ref="A26:A150"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B149"/>
+    <mergeCell ref="B26:B150"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C149"/>
+    <mergeCell ref="C26:C150"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D149"/>
+    <mergeCell ref="D26:D150"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -4665,16 +4710,16 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E58"/>
-    <mergeCell ref="E59:E104"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="E110:E147"/>
-    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E53:E59"/>
+    <mergeCell ref="E60:E105"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="E111:E148"/>
+    <mergeCell ref="E149:E150"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -4685,26 +4730,26 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="F52:F58"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="F66:F86"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="F91:F97"/>
-    <mergeCell ref="F98:F104"/>
-    <mergeCell ref="F105:F109"/>
-    <mergeCell ref="F110:F115"/>
-    <mergeCell ref="F116:F123"/>
-    <mergeCell ref="F124:F132"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="F136:F141"/>
-    <mergeCell ref="F142:F147"/>
-    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="F67:F87"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="F92:F98"/>
+    <mergeCell ref="F99:F105"/>
+    <mergeCell ref="F106:F110"/>
+    <mergeCell ref="F111:F116"/>
+    <mergeCell ref="F117:F124"/>
+    <mergeCell ref="F125:F133"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="F137:F142"/>
+    <mergeCell ref="F143:F148"/>
+    <mergeCell ref="F149:F150"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -4715,182 +4760,182 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G66:G74"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="G78:G86"/>
-    <mergeCell ref="G87:G90"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="G98:G100"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="G105:G109"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G67:G75"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G79:G87"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="G99:G101"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="G106:G110"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="G149:G150"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="H105:H109"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="H144:H145"/>
-    <mergeCell ref="H146:H147"/>
-    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="H99:H101"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="H106:H110"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="H149:H150"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="I87:I90"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="I105:I109"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="I133:I135"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="I146:I147"/>
-    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I106:I110"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="I134:I136"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="I149:I150"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J66:J68"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="J87:J90"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="J102:J104"/>
-    <mergeCell ref="J105:J109"/>
-    <mergeCell ref="J110:J111"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="J133:J135"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="J144:J145"/>
-    <mergeCell ref="J146:J147"/>
-    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="J106:J110"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="J134:J136"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J149:J150"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="159">
   <si>
     <t>variable_id</t>
   </si>
@@ -421,6 +421,9 @@
     <t>['zg500', 'clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'od550aer', 'pr', 'prsn', 'psl', 'rlds', 'rldscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsut', 'rsutcs', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
+    <t>['hurs']</t>
+  </si>
+  <si>
     <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas', 'vas']</t>
   </si>
   <si>
@@ -440,6 +443,9 @@
   </si>
   <si>
     <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin', 'mrro', 'mrros', 'mrso', 'prsn', 'rldscs', 'rlutcs', 'rsdscs', 'rsutcs', 'snc', 'snd', 'snw', 'zg500']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'pr', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
@@ -842,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1876,7 +1882,7 @@
         <v>85</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>110</v>
@@ -1897,13 +1903,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M38" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1918,13 +1924,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M39" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1932,29 +1938,17 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s">
         <v>136</v>
@@ -1965,20 +1959,32 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>111</v>
       </c>
       <c r="M41" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1988,26 +1994,18 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>111</v>
       </c>
       <c r="M42" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2017,18 +2015,26 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K43" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>111</v>
       </c>
       <c r="M43" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2037,29 +2043,19 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M44" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2068,13 +2064,23 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>112</v>
@@ -2095,7 +2101,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>112</v>
@@ -2116,7 +2122,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>112</v>
@@ -2137,7 +2143,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>112</v>
@@ -2151,32 +2157,20 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M49" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2184,20 +2178,32 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K50" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2209,12 +2215,8 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
         <v>86</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>113</v>
       </c>
       <c r="M51" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2243,7 +2245,7 @@
         <v>113</v>
       </c>
       <c r="M52" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2251,20 +2253,12 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>85</v>
@@ -2273,10 +2267,10 @@
         <v>88</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2294,10 +2288,10 @@
         <v>86</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M54" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2315,10 +2309,10 @@
         <v>87</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2326,10 +2320,14 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G56" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>57</v>
@@ -2341,13 +2339,13 @@
         <v>85</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M56" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2357,26 +2355,18 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M57" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2391,13 +2381,13 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M58" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2407,18 +2397,26 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M59" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2426,17 +2424,13 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>80</v>
@@ -2451,7 +2445,7 @@
         <v>114</v>
       </c>
       <c r="M60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2493,7 +2487,7 @@
         <v>114</v>
       </c>
       <c r="M62" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2501,10 +2495,14 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G63" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>58</v>
@@ -2516,13 +2514,13 @@
         <v>85</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M63" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2532,26 +2530,18 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M64" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2566,13 +2556,13 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M65" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2582,18 +2572,26 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K66" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2602,14 +2600,12 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>80</v>
@@ -2624,7 +2620,7 @@
         <v>114</v>
       </c>
       <c r="M67" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2666,7 +2662,7 @@
         <v>114</v>
       </c>
       <c r="M69" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2675,10 +2671,14 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H70" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>80</v>
@@ -2693,7 +2693,7 @@
         <v>114</v>
       </c>
       <c r="M70" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2735,7 +2735,7 @@
         <v>114</v>
       </c>
       <c r="M72" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2747,7 +2747,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>80</v>
@@ -2762,7 +2762,7 @@
         <v>114</v>
       </c>
       <c r="M73" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2804,7 +2804,7 @@
         <v>114</v>
       </c>
       <c r="M75" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2814,11 +2814,9 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>80</v>
@@ -2827,13 +2825,13 @@
         <v>85</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M76" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2844,15 +2842,9 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
         <v>86</v>
       </c>
@@ -2871,23 +2863,17 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M78" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2898,7 +2884,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>57</v>
@@ -2910,13 +2896,13 @@
         <v>85</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M79" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2927,9 +2913,15 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K80" s="1" t="s">
         <v>86</v>
       </c>
@@ -2948,17 +2940,23 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M81" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2968,9 +2966,11 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H82" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>80</v>
@@ -2985,7 +2985,7 @@
         <v>114</v>
       </c>
       <c r="M82" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3027,7 +3027,7 @@
         <v>114</v>
       </c>
       <c r="M84" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3039,7 +3039,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>80</v>
@@ -3054,7 +3054,7 @@
         <v>114</v>
       </c>
       <c r="M85" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3096,7 +3096,7 @@
         <v>114</v>
       </c>
       <c r="M87" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3105,14 +3105,10 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>80</v>
@@ -3121,7 +3117,7 @@
         <v>85</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>114</v>
@@ -3142,13 +3138,13 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M89" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3163,13 +3159,13 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M90" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3178,19 +3174,29 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K91" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M91" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3199,21 +3205,11 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
         <v>88</v>
       </c>
@@ -3221,7 +3217,7 @@
         <v>114</v>
       </c>
       <c r="M92" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3242,7 +3238,7 @@
         <v>114</v>
       </c>
       <c r="M93" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3263,7 +3259,7 @@
         <v>114</v>
       </c>
       <c r="M94" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3272,9 +3268,11 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G95" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>57</v>
@@ -3286,13 +3284,13 @@
         <v>85</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M95" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3302,26 +3300,18 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M96" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3336,13 +3326,13 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M97" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3352,18 +3342,26 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K98" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M98" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3372,11 +3370,9 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>57</v>
@@ -3394,7 +3390,7 @@
         <v>114</v>
       </c>
       <c r="M99" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3436,7 +3432,7 @@
         <v>114</v>
       </c>
       <c r="M101" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3445,9 +3441,11 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G102" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>57</v>
@@ -3459,13 +3457,13 @@
         <v>85</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M102" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3475,26 +3473,18 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M103" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3509,13 +3499,13 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M104" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3525,18 +3515,26 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K105" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M105" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3544,32 +3542,28 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3584,13 +3578,13 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M107" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3605,13 +3599,13 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3619,20 +3613,32 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K109" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3647,13 +3653,13 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3661,32 +3667,20 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M111" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3704,10 +3698,10 @@
         <v>86</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M112" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3717,26 +3711,18 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M113" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3744,20 +3730,32 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K114" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M114" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3767,26 +3765,18 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
       <c r="K115" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M115" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3796,18 +3786,26 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K116" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M116" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3816,29 +3814,19 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
       <c r="K117" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M117" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3848,18 +3836,26 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K118" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M118" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3869,26 +3865,18 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
       <c r="K119" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M119" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3897,19 +3885,29 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K120" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M120" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3919,26 +3917,18 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
       <c r="K121" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M121" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3949,7 +3939,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>57</v>
@@ -3967,7 +3957,7 @@
         <v>116</v>
       </c>
       <c r="M122" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -3988,7 +3978,7 @@
         <v>116</v>
       </c>
       <c r="M123" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -3999,7 +3989,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>57</v>
@@ -4017,7 +4007,7 @@
         <v>116</v>
       </c>
       <c r="M124" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4026,11 +4016,9 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="F125" s="1"/>
       <c r="G125" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>57</v>
@@ -4048,7 +4036,7 @@
         <v>116</v>
       </c>
       <c r="M125" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4069,7 +4057,7 @@
         <v>116</v>
       </c>
       <c r="M126" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4080,7 +4068,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>57</v>
@@ -4098,7 +4086,7 @@
         <v>116</v>
       </c>
       <c r="M127" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4107,9 +4095,11 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G128" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>57</v>
@@ -4127,7 +4117,7 @@
         <v>116</v>
       </c>
       <c r="M128" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4148,7 +4138,7 @@
         <v>116</v>
       </c>
       <c r="M129" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4159,7 +4149,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>57</v>
@@ -4177,7 +4167,7 @@
         <v>116</v>
       </c>
       <c r="M130" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4188,7 +4178,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>57</v>
@@ -4206,7 +4196,7 @@
         <v>116</v>
       </c>
       <c r="M131" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4227,7 +4217,7 @@
         <v>116</v>
       </c>
       <c r="M132" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4238,7 +4228,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>57</v>
@@ -4256,7 +4246,7 @@
         <v>116</v>
       </c>
       <c r="M133" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4265,11 +4255,9 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F134" s="1"/>
       <c r="G134" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>57</v>
@@ -4287,7 +4275,7 @@
         <v>116</v>
       </c>
       <c r="M134" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4308,7 +4296,7 @@
         <v>116</v>
       </c>
       <c r="M135" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4318,18 +4306,26 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K136" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M136" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4339,10 +4335,10 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>57</v>
@@ -4360,7 +4356,7 @@
         <v>116</v>
       </c>
       <c r="M137" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4381,7 +4377,7 @@
         <v>116</v>
       </c>
       <c r="M138" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4391,26 +4387,18 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
       <c r="K139" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M139" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4419,19 +4407,29 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K140" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M140" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4441,26 +4439,18 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
       <c r="K141" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M141" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4470,18 +4460,26 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+      <c r="G142" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K142" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M142" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4490,29 +4488,19 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
       <c r="K143" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M143" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4522,18 +4510,26 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K144" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M144" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4543,26 +4539,18 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
       <c r="K145" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M145" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4571,19 +4559,29 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K146" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M146" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4593,26 +4591,18 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
       <c r="K147" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M147" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4622,18 +4612,26 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="G148" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K148" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M148" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4641,32 +4639,20 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
       <c r="K149" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M149" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4676,30 +4662,113 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K150" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M151" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L150" s="1" t="s">
+      <c r="L153" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M150" t="s">
-        <v>156</v>
+      <c r="M153" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="245">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A150"/>
+    <mergeCell ref="A26:A153"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B150"/>
+    <mergeCell ref="B26:B153"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C150"/>
+    <mergeCell ref="C26:C153"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D150"/>
+    <mergeCell ref="D26:D153"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -4712,14 +4781,14 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E27:E31"/>
     <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E53:E59"/>
-    <mergeCell ref="E60:E105"/>
-    <mergeCell ref="E106:E110"/>
-    <mergeCell ref="E111:E148"/>
-    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="E63:E108"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="E114:E151"/>
+    <mergeCell ref="E152:E153"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -4732,24 +4801,24 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F27:F31"/>
     <mergeCell ref="F32:F36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="F67:F87"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="F92:F98"/>
-    <mergeCell ref="F99:F105"/>
-    <mergeCell ref="F106:F110"/>
-    <mergeCell ref="F111:F116"/>
-    <mergeCell ref="F117:F124"/>
-    <mergeCell ref="F125:F133"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="F137:F142"/>
-    <mergeCell ref="F143:F148"/>
-    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="F56:F62"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="F70:F90"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="F95:F101"/>
+    <mergeCell ref="F102:F108"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="F114:F119"/>
+    <mergeCell ref="F120:F127"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="F137:F139"/>
+    <mergeCell ref="F140:F145"/>
+    <mergeCell ref="F146:F151"/>
+    <mergeCell ref="F152:F153"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -4762,41 +4831,41 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G27:G31"/>
     <mergeCell ref="G32:G36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="G56:G58"/>
     <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="G67:G75"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G79:G87"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G70:G78"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="G82:G90"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="G95:G97"/>
     <mergeCell ref="G99:G101"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="G106:G110"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G120:G121"/>
     <mergeCell ref="G122:G123"/>
     <mergeCell ref="G125:G126"/>
     <mergeCell ref="G128:G129"/>
     <mergeCell ref="G131:G132"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G137:G139"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="G152:G153"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -4804,44 +4873,44 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H27:H31"/>
     <mergeCell ref="H32:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="H50:H55"/>
+    <mergeCell ref="H56:H58"/>
     <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H63:H65"/>
     <mergeCell ref="H67:H69"/>
     <mergeCell ref="H70:H72"/>
     <mergeCell ref="H73:H75"/>
-    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="H76:H78"/>
     <mergeCell ref="H82:H84"/>
     <mergeCell ref="H85:H87"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="H95:H97"/>
     <mergeCell ref="H99:H101"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="H106:H110"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="H102:H104"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="H109:H113"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="H120:H121"/>
     <mergeCell ref="H122:H123"/>
     <mergeCell ref="H125:H126"/>
     <mergeCell ref="H128:H129"/>
     <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H134:H136"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="H137:H139"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="H152:H153"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -4850,45 +4919,45 @@
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I32:I36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="I50:I52"/>
     <mergeCell ref="I53:I55"/>
-    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="I56:I58"/>
     <mergeCell ref="I60:I62"/>
-    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I63:I65"/>
     <mergeCell ref="I67:I69"/>
     <mergeCell ref="I70:I72"/>
     <mergeCell ref="I73:I75"/>
-    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="I76:I78"/>
     <mergeCell ref="I82:I84"/>
     <mergeCell ref="I85:I87"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="I91:I94"/>
+    <mergeCell ref="I95:I97"/>
     <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="I106:I110"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="I120:I121"/>
     <mergeCell ref="I122:I123"/>
     <mergeCell ref="I125:I126"/>
     <mergeCell ref="I128:I129"/>
     <mergeCell ref="I131:I132"/>
-    <mergeCell ref="I134:I136"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="I137:I139"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="I146:I147"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="I152:I153"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -4897,45 +4966,45 @@
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J48"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="J50:J52"/>
     <mergeCell ref="J53:J55"/>
-    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="J56:J58"/>
     <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J63:J65"/>
     <mergeCell ref="J67:J69"/>
     <mergeCell ref="J70:J72"/>
     <mergeCell ref="J73:J75"/>
-    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="J76:J78"/>
     <mergeCell ref="J82:J84"/>
     <mergeCell ref="J85:J87"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="J91:J94"/>
+    <mergeCell ref="J95:J97"/>
     <mergeCell ref="J99:J101"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="J106:J110"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="J102:J104"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="J109:J113"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="J120:J121"/>
     <mergeCell ref="J122:J123"/>
     <mergeCell ref="J125:J126"/>
     <mergeCell ref="J128:J129"/>
     <mergeCell ref="J131:J132"/>
-    <mergeCell ref="J134:J136"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="J137:J139"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="J146:J147"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="J152:J153"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="161">
   <si>
     <t>variable_id</t>
   </si>
@@ -445,10 +445,16 @@
     <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin', 'mrro', 'mrros', 'mrso', 'prsn', 'rldscs', 'rlutcs', 'rsdscs', 'rsutcs', 'snc', 'snd', 'snw', 'zg500']</t>
   </si>
   <si>
+    <t>['pr', 'sfcWind']</t>
+  </si>
+  <si>
     <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'pr', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+  </si>
+  <si>
+    <t>['pr', 'sfcWind', 'tas']</t>
   </si>
   <si>
     <t>['orog', 'sftlaf', 'sftlf']</t>
@@ -848,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2197,7 +2203,7 @@
         <v>85</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>113</v>
@@ -2218,13 +2224,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M51" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2239,13 +2245,13 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M52" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2257,20 +2263,16 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2282,16 +2284,20 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K54" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2306,7 +2312,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>113</v>
@@ -2320,32 +2326,20 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2360,13 +2354,13 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M57" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2374,20 +2368,32 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K58" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2397,18 +2403,10 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
         <v>86</v>
       </c>
@@ -2426,26 +2424,18 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M60" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2455,10 +2445,18 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K61" s="1" t="s">
         <v>86</v>
       </c>
@@ -2476,18 +2474,26 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K62" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2495,32 +2501,20 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M63" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2535,13 +2529,13 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M64" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2549,20 +2543,32 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K65" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2572,18 +2578,10 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
         <v>86</v>
       </c>
@@ -2601,26 +2599,18 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M67" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2630,10 +2620,18 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K68" s="1" t="s">
         <v>86</v>
       </c>
@@ -2651,18 +2649,26 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K69" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2671,29 +2677,19 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M70" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2708,13 +2704,13 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M71" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2723,19 +2719,29 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2746,23 +2752,17 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M73" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2777,13 +2777,13 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M74" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2794,17 +2794,23 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K75" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2815,23 +2821,17 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M76" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2846,13 +2846,13 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M77" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2863,17 +2863,23 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K78" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2883,18 +2889,10 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
         <v>86</v>
       </c>
@@ -2913,23 +2911,17 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M80" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2939,9 +2931,11 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H81" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>80</v>
@@ -2966,11 +2960,9 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>80</v>
@@ -2979,13 +2971,13 @@
         <v>85</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M82" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2996,9 +2988,15 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K83" s="1" t="s">
         <v>86</v>
       </c>
@@ -3016,18 +3014,26 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3038,23 +3044,17 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M85" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3069,13 +3069,13 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M86" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3086,17 +3086,23 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3107,23 +3113,17 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M88" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3138,13 +3138,13 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M89" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3155,17 +3155,23 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K90" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M90" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3174,29 +3180,19 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M91" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3211,13 +3207,13 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M92" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3226,19 +3222,29 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K93" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M93" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3253,13 +3259,13 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3268,29 +3274,19 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M95" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3305,13 +3301,13 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M96" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3320,19 +3316,29 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K97" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M97" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3342,18 +3348,10 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3371,26 +3369,18 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M99" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3400,10 +3390,18 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K100" s="1" t="s">
         <v>86</v>
       </c>
@@ -3421,18 +3419,26 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K101" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M101" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3441,29 +3447,19 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M102" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3478,13 +3474,13 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M103" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3493,19 +3489,29 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K104" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M104" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3515,18 +3521,10 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
         <v>86</v>
       </c>
@@ -3544,26 +3542,18 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3573,10 +3563,18 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K107" s="1" t="s">
         <v>86</v>
       </c>
@@ -3594,18 +3592,26 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="G108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K108" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M108" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3613,32 +3619,20 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M109" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3653,13 +3647,13 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M110" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3667,14 +3661,26 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K111" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>115</v>
@@ -3695,7 +3701,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>115</v>
@@ -3716,7 +3722,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>115</v>
@@ -3730,32 +3736,20 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
       <c r="K114" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M114" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3770,13 +3764,13 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M115" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3784,10 +3778,14 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G116" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>58</v>
@@ -3805,7 +3803,7 @@
         <v>116</v>
       </c>
       <c r="M116" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3826,7 +3824,7 @@
         <v>116</v>
       </c>
       <c r="M117" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3837,7 +3835,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>58</v>
@@ -3855,7 +3853,7 @@
         <v>116</v>
       </c>
       <c r="M118" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3876,7 +3874,7 @@
         <v>116</v>
       </c>
       <c r="M119" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3885,14 +3883,12 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>82</v>
@@ -3907,7 +3903,7 @@
         <v>116</v>
       </c>
       <c r="M120" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3928,7 +3924,7 @@
         <v>116</v>
       </c>
       <c r="M121" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3937,9 +3933,11 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G122" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>57</v>
@@ -3957,7 +3955,7 @@
         <v>116</v>
       </c>
       <c r="M122" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -3978,7 +3976,7 @@
         <v>116</v>
       </c>
       <c r="M123" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -3989,7 +3987,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>57</v>
@@ -4007,7 +4005,7 @@
         <v>116</v>
       </c>
       <c r="M124" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4017,26 +4015,18 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
       <c r="K125" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M125" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4046,18 +4036,26 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K126" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M126" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4068,7 +4066,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>57</v>
@@ -4086,7 +4084,7 @@
         <v>116</v>
       </c>
       <c r="M127" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4095,29 +4093,19 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
       <c r="K128" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M128" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4127,18 +4115,26 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K129" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M129" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4147,9 +4143,11 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G130" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>57</v>
@@ -4167,7 +4165,7 @@
         <v>116</v>
       </c>
       <c r="M130" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4177,26 +4175,18 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
       <c r="K131" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M131" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4206,18 +4196,26 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K132" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M132" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4228,7 +4226,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>57</v>
@@ -4246,7 +4244,7 @@
         <v>116</v>
       </c>
       <c r="M133" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4256,26 +4254,18 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
       <c r="K134" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M134" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4285,18 +4275,26 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K135" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M135" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4307,7 +4305,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>57</v>
@@ -4325,7 +4323,7 @@
         <v>116</v>
       </c>
       <c r="M136" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4334,23 +4332,13 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
       <c r="K137" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>116</v>
@@ -4366,18 +4354,26 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K138" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M138" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4386,19 +4382,29 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K139" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M139" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4407,29 +4413,19 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
       <c r="K140" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M140" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4444,13 +4440,13 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M141" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4459,9 +4455,11 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G142" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>57</v>
@@ -4479,7 +4477,7 @@
         <v>116</v>
       </c>
       <c r="M142" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4500,7 +4498,7 @@
         <v>116</v>
       </c>
       <c r="M143" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4511,7 +4509,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>57</v>
@@ -4529,7 +4527,7 @@
         <v>116</v>
       </c>
       <c r="M144" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4550,7 +4548,7 @@
         <v>116</v>
       </c>
       <c r="M145" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4559,11 +4557,9 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>57</v>
@@ -4581,7 +4577,7 @@
         <v>116</v>
       </c>
       <c r="M146" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4602,7 +4598,7 @@
         <v>116</v>
       </c>
       <c r="M147" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4611,9 +4607,11 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G148" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>57</v>
@@ -4631,7 +4629,7 @@
         <v>116</v>
       </c>
       <c r="M148" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4652,7 +4650,7 @@
         <v>116</v>
       </c>
       <c r="M149" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4663,7 +4661,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>57</v>
@@ -4681,7 +4679,7 @@
         <v>116</v>
       </c>
       <c r="M150" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4702,7 +4700,7 @@
         <v>116</v>
       </c>
       <c r="M151" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4710,32 +4708,28 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
       <c r="G152" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M152" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4750,25 +4744,79 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M153" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M154" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L153" s="1" t="s">
+      <c r="L155" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M153" t="s">
-        <v>158</v>
+      <c r="M155" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="245">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A153"/>
+    <mergeCell ref="A26:A155"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B153"/>
+    <mergeCell ref="B26:B155"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C153"/>
+    <mergeCell ref="C26:C155"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D153"/>
+    <mergeCell ref="D26:D155"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -4783,12 +4831,12 @@
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="E37:E40"/>
     <mergeCell ref="E41:E49"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="E63:E108"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="E114:E151"/>
-    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="E65:E110"/>
+    <mergeCell ref="E111:E115"/>
+    <mergeCell ref="E116:E153"/>
+    <mergeCell ref="E154:E155"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -4804,21 +4852,21 @@
     <mergeCell ref="F37:F40"/>
     <mergeCell ref="F41:F44"/>
     <mergeCell ref="F45:F49"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="F56:F62"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="F70:F90"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="F95:F101"/>
-    <mergeCell ref="F102:F108"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="F114:F119"/>
-    <mergeCell ref="F120:F127"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="F137:F139"/>
-    <mergeCell ref="F140:F145"/>
-    <mergeCell ref="F146:F151"/>
-    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="F50:F57"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="F65:F71"/>
+    <mergeCell ref="F72:F92"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="F104:F110"/>
+    <mergeCell ref="F111:F115"/>
+    <mergeCell ref="F116:F121"/>
+    <mergeCell ref="F122:F129"/>
+    <mergeCell ref="F130:F138"/>
+    <mergeCell ref="F139:F141"/>
+    <mergeCell ref="F142:F147"/>
+    <mergeCell ref="F148:F153"/>
+    <mergeCell ref="F154:F155"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -4835,37 +4883,37 @@
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G45:G49"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G70:G78"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="G82:G90"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G50:G57"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G72:G80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G84:G92"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="G101:G103"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="G111:G115"/>
     <mergeCell ref="G116:G117"/>
     <mergeCell ref="G118:G119"/>
     <mergeCell ref="G120:G121"/>
     <mergeCell ref="G122:G123"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G137:G139"/>
-    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G139:G141"/>
     <mergeCell ref="G142:G143"/>
     <mergeCell ref="G144:G145"/>
     <mergeCell ref="G146:G147"/>
     <mergeCell ref="G148:G149"/>
     <mergeCell ref="G150:G151"/>
     <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G154:G155"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -4877,40 +4925,40 @@
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="H45:H49"/>
-    <mergeCell ref="H50:H55"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="H99:H101"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="H109:H113"/>
-    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="H50:H57"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="H111:H115"/>
     <mergeCell ref="H116:H117"/>
     <mergeCell ref="H118:H119"/>
     <mergeCell ref="H120:H121"/>
     <mergeCell ref="H122:H123"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="H137:H139"/>
-    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="H139:H141"/>
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="H144:H145"/>
     <mergeCell ref="H146:H147"/>
     <mergeCell ref="H148:H149"/>
     <mergeCell ref="H150:H151"/>
     <mergeCell ref="H152:H153"/>
+    <mergeCell ref="H154:H155"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -4923,41 +4971,41 @@
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="I45:I49"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="I91:I94"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="I111:I115"/>
     <mergeCell ref="I116:I117"/>
     <mergeCell ref="I118:I119"/>
     <mergeCell ref="I120:I121"/>
     <mergeCell ref="I122:I123"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="I137:I139"/>
-    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="I139:I141"/>
     <mergeCell ref="I142:I143"/>
     <mergeCell ref="I144:I145"/>
     <mergeCell ref="I146:I147"/>
     <mergeCell ref="I148:I149"/>
     <mergeCell ref="I150:I151"/>
     <mergeCell ref="I152:I153"/>
+    <mergeCell ref="I154:I155"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -4970,41 +5018,41 @@
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="J43:J44"/>
     <mergeCell ref="J45:J49"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="J91:J94"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="J102:J104"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="J109:J113"/>
-    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="J111:J115"/>
     <mergeCell ref="J116:J117"/>
     <mergeCell ref="J118:J119"/>
     <mergeCell ref="J120:J121"/>
     <mergeCell ref="J122:J123"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="J137:J139"/>
-    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="J139:J141"/>
     <mergeCell ref="J142:J143"/>
     <mergeCell ref="J144:J145"/>
     <mergeCell ref="J146:J147"/>
     <mergeCell ref="J148:J149"/>
     <mergeCell ref="J150:J151"/>
     <mergeCell ref="J152:J153"/>
+    <mergeCell ref="J154:J155"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="164">
   <si>
     <t>variable_id</t>
   </si>
@@ -256,6 +256,12 @@
     <t>REMO2020-2-2-MR2</t>
   </si>
   <si>
+    <t>REMO2020-2-2-iMOVE</t>
+  </si>
+  <si>
+    <t>REMO2020-2-2-iMOVE-LUC</t>
+  </si>
+  <si>
     <t>HCLIM43-ALADIN</t>
   </si>
   <si>
@@ -358,6 +364,9 @@
     <t>v20241120</t>
   </si>
   <si>
+    <t>v20250515</t>
+  </si>
+  <si>
     <t>v20241205</t>
   </si>
   <si>
@@ -445,7 +454,7 @@
     <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'od550aer', 'pr', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'tas', 'tasmax', 'tasmin', 'mrro', 'mrros', 'mrso', 'prsn', 'rldscs', 'rlutcs', 'rsdscs', 'rsutcs', 'snc', 'snd', 'snw', 'zg500']</t>
   </si>
   <si>
-    <t>['pr', 'sfcWind']</t>
+    <t>['pr', 'sfcWind', 'tas']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
@@ -454,10 +463,10 @@
     <t>['clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'pr', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
-    <t>['pr', 'sfcWind', 'tas']</t>
-  </si>
-  <si>
     <t>['orog', 'sftlaf', 'sftlf']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
@@ -854,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -867,7 +876,8 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="10" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="12" width="11.7109375" customWidth="1"/>
     <col min="13" max="13" width="303.7109375" customWidth="1"/>
   </cols>
@@ -942,16 +952,16 @@
         <v>61</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -969,16 +979,16 @@
         <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1002,16 +1012,16 @@
         <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1029,16 +1039,16 @@
         <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1062,16 +1072,16 @@
         <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1086,13 +1096,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1108,16 +1118,16 @@
         <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1132,13 +1142,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1162,16 +1172,16 @@
         <v>65</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1186,13 +1196,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1216,16 +1226,16 @@
         <v>66</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1243,16 +1253,16 @@
         <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1276,16 +1286,16 @@
         <v>67</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1309,16 +1319,16 @@
         <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1333,13 +1343,13 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1355,10 +1365,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1382,16 +1392,16 @@
         <v>69</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1406,13 +1416,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1436,16 +1446,16 @@
         <v>70</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1463,16 +1473,16 @@
         <v>70</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1496,16 +1506,16 @@
         <v>71</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1520,13 +1530,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1550,16 +1560,16 @@
         <v>72</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1577,16 +1587,16 @@
         <v>72</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1618,16 +1628,16 @@
         <v>73</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1651,16 +1661,16 @@
         <v>74</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1675,13 +1685,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1696,13 +1706,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1717,13 +1727,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1738,13 +1748,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1768,16 +1778,16 @@
         <v>75</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1792,13 +1802,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1813,13 +1823,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1834,13 +1844,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1855,13 +1865,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1885,16 +1895,16 @@
         <v>76</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1909,13 +1919,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1930,13 +1940,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1951,13 +1961,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1981,16 +1991,16 @@
         <v>77</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2005,13 +2015,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2031,16 +2041,16 @@
         <v>77</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M43" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2055,13 +2065,13 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2083,16 +2093,16 @@
         <v>77</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M45" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2107,13 +2117,13 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M46" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2128,13 +2138,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M47" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2149,13 +2159,13 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M48" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2170,13 +2180,13 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2200,16 +2210,16 @@
         <v>78</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2224,13 +2234,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M51" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2245,13 +2255,13 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M52" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2266,13 +2276,13 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M53" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2288,13 +2298,13 @@
         <v>79</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M54" t="s">
         <v>146</v>
@@ -2312,13 +2322,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M55" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2333,13 +2343,13 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2354,13 +2364,13 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2368,32 +2378,24 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2405,16 +2407,20 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K59" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M59" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2422,20 +2428,32 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K60" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M60" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2445,26 +2463,18 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2474,26 +2484,18 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M62" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2503,18 +2505,26 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K63" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2524,18 +2534,26 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K64" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M64" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2543,32 +2561,20 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M65" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2583,13 +2589,13 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M66" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2597,20 +2603,32 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K67" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M67" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2620,26 +2638,18 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M68" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2649,26 +2659,18 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M69" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2678,18 +2680,26 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K70" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M70" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2699,18 +2709,26 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K71" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M71" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2719,29 +2737,19 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M72" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2756,13 +2764,13 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M73" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2771,19 +2779,29 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K74" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M74" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2794,23 +2812,17 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M75" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2825,13 +2837,13 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M76" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2842,17 +2854,23 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K77" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2863,23 +2881,17 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M78" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2894,13 +2906,13 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M79" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2911,17 +2923,23 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K80" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M80" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2931,26 +2949,18 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M81" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2961,23 +2971,17 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M82" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2987,24 +2991,26 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H83" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3014,26 +3020,24 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M84" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3044,17 +3048,23 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M85" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3064,18 +3074,26 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M86" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3086,23 +3104,17 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
       <c r="K87" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M87" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3117,13 +3129,13 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M88" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3134,17 +3146,23 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="H89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K89" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M89" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3155,23 +3173,17 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M90" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3186,13 +3198,13 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M91" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3203,17 +3215,23 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="H92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K92" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M92" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3222,29 +3240,19 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M93" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3259,13 +3267,13 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M94" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3274,19 +3282,29 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K95" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M95" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3301,10 +3319,10 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M96" t="s">
         <v>151</v>
@@ -3316,29 +3334,19 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M97" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3353,13 +3361,13 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M98" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3368,19 +3376,29 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K99" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M99" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3390,26 +3408,18 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M100" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3419,26 +3429,18 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M101" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3448,18 +3450,26 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K102" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M102" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3469,18 +3479,26 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K103" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M103" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3489,29 +3507,19 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M104" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3526,13 +3534,13 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M105" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3541,19 +3549,29 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K106" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M106" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3563,26 +3581,18 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M107" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3592,26 +3602,18 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M108" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3621,18 +3623,26 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K109" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M109" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3642,18 +3652,26 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K110" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M110" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3661,32 +3679,20 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M111" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3701,13 +3707,13 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3715,20 +3721,32 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K113" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3743,13 +3761,13 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M114" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3764,13 +3782,13 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M115" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3778,32 +3796,20 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
       <c r="K116" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M116" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3818,13 +3824,13 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M117" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3832,28 +3838,32 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G118" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M118" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3868,13 +3878,13 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M119" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3885,25 +3895,25 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M120" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3918,13 +3928,13 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M121" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3933,29 +3943,27 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="F122" s="1"/>
       <c r="G122" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M122" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -3970,13 +3978,13 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M123" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -3985,27 +3993,29 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G124" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M124" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4020,13 +4030,13 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M125" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4037,25 +4047,25 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M126" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4065,26 +4075,18 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
       <c r="K127" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M127" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4094,18 +4096,26 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K128" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M128" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4116,25 +4126,25 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M129" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4143,29 +4153,19 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
       <c r="K130" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M130" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4175,18 +4175,26 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K131" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M131" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4195,27 +4203,29 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G132" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M132" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4225,26 +4235,18 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
       <c r="K133" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M133" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4254,18 +4256,26 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K134" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M134" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4276,25 +4286,25 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M135" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4304,26 +4314,18 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
       <c r="K136" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M136" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4333,18 +4335,26 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="G137" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K137" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M137" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4355,25 +4365,25 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M138" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4382,29 +4392,19 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
       <c r="K139" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M139" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4414,18 +4414,26 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
+      <c r="G140" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K140" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M140" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4434,19 +4442,29 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K141" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M141" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4455,29 +4473,19 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
       <c r="K142" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M142" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4492,13 +4500,13 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M143" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4507,27 +4515,29 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G144" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M144" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4542,13 +4552,13 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M145" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4559,25 +4569,25 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M146" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4592,13 +4602,13 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M147" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4607,29 +4617,27 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F148" s="1"/>
       <c r="G148" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M148" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4644,13 +4652,13 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M149" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4659,27 +4667,29 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G150" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M150" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4694,13 +4704,13 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M151" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4711,25 +4721,25 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M152" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4744,13 +4754,13 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M153" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4758,32 +4768,28 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
       <c r="G154" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M154" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4798,25 +4804,79 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M155" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M156" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M157" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="245">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A155"/>
+    <mergeCell ref="A26:A157"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B155"/>
+    <mergeCell ref="B26:B157"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C155"/>
+    <mergeCell ref="C26:C157"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D155"/>
+    <mergeCell ref="D26:D157"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -4831,12 +4891,12 @@
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="E37:E40"/>
     <mergeCell ref="E41:E49"/>
-    <mergeCell ref="E50:E57"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="E65:E110"/>
-    <mergeCell ref="E111:E115"/>
-    <mergeCell ref="E116:E153"/>
-    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E50:E59"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="E67:E112"/>
+    <mergeCell ref="E113:E117"/>
+    <mergeCell ref="E118:E155"/>
+    <mergeCell ref="E156:E157"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -4852,21 +4912,21 @@
     <mergeCell ref="F37:F40"/>
     <mergeCell ref="F41:F44"/>
     <mergeCell ref="F45:F49"/>
-    <mergeCell ref="F50:F57"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="F65:F71"/>
-    <mergeCell ref="F72:F92"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="F104:F110"/>
-    <mergeCell ref="F111:F115"/>
-    <mergeCell ref="F116:F121"/>
-    <mergeCell ref="F122:F129"/>
-    <mergeCell ref="F130:F138"/>
-    <mergeCell ref="F139:F141"/>
-    <mergeCell ref="F142:F147"/>
-    <mergeCell ref="F148:F153"/>
-    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="F50:F59"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="F67:F73"/>
+    <mergeCell ref="F74:F94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="F99:F105"/>
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="F113:F117"/>
+    <mergeCell ref="F118:F123"/>
+    <mergeCell ref="F124:F131"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="F144:F149"/>
+    <mergeCell ref="F150:F155"/>
+    <mergeCell ref="F156:F157"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -4883,37 +4943,37 @@
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G45:G49"/>
-    <mergeCell ref="G50:G57"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G72:G80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G84:G92"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="G101:G103"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="G111:G115"/>
-    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G50:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="G74:G82"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="G86:G94"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="G99:G101"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G113:G117"/>
     <mergeCell ref="G118:G119"/>
     <mergeCell ref="G120:G121"/>
     <mergeCell ref="G122:G123"/>
     <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G139:G141"/>
-    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G141:G143"/>
     <mergeCell ref="G144:G145"/>
     <mergeCell ref="G146:G147"/>
     <mergeCell ref="G148:G149"/>
     <mergeCell ref="G150:G151"/>
     <mergeCell ref="G152:G153"/>
     <mergeCell ref="G154:G155"/>
+    <mergeCell ref="G156:G157"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -4925,40 +4985,40 @@
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="H45:H49"/>
-    <mergeCell ref="H50:H57"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H93:H96"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="H111:H115"/>
-    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H50:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="H99:H101"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="H113:H117"/>
     <mergeCell ref="H118:H119"/>
     <mergeCell ref="H120:H121"/>
     <mergeCell ref="H122:H123"/>
     <mergeCell ref="H124:H125"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="H139:H141"/>
-    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H141:H143"/>
     <mergeCell ref="H144:H145"/>
     <mergeCell ref="H146:H147"/>
     <mergeCell ref="H148:H149"/>
     <mergeCell ref="H150:H151"/>
     <mergeCell ref="H152:H153"/>
     <mergeCell ref="H154:H155"/>
+    <mergeCell ref="H156:H157"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -4973,39 +5033,39 @@
     <mergeCell ref="I45:I49"/>
     <mergeCell ref="I50:I53"/>
     <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="I111:I115"/>
-    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="I95:I98"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="I113:I117"/>
     <mergeCell ref="I118:I119"/>
     <mergeCell ref="I120:I121"/>
     <mergeCell ref="I122:I123"/>
     <mergeCell ref="I124:I125"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="I139:I141"/>
-    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="I141:I143"/>
     <mergeCell ref="I144:I145"/>
     <mergeCell ref="I146:I147"/>
     <mergeCell ref="I148:I149"/>
     <mergeCell ref="I150:I151"/>
     <mergeCell ref="I152:I153"/>
     <mergeCell ref="I154:I155"/>
+    <mergeCell ref="I156:I157"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -5020,39 +5080,39 @@
     <mergeCell ref="J45:J49"/>
     <mergeCell ref="J50:J53"/>
     <mergeCell ref="J54:J57"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="J108:J110"/>
-    <mergeCell ref="J111:J115"/>
-    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="J113:J117"/>
     <mergeCell ref="J118:J119"/>
     <mergeCell ref="J120:J121"/>
     <mergeCell ref="J122:J123"/>
     <mergeCell ref="J124:J125"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="J139:J141"/>
-    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="J141:J143"/>
     <mergeCell ref="J144:J145"/>
     <mergeCell ref="J146:J147"/>
     <mergeCell ref="J148:J149"/>
     <mergeCell ref="J150:J151"/>
     <mergeCell ref="J152:J153"/>
     <mergeCell ref="J154:J155"/>
+    <mergeCell ref="J156:J157"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="163">
   <si>
     <t>variable_id</t>
   </si>
@@ -430,9 +430,6 @@
     <t>['zg500', 'clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'od550aer', 'pr', 'prsn', 'psl', 'rlds', 'rldscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsut', 'rsutcs', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
-    <t>['hurs']</t>
-  </si>
-  <si>
     <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'uas', 'vas']</t>
   </si>
   <si>
@@ -466,7 +463,7 @@
     <t>['orog', 'sftlaf', 'sftlf']</t>
   </si>
   <si>
-    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
@@ -863,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1898,7 +1895,7 @@
         <v>87</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>112</v>
@@ -1919,13 +1916,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>112</v>
       </c>
       <c r="M38" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1940,13 +1937,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>112</v>
       </c>
       <c r="M39" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1954,17 +1951,29 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M40" t="s">
         <v>139</v>
@@ -1975,32 +1984,20 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M41" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2010,18 +2007,26 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K42" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M42" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2031,26 +2036,18 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M43" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2059,19 +2056,29 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2080,23 +2087,13 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>114</v>
@@ -2117,7 +2114,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>114</v>
@@ -2138,7 +2135,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>114</v>
@@ -2159,7 +2156,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>114</v>
@@ -2173,17 +2170,29 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K49" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M49" t="s">
         <v>145</v>
@@ -2194,26 +2203,14 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>115</v>
@@ -2234,13 +2231,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M51" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2255,13 +2252,13 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M52" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2273,16 +2270,20 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K53" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2294,14 +2295,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>115</v>
@@ -2322,13 +2319,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2343,13 +2340,13 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2361,16 +2358,20 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K57" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M57" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2382,20 +2383,16 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2407,20 +2404,16 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M59" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2428,32 +2421,20 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2465,16 +2446,20 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K61" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M61" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2489,13 +2474,13 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2505,23 +2490,15 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M63" t="s">
         <v>121</v>
@@ -2534,26 +2511,18 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2561,20 +2530,32 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K65" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M65" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2589,13 +2570,13 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M66" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2603,26 +2584,14 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>117</v>
@@ -2638,10 +2607,18 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K68" s="1" t="s">
         <v>88</v>
       </c>
@@ -2659,18 +2636,26 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K69" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2680,18 +2665,10 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
         <v>88</v>
       </c>
@@ -2709,20 +2686,12 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>117</v>
@@ -2736,20 +2705,32 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K72" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M72" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2764,13 +2745,13 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M73" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2779,23 +2760,13 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>117</v>
@@ -2811,10 +2782,18 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K75" s="1" t="s">
         <v>88</v>
       </c>
@@ -2832,18 +2811,26 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2854,23 +2841,17 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M77" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2885,13 +2866,13 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M78" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2900,19 +2881,29 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K79" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2923,23 +2914,17 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M80" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2954,13 +2939,13 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M81" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2971,17 +2956,23 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K82" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2991,18 +2982,10 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
         <v>88</v>
       </c>
@@ -3021,23 +3004,17 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M84" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3058,13 +3035,13 @@
         <v>87</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M85" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3074,26 +3051,18 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M86" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3108,13 +3077,13 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M87" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3124,18 +3093,26 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M88" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3156,13 +3133,13 @@
         <v>87</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M89" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3173,9 +3150,15 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K90" s="1" t="s">
         <v>88</v>
       </c>
@@ -3193,18 +3176,26 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K91" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M91" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3215,23 +3206,17 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M92" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3246,13 +3231,13 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M93" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3263,17 +3248,23 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K94" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M94" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3282,29 +3273,19 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M95" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3319,7 +3300,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>117</v>
@@ -3336,17 +3317,23 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K97" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M97" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3361,13 +3348,13 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M98" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3376,23 +3363,13 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>117</v>
@@ -3407,19 +3384,29 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K100" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M100" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3434,13 +3421,13 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M101" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3450,18 +3437,10 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
         <v>88</v>
       </c>
@@ -3469,7 +3448,7 @@
         <v>117</v>
       </c>
       <c r="M102" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3479,26 +3458,18 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M103" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3507,19 +3478,29 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K104" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M104" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3534,13 +3515,13 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M105" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3549,23 +3530,13 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>117</v>
@@ -3581,10 +3552,18 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K107" s="1" t="s">
         <v>88</v>
       </c>
@@ -3602,18 +3581,26 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="G108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K108" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3623,18 +3610,10 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
         <v>88</v>
       </c>
@@ -3652,20 +3631,12 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>117</v>
@@ -3680,19 +3651,29 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K111" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M111" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3707,13 +3688,13 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M112" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3721,32 +3702,20 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M113" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3756,18 +3725,26 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K114" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M114" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3777,18 +3754,26 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K115" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M115" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3806,10 +3791,10 @@
         <v>88</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M116" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3827,10 +3812,10 @@
         <v>89</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M117" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3839,31 +3824,31 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M118" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3878,13 +3863,13 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M119" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3894,26 +3879,18 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
       <c r="K120" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M120" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3931,10 +3908,10 @@
         <v>88</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3944,26 +3921,18 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
       <c r="K122" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M122" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -3971,20 +3940,32 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K123" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M123" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -3993,29 +3974,19 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
       <c r="K124" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M124" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4025,18 +3996,26 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K125" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M125" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4046,26 +4025,18 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
       <c r="K126" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M126" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4075,18 +4046,26 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K127" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M127" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4096,26 +4075,18 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
       <c r="K128" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M128" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4124,9 +4095,11 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G129" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>57</v>
@@ -4144,7 +4117,7 @@
         <v>119</v>
       </c>
       <c r="M129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4165,7 +4138,7 @@
         <v>119</v>
       </c>
       <c r="M130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4176,7 +4149,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>57</v>
@@ -4194,7 +4167,7 @@
         <v>119</v>
       </c>
       <c r="M131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4203,29 +4176,19 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
       <c r="K132" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M132" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4235,18 +4198,26 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K133" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M133" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4257,7 +4228,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>57</v>
@@ -4275,7 +4246,7 @@
         <v>119</v>
       </c>
       <c r="M134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4285,26 +4256,18 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
       <c r="K135" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M135" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4314,18 +4277,26 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K136" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M136" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4334,9 +4305,11 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G137" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>57</v>
@@ -4354,7 +4327,7 @@
         <v>119</v>
       </c>
       <c r="M137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4364,26 +4337,18 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
       <c r="K138" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M138" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4393,18 +4358,26 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K139" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M139" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4415,7 +4388,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>57</v>
@@ -4433,7 +4406,7 @@
         <v>119</v>
       </c>
       <c r="M140" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4442,29 +4415,19 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
       <c r="K141" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M141" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4474,18 +4437,26 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+      <c r="G142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K142" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M142" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4495,18 +4466,26 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="G143" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K143" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M143" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4515,29 +4494,19 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
       <c r="K144" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M144" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4547,18 +4516,26 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
+      <c r="G145" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K145" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M145" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4567,9 +4544,11 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G146" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>57</v>
@@ -4587,7 +4566,7 @@
         <v>119</v>
       </c>
       <c r="M146" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4608,7 +4587,7 @@
         <v>119</v>
       </c>
       <c r="M147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4618,26 +4597,18 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
       <c r="K148" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M148" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4646,19 +4617,29 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K149" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M149" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4667,29 +4648,19 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
       <c r="K150" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M150" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4699,18 +4670,26 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K151" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M151" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4720,26 +4699,18 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
       <c r="K152" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M152" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4749,18 +4720,26 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
+      <c r="G153" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K153" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M153" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4770,26 +4749,18 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
       <c r="K154" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M154" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4798,19 +4769,29 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K155" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M155" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -4818,32 +4799,20 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
       <c r="K156" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M156" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -4853,30 +4822,163 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
+      <c r="G157" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K157" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M159" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M161" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L157" s="1" t="s">
+      <c r="L162" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M157" t="s">
-        <v>163</v>
+      <c r="M162" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="245">
+  <mergeCells count="249">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A157"/>
+    <mergeCell ref="A26:A162"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B157"/>
+    <mergeCell ref="B26:B162"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C157"/>
+    <mergeCell ref="C26:C162"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D157"/>
+    <mergeCell ref="D26:D162"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -4889,14 +4991,14 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E27:E31"/>
     <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="E50:E59"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="E67:E112"/>
-    <mergeCell ref="E113:E117"/>
-    <mergeCell ref="E118:E155"/>
-    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E48"/>
+    <mergeCell ref="E49:E64"/>
+    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="E72:E117"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="E123:E160"/>
+    <mergeCell ref="E161:E162"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -4909,24 +5011,24 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F27:F31"/>
     <mergeCell ref="F32:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="F50:F59"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="F67:F73"/>
-    <mergeCell ref="F74:F94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="F99:F105"/>
-    <mergeCell ref="F106:F112"/>
-    <mergeCell ref="F113:F117"/>
-    <mergeCell ref="F118:F123"/>
-    <mergeCell ref="F124:F131"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="F141:F143"/>
-    <mergeCell ref="F144:F149"/>
-    <mergeCell ref="F150:F155"/>
-    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F49:F64"/>
+    <mergeCell ref="F65:F71"/>
+    <mergeCell ref="F72:F78"/>
+    <mergeCell ref="F79:F99"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="F104:F110"/>
+    <mergeCell ref="F111:F117"/>
+    <mergeCell ref="F118:F122"/>
+    <mergeCell ref="F123:F128"/>
+    <mergeCell ref="F129:F136"/>
+    <mergeCell ref="F137:F145"/>
+    <mergeCell ref="F146:F148"/>
+    <mergeCell ref="F149:F154"/>
+    <mergeCell ref="F155:F160"/>
+    <mergeCell ref="F161:F162"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -4939,41 +5041,41 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G27:G31"/>
     <mergeCell ref="G32:G36"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="G50:G59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="G74:G82"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="G86:G94"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G113:G117"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="G49:G64"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G79:G87"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="G91:G99"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="G115:G117"/>
+    <mergeCell ref="G118:G122"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="G127:G128"/>
     <mergeCell ref="G129:G130"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="G141:G143"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="G156:G157"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="G161:G162"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -4981,44 +5083,44 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H27:H31"/>
     <mergeCell ref="H32:H36"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="H50:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="H99:H101"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="H113:H117"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="H49:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="H118:H122"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="H127:H128"/>
     <mergeCell ref="H129:H130"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="H141:H143"/>
-    <mergeCell ref="H144:H145"/>
-    <mergeCell ref="H146:H147"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="H154:H155"/>
-    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H146:H148"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="H161:H162"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -5027,45 +5129,47 @@
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I32:I36"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="I113:I117"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="I118:I122"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="I127:I128"/>
     <mergeCell ref="I129:I130"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="I141:I143"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="I146:I147"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="I156:I157"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I146:I148"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="I161:I162"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -5074,45 +5178,47 @@
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J37:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="J95:J98"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="J113:J117"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="J115:J117"/>
+    <mergeCell ref="J118:J122"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J127:J128"/>
     <mergeCell ref="J129:J130"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="J141:J143"/>
-    <mergeCell ref="J144:J145"/>
-    <mergeCell ref="J146:J147"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="J156:J157"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J146:J148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="J161:J162"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="164">
   <si>
     <t>variable_id</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'sfcWind']</t>
+  </si>
+  <si>
+    <t>['pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'clt', 'evspsbl', 'huss', 'uas', 'vas']</t>
   </si>
   <si>
     <t>['orog', 'sftlf', 'sfturf', 'sftlaf']</t>
@@ -860,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4939,7 +4942,7 @@
         <v>87</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>120</v>
@@ -4960,25 +4963,46 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>120</v>
       </c>
       <c r="M162" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M163" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="249">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A162"/>
+    <mergeCell ref="A26:A163"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B162"/>
+    <mergeCell ref="B26:B163"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C162"/>
+    <mergeCell ref="C26:C163"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D162"/>
+    <mergeCell ref="D26:D163"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -4998,7 +5022,7 @@
     <mergeCell ref="E72:E117"/>
     <mergeCell ref="E118:E122"/>
     <mergeCell ref="E123:E160"/>
-    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E161:E163"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -5028,7 +5052,7 @@
     <mergeCell ref="F146:F148"/>
     <mergeCell ref="F149:F154"/>
     <mergeCell ref="F155:F160"/>
-    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="F161:F163"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -5075,7 +5099,7 @@
     <mergeCell ref="G155:G156"/>
     <mergeCell ref="G157:G158"/>
     <mergeCell ref="G159:G160"/>
-    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G161:G163"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -5120,7 +5144,7 @@
     <mergeCell ref="H155:H156"/>
     <mergeCell ref="H157:H158"/>
     <mergeCell ref="H159:H160"/>
-    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="H161:H163"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -5169,7 +5193,7 @@
     <mergeCell ref="I155:I156"/>
     <mergeCell ref="I157:I158"/>
     <mergeCell ref="I159:I160"/>
-    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="I161:I163"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -5218,7 +5242,7 @@
     <mergeCell ref="J155:J156"/>
     <mergeCell ref="J157:J158"/>
     <mergeCell ref="J159:J160"/>
-    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="J161:J163"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="165">
   <si>
     <t>variable_id</t>
   </si>
@@ -499,13 +499,16 @@
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'sfcWind']</t>
   </si>
   <si>
-    <t>['pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'clt', 'evspsbl', 'huss', 'uas', 'vas']</t>
+    <t>['pr', 'uas', 'vas', 'sfcWind', 'tas', 'hurs']</t>
+  </si>
+  <si>
+    <t>['pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'clt', 'evspsbl', 'huss', 'uas', 'vas', 'hurs', 'sfcWind']</t>
   </si>
   <si>
     <t>['orog', 'sftlf', 'sfturf', 'sftlaf']</t>
   </si>
   <si>
-    <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'rsds', 'rlds']</t>
+    <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'rsds', 'rlds', 'evspsbl', 'uas', 'vas', 'sfcWind']</t>
   </si>
 </sst>
 </file>
@@ -863,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4942,7 +4945,7 @@
         <v>87</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>120</v>
@@ -4963,7 +4966,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>120</v>
@@ -4984,25 +4987,46 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L163" s="1" t="s">
         <v>120</v>
       </c>
       <c r="M163" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M164" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="249">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A163"/>
+    <mergeCell ref="A26:A164"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B163"/>
+    <mergeCell ref="B26:B164"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C163"/>
+    <mergeCell ref="C26:C164"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D163"/>
+    <mergeCell ref="D26:D164"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -5022,7 +5046,7 @@
     <mergeCell ref="E72:E117"/>
     <mergeCell ref="E118:E122"/>
     <mergeCell ref="E123:E160"/>
-    <mergeCell ref="E161:E163"/>
+    <mergeCell ref="E161:E164"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -5052,7 +5076,7 @@
     <mergeCell ref="F146:F148"/>
     <mergeCell ref="F149:F154"/>
     <mergeCell ref="F155:F160"/>
-    <mergeCell ref="F161:F163"/>
+    <mergeCell ref="F161:F164"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -5099,7 +5123,7 @@
     <mergeCell ref="G155:G156"/>
     <mergeCell ref="G157:G158"/>
     <mergeCell ref="G159:G160"/>
-    <mergeCell ref="G161:G163"/>
+    <mergeCell ref="G161:G164"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
@@ -5144,7 +5168,7 @@
     <mergeCell ref="H155:H156"/>
     <mergeCell ref="H157:H158"/>
     <mergeCell ref="H159:H160"/>
-    <mergeCell ref="H161:H163"/>
+    <mergeCell ref="H161:H164"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
@@ -5193,7 +5217,7 @@
     <mergeCell ref="I155:I156"/>
     <mergeCell ref="I157:I158"/>
     <mergeCell ref="I159:I160"/>
-    <mergeCell ref="I161:I163"/>
+    <mergeCell ref="I161:I164"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
@@ -5242,7 +5266,7 @@
     <mergeCell ref="J155:J156"/>
     <mergeCell ref="J157:J158"/>
     <mergeCell ref="J159:J160"/>
-    <mergeCell ref="J161:J163"/>
+    <mergeCell ref="J161:J164"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="161">
   <si>
     <t>variable_id</t>
   </si>
@@ -112,9 +112,6 @@
     <t>SMHI</t>
   </si>
   <si>
-    <t>CESAM-UA</t>
-  </si>
-  <si>
     <t>CLMcom-CMCC</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>RCA4</t>
   </si>
   <si>
-    <t>WRF451Q</t>
-  </si>
-  <si>
     <t>CCLM6-0-1-URB</t>
   </si>
   <si>
@@ -343,9 +337,6 @@
     <t>v20131026</t>
   </si>
   <si>
-    <t>v20250520</t>
-  </si>
-  <si>
     <t>v20250201</t>
   </si>
   <si>
@@ -395,9 +386,6 @@
   </si>
   <si>
     <t>['pr', 'tas']</t>
-  </si>
-  <si>
-    <t>['hurs', 'sfcWind', 'tas', 'pr']</t>
   </si>
   <si>
     <t>['hurs', 'pr', 'prw', 'sfcWind', 'tas']</t>
@@ -866,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,28 +931,28 @@
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -976,22 +964,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1003,28 +991,28 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1036,22 +1024,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1063,28 +1051,28 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1099,13 +1087,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1118,19 +1106,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1145,13 +1133,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1163,28 +1151,28 @@
         <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1199,13 +1187,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1217,28 +1205,28 @@
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1250,22 +1238,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1277,28 +1265,28 @@
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1310,28 +1298,28 @@
         <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1346,13 +1334,13 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1368,10 +1356,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1383,28 +1371,28 @@
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1419,13 +1407,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1437,28 +1425,28 @@
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1470,22 +1458,22 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1497,28 +1485,28 @@
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1533,13 +1521,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1551,28 +1539,28 @@
         <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1584,22 +1572,22 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1619,28 +1607,28 @@
         <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1648,32 +1636,20 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1688,13 +1664,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1709,13 +1685,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1730,13 +1706,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1744,20 +1720,32 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1765,32 +1753,20 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1805,13 +1781,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1826,13 +1802,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1847,13 +1823,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1861,20 +1837,32 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1882,32 +1870,20 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M37" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1922,13 +1898,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M38" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1936,20 +1912,32 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1957,32 +1945,20 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1992,18 +1968,26 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M41" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2013,26 +1997,18 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M42" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2041,19 +2017,29 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K43" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M43" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2062,29 +2048,19 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2099,13 +2075,13 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2120,13 +2096,13 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2141,13 +2117,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2155,20 +2131,32 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K48" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2176,32 +2164,20 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2216,13 +2192,13 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M50" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2237,13 +2213,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M51" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2255,16 +2231,20 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K52" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M52" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2276,20 +2256,16 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2304,13 +2280,13 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2325,13 +2301,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M55" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2343,16 +2319,20 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K56" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M56" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2364,20 +2344,16 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M57" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2392,13 +2368,13 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M58" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2413,13 +2389,13 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M59" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2431,16 +2407,20 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M60" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2452,20 +2432,16 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2480,13 +2456,13 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M62" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2501,13 +2477,13 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M63" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2515,20 +2491,32 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M64" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2536,32 +2524,20 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M65" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2576,13 +2552,13 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M66" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2592,18 +2568,26 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K67" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M67" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2614,25 +2598,25 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M68" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2642,26 +2626,18 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M69" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2676,13 +2652,13 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M70" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2690,20 +2666,32 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K71" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2711,32 +2699,20 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M72" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2751,13 +2727,13 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M73" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2767,18 +2743,26 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K74" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M74" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2789,25 +2773,25 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M75" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2817,26 +2801,18 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M76" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2851,13 +2827,13 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M77" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2866,19 +2842,29 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K78" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M78" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2887,29 +2873,19 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M79" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2924,13 +2900,13 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M80" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2941,17 +2917,23 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M81" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2962,23 +2944,17 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M82" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2993,13 +2969,13 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M83" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3010,17 +2986,23 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M84" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3031,23 +3013,17 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M85" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3062,13 +3038,13 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M86" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3078,18 +3054,26 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K87" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M87" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3099,26 +3083,24 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M88" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3133,19 +3115,19 @@
         <v>59</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M89" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3155,24 +3137,26 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H90" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M90" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3182,26 +3166,18 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M91" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3216,13 +3192,13 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M92" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3233,17 +3209,23 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="H93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M93" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3254,23 +3236,17 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M94" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3285,13 +3261,13 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M95" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3302,17 +3278,23 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="H96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K96" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M96" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3323,23 +3305,17 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M97" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3354,13 +3330,13 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M98" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3369,19 +3345,29 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K99" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M99" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3390,29 +3376,19 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M100" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3427,13 +3403,13 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M101" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3448,13 +3424,13 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M102" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3463,19 +3439,29 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K103" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M103" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3484,29 +3470,19 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M104" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3521,13 +3497,13 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M105" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3537,18 +3513,26 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K106" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3559,25 +3543,25 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M107" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3587,26 +3571,18 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M108" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3621,13 +3597,13 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M109" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3636,19 +3612,29 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K110" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M110" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3657,29 +3643,19 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M111" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3694,13 +3670,13 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M112" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3710,18 +3686,26 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K113" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M113" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3732,25 +3716,25 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M114" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3760,26 +3744,18 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
       <c r="K115" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M115" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3794,13 +3770,13 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M116" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3808,20 +3784,32 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K117" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3829,32 +3817,20 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M118" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3869,13 +3845,13 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M119" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3890,13 +3866,13 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M120" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3911,13 +3887,13 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3925,20 +3901,32 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K122" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M122" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -3946,32 +3934,20 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
       <c r="K123" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M123" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -3981,18 +3957,26 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K124" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M124" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4002,26 +3986,18 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
       <c r="K125" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M125" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4031,18 +4007,26 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K126" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M126" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4052,26 +4036,18 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
       <c r="K127" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M127" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4080,19 +4056,29 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K128" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M128" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4101,29 +4087,19 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
       <c r="K129" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M129" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4133,18 +4109,26 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="G130" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K130" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M130" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4154,26 +4138,18 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
       <c r="K131" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M131" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4183,18 +4159,26 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K132" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M132" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4205,25 +4189,25 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M133" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4233,26 +4217,18 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
       <c r="K134" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M134" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4262,18 +4238,26 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K135" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M135" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4282,27 +4266,29 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G136" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M136" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4311,29 +4297,19 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
       <c r="K137" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M137" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4343,18 +4319,26 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K138" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M138" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4365,25 +4349,25 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M139" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4393,26 +4377,18 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
       <c r="K140" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M140" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4422,18 +4398,26 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="G141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K141" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M141" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4444,25 +4428,25 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M142" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4472,26 +4456,18 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
       <c r="K143" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M143" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4501,18 +4477,26 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K144" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M144" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4521,27 +4505,29 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G145" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M145" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4550,29 +4536,19 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
       <c r="K146" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M146" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4587,13 +4563,13 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4602,19 +4578,29 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K148" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M148" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4623,29 +4609,19 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
       <c r="K149" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M149" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4655,18 +4631,26 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K150" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M150" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4676,26 +4660,18 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
       <c r="K151" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M151" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4705,18 +4681,26 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="G152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K152" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M152" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4726,26 +4710,18 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
       <c r="K153" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M153" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4754,19 +4730,29 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K154" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M154" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4775,29 +4761,19 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
       <c r="K155" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M155" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -4807,18 +4783,26 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
+      <c r="G156" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K156" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M156" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -4828,26 +4812,18 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
       <c r="K157" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M157" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -4857,18 +4833,26 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
+      <c r="G158" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K158" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M158" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -4878,26 +4862,18 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
       <c r="K159" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M159" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -4905,17 +4881,29 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
+      <c r="E160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K160" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M160" t="s">
         <v>157</v>
@@ -4926,32 +4914,20 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
       <c r="K161" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M161" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -4966,13 +4942,13 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M162" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -4987,46 +4963,25 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M163" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M164" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="249">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A164"/>
+    <mergeCell ref="A26:A163"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B164"/>
+    <mergeCell ref="B26:B163"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C164"/>
+    <mergeCell ref="C26:C163"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D164"/>
+    <mergeCell ref="D26:D163"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -5037,16 +4992,16 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E48"/>
-    <mergeCell ref="E49:E64"/>
-    <mergeCell ref="E65:E71"/>
-    <mergeCell ref="E72:E117"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="E123:E160"/>
-    <mergeCell ref="E161:E164"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E63"/>
+    <mergeCell ref="E64:E70"/>
+    <mergeCell ref="E71:E116"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="E122:E159"/>
+    <mergeCell ref="E160:E163"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -5057,26 +5012,26 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F49:F64"/>
-    <mergeCell ref="F65:F71"/>
-    <mergeCell ref="F72:F78"/>
-    <mergeCell ref="F79:F99"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="F104:F110"/>
-    <mergeCell ref="F111:F117"/>
-    <mergeCell ref="F118:F122"/>
-    <mergeCell ref="F123:F128"/>
-    <mergeCell ref="F129:F136"/>
-    <mergeCell ref="F137:F145"/>
-    <mergeCell ref="F146:F148"/>
-    <mergeCell ref="F149:F154"/>
-    <mergeCell ref="F155:F160"/>
-    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="F48:F63"/>
+    <mergeCell ref="F64:F70"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="F78:F98"/>
+    <mergeCell ref="F99:F102"/>
+    <mergeCell ref="F103:F109"/>
+    <mergeCell ref="F110:F116"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="F122:F127"/>
+    <mergeCell ref="F128:F135"/>
+    <mergeCell ref="F136:F144"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="F148:F153"/>
+    <mergeCell ref="F154:F159"/>
+    <mergeCell ref="F160:F163"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -5087,186 +5042,186 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="G49:G64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G79:G87"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="G91:G99"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="G115:G117"/>
-    <mergeCell ref="G118:G122"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="G161:G164"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="G48:G63"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="G78:G86"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="G90:G98"/>
+    <mergeCell ref="G99:G102"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="G117:G121"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="G156:G157"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="G160:G163"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="H49:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="H115:H117"/>
-    <mergeCell ref="H118:H122"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="H146:H148"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="H161:H164"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="H48:H63"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="H114:H116"/>
+    <mergeCell ref="H117:H121"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="H154:H155"/>
+    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="H160:H163"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="I100:I103"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="I115:I117"/>
-    <mergeCell ref="I118:I122"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="I146:I148"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="I161:I164"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="I114:I116"/>
+    <mergeCell ref="I117:I121"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="I156:I157"/>
+    <mergeCell ref="I158:I159"/>
+    <mergeCell ref="I160:I163"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J48"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="J108:J110"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="J115:J117"/>
-    <mergeCell ref="J118:J122"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="J146:J148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="J161:J164"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="J117:J121"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="J145:J147"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="J156:J157"/>
+    <mergeCell ref="J158:J159"/>
+    <mergeCell ref="J160:J163"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="162">
   <si>
     <t>variable_id</t>
   </si>
@@ -442,13 +442,16 @@
     <t>['pr', 'sfcWind', 'tas']</t>
   </si>
   <si>
-    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+    <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'sfcWind']</t>
+  </si>
+  <si>
+    <t>['orog', 'sftlf', 'areacella', 'sftlaf']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'pr', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
-    <t>['orog', 'sftlaf', 'sftlf']</t>
+    <t>['orog', 'sftlaf', 'sftlf', 'areacella']</t>
   </si>
   <si>
     <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
@@ -2198,7 +2201,7 @@
         <v>112</v>
       </c>
       <c r="M50" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2219,7 +2222,7 @@
         <v>112</v>
       </c>
       <c r="M51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2286,7 +2289,7 @@
         <v>112</v>
       </c>
       <c r="M54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2307,7 +2310,7 @@
         <v>112</v>
       </c>
       <c r="M55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2353,7 +2356,7 @@
         <v>113</v>
       </c>
       <c r="M57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2395,7 +2398,7 @@
         <v>113</v>
       </c>
       <c r="M59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2441,7 +2444,7 @@
         <v>113</v>
       </c>
       <c r="M61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2483,7 +2486,7 @@
         <v>113</v>
       </c>
       <c r="M63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2516,7 +2519,7 @@
         <v>114</v>
       </c>
       <c r="M64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2558,7 +2561,7 @@
         <v>114</v>
       </c>
       <c r="M66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2616,7 +2619,7 @@
         <v>114</v>
       </c>
       <c r="M68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2658,7 +2661,7 @@
         <v>114</v>
       </c>
       <c r="M70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2691,7 +2694,7 @@
         <v>114</v>
       </c>
       <c r="M71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2733,7 +2736,7 @@
         <v>114</v>
       </c>
       <c r="M73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2791,7 +2794,7 @@
         <v>114</v>
       </c>
       <c r="M75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2833,7 +2836,7 @@
         <v>114</v>
       </c>
       <c r="M77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2864,7 +2867,7 @@
         <v>114</v>
       </c>
       <c r="M78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2906,7 +2909,7 @@
         <v>114</v>
       </c>
       <c r="M80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2933,7 +2936,7 @@
         <v>114</v>
       </c>
       <c r="M81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2975,7 +2978,7 @@
         <v>114</v>
       </c>
       <c r="M83" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3002,7 +3005,7 @@
         <v>114</v>
       </c>
       <c r="M84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3044,7 +3047,7 @@
         <v>114</v>
       </c>
       <c r="M86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3156,7 +3159,7 @@
         <v>114</v>
       </c>
       <c r="M90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3198,7 +3201,7 @@
         <v>114</v>
       </c>
       <c r="M92" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3225,7 +3228,7 @@
         <v>114</v>
       </c>
       <c r="M93" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3267,7 +3270,7 @@
         <v>114</v>
       </c>
       <c r="M95" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3294,7 +3297,7 @@
         <v>114</v>
       </c>
       <c r="M96" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3336,7 +3339,7 @@
         <v>114</v>
       </c>
       <c r="M98" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3367,7 +3370,7 @@
         <v>114</v>
       </c>
       <c r="M99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3388,7 +3391,7 @@
         <v>114</v>
       </c>
       <c r="M100" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3430,7 +3433,7 @@
         <v>114</v>
       </c>
       <c r="M102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3461,7 +3464,7 @@
         <v>114</v>
       </c>
       <c r="M103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3503,7 +3506,7 @@
         <v>114</v>
       </c>
       <c r="M105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3561,7 +3564,7 @@
         <v>114</v>
       </c>
       <c r="M107" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3603,7 +3606,7 @@
         <v>114</v>
       </c>
       <c r="M109" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3634,7 +3637,7 @@
         <v>114</v>
       </c>
       <c r="M110" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3676,7 +3679,7 @@
         <v>114</v>
       </c>
       <c r="M112" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3734,7 +3737,7 @@
         <v>114</v>
       </c>
       <c r="M114" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3776,7 +3779,7 @@
         <v>114</v>
       </c>
       <c r="M116" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3809,7 +3812,7 @@
         <v>115</v>
       </c>
       <c r="M117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3830,7 +3833,7 @@
         <v>115</v>
       </c>
       <c r="M118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3851,7 +3854,7 @@
         <v>115</v>
       </c>
       <c r="M119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3872,7 +3875,7 @@
         <v>115</v>
       </c>
       <c r="M120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3893,7 +3896,7 @@
         <v>115</v>
       </c>
       <c r="M121" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3926,7 +3929,7 @@
         <v>116</v>
       </c>
       <c r="M122" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -3947,7 +3950,7 @@
         <v>116</v>
       </c>
       <c r="M123" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -3976,7 +3979,7 @@
         <v>116</v>
       </c>
       <c r="M124" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -3997,7 +4000,7 @@
         <v>116</v>
       </c>
       <c r="M125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4026,7 +4029,7 @@
         <v>116</v>
       </c>
       <c r="M126" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4047,7 +4050,7 @@
         <v>116</v>
       </c>
       <c r="M127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4078,7 +4081,7 @@
         <v>116</v>
       </c>
       <c r="M128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4099,7 +4102,7 @@
         <v>116</v>
       </c>
       <c r="M129" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4128,7 +4131,7 @@
         <v>116</v>
       </c>
       <c r="M130" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4149,7 +4152,7 @@
         <v>116</v>
       </c>
       <c r="M131" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4178,7 +4181,7 @@
         <v>116</v>
       </c>
       <c r="M132" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4207,7 +4210,7 @@
         <v>116</v>
       </c>
       <c r="M133" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4228,7 +4231,7 @@
         <v>116</v>
       </c>
       <c r="M134" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4257,7 +4260,7 @@
         <v>116</v>
       </c>
       <c r="M135" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4288,7 +4291,7 @@
         <v>116</v>
       </c>
       <c r="M136" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4309,7 +4312,7 @@
         <v>116</v>
       </c>
       <c r="M137" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4338,7 +4341,7 @@
         <v>116</v>
       </c>
       <c r="M138" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4367,7 +4370,7 @@
         <v>116</v>
       </c>
       <c r="M139" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4388,7 +4391,7 @@
         <v>116</v>
       </c>
       <c r="M140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4417,7 +4420,7 @@
         <v>116</v>
       </c>
       <c r="M141" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4446,7 +4449,7 @@
         <v>116</v>
       </c>
       <c r="M142" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4467,7 +4470,7 @@
         <v>116</v>
       </c>
       <c r="M143" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4496,7 +4499,7 @@
         <v>116</v>
       </c>
       <c r="M144" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4527,7 +4530,7 @@
         <v>116</v>
       </c>
       <c r="M145" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4548,7 +4551,7 @@
         <v>116</v>
       </c>
       <c r="M146" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4569,7 +4572,7 @@
         <v>116</v>
       </c>
       <c r="M147" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4600,7 +4603,7 @@
         <v>116</v>
       </c>
       <c r="M148" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4621,7 +4624,7 @@
         <v>116</v>
       </c>
       <c r="M149" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4650,7 +4653,7 @@
         <v>116</v>
       </c>
       <c r="M150" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4671,7 +4674,7 @@
         <v>116</v>
       </c>
       <c r="M151" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4700,7 +4703,7 @@
         <v>116</v>
       </c>
       <c r="M152" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4721,7 +4724,7 @@
         <v>116</v>
       </c>
       <c r="M153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4752,7 +4755,7 @@
         <v>116</v>
       </c>
       <c r="M154" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4773,7 +4776,7 @@
         <v>116</v>
       </c>
       <c r="M155" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -4802,7 +4805,7 @@
         <v>116</v>
       </c>
       <c r="M156" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -4823,7 +4826,7 @@
         <v>116</v>
       </c>
       <c r="M157" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -4852,7 +4855,7 @@
         <v>116</v>
       </c>
       <c r="M158" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -4873,7 +4876,7 @@
         <v>116</v>
       </c>
       <c r="M159" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -4906,7 +4909,7 @@
         <v>117</v>
       </c>
       <c r="M160" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -4927,7 +4930,7 @@
         <v>117</v>
       </c>
       <c r="M161" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -4948,7 +4951,7 @@
         <v>117</v>
       </c>
       <c r="M162" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -4969,7 +4972,7 @@
         <v>117</v>
       </c>
       <c r="M163" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="191">
   <si>
     <t>variable_id</t>
   </si>
@@ -61,6 +61,9 @@
     <t>CORDEX-CMIP6</t>
   </si>
   <si>
+    <t>sim_data</t>
+  </si>
+  <si>
     <t>CMIP5</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>SMHI</t>
   </si>
   <si>
+    <t>CESAM-UA</t>
+  </si>
+  <si>
     <t>CLMcom-CMCC</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>ICTP</t>
   </si>
   <si>
+    <t>IDL-FCUL</t>
+  </si>
+  <si>
     <t>ERAINT</t>
   </si>
   <si>
@@ -157,6 +166,9 @@
     <t>EC-Earth3</t>
   </si>
   <si>
+    <t>HCLIMcom-DMI</t>
+  </si>
+  <si>
     <t>evaluation</t>
   </si>
   <si>
@@ -178,6 +190,9 @@
     <t>ssp119</t>
   </si>
   <si>
+    <t>IPSL-CM6A-LR</t>
+  </si>
+  <si>
     <t>r0i0p0</t>
   </si>
   <si>
@@ -232,9 +247,15 @@
     <t>RCA4</t>
   </si>
   <si>
+    <t>WRF451Q</t>
+  </si>
+  <si>
     <t>CCLM6-0-1-URB</t>
   </si>
   <si>
+    <t>COSMO-CLM-6-0-clm3</t>
+  </si>
+  <si>
     <t>ICON-CLM-202407-1-1</t>
   </si>
   <si>
@@ -337,9 +358,15 @@
     <t>v20131026</t>
   </si>
   <si>
+    <t>v20250520</t>
+  </si>
+  <si>
     <t>v20250201</t>
   </si>
   <si>
+    <t>v20230222</t>
+  </si>
+  <si>
     <t>v20240920</t>
   </si>
   <si>
@@ -364,12 +391,51 @@
     <t>v20250415</t>
   </si>
   <si>
+    <t>v20240630</t>
+  </si>
+  <si>
     <t>v20241216</t>
   </si>
   <si>
     <t>v20241009</t>
   </si>
   <si>
+    <t>clt</t>
+  </si>
+  <si>
+    <t>evspsbl</t>
+  </si>
+  <si>
+    <t>huss</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>psl</t>
+  </si>
+  <si>
+    <t>rlds</t>
+  </si>
+  <si>
+    <t>rsds</t>
+  </si>
+  <si>
+    <t>tas</t>
+  </si>
+  <si>
+    <t>tasmax</t>
+  </si>
+  <si>
+    <t>tasmin</t>
+  </si>
+  <si>
+    <t>uas</t>
+  </si>
+  <si>
+    <t>vas</t>
+  </si>
+  <si>
     <t>['orog', 'sftlf']</t>
   </si>
   <si>
@@ -388,6 +454,9 @@
     <t>['pr', 'tas']</t>
   </si>
   <si>
+    <t>['rsdscs', 'rldscs', 'zg250', 'rsds', 'rsut', 'zg1000', 'huss', 'zg925', 'hurs', 'snd', 'evspsbl']</t>
+  </si>
+  <si>
     <t>['hurs', 'pr', 'prw', 'sfcWind', 'tas']</t>
   </si>
   <si>
@@ -403,15 +472,21 @@
     <t>['clt', 'hfls', 'pr', 'psl', 'rlut', 'rlutcs', 'rsds', 'rsut', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500', 'snw']</t>
   </si>
   <si>
+    <t>['hurs', 'pr', 'prw', 'psl', 'rlut', 'sfcWind', 'tas', 'uas', 'vas']</t>
+  </si>
+  <si>
+    <t>['hus1000', 'hus200', 'hus250', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ta850', 'ua1000', 'ua200', 'ua250', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va1000', 'va200', 'va250', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zg500']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
+  </si>
+  <si>
+    <t>['clt', 'evspsbl', 'hfls', 'mrros', 'mrro', 'mrso', 'pr', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
+  </si>
+  <si>
     <t>['hurs', 'pr', 'prw', 'psl', 'rlut', 'sfcWind', 'tas']</t>
   </si>
   <si>
-    <t>['hus1000', 'hus200', 'hus250', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ta850', 'ua1000', 'ua200', 'ua250', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va1000', 'va200', 'va250', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zg500']</t>
-  </si>
-  <si>
-    <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snw', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
-  </si>
-  <si>
     <t>['orog', 'sftlaf', 'sftlf', 'sfturf']</t>
   </si>
   <si>
@@ -484,7 +559,16 @@
     <t>['pr', 'tas', 'clt', 'evspsbl', 'hfls', 'mrro', 'mrros', 'mrso', 'prsn', 'psl', 'rlds', 'rlut', 'rsds', 'rsut', 'sfcWind', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
   </si>
   <si>
-    <t>['pr', 'tas', 'zg500', 'clt', 'evspsbl', 'huss', 'psl', 'rlds', 'rsds', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+    <t>['hurs', 'tas', 'uas', 'vas']</t>
+  </si>
+  <si>
+    <t>['tasmax', 'tasmin', 'sfcWindmax']</t>
+  </si>
+  <si>
+    <t>['orog', 'sftgif', 'sftlf', 'sftlaf', 'sfturf']</t>
+  </si>
+  <si>
+    <t>['pr', 'tas', 'zg500', 'clt', 'evspsbl', 'huss', 'psl', 'rlds', 'rsds', 'tasmax', 'tasmin', 'uas', 'vas', 'sfcWind', 'hurs']</t>
   </si>
   <si>
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'sfcWind']</t>
@@ -499,7 +583,10 @@
     <t>['orog', 'sftlf', 'sfturf', 'sftlaf']</t>
   </si>
   <si>
-    <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'rsds', 'rlds', 'evspsbl', 'uas', 'vas', 'sfcWind']</t>
+    <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'rsds', 'rlds', 'evspsbl', 'uas', 'vas', 'sfcWind', 'clt']</t>
+  </si>
+  <si>
+    <t>['day']</t>
   </si>
 </sst>
 </file>
@@ -857,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +952,7 @@
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -922,40 +1009,40 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -967,22 +1054,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -991,31 +1078,31 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1027,22 +1114,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1051,31 +1138,31 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1090,13 +1177,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1109,19 +1196,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1136,13 +1223,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1151,31 +1238,31 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1190,13 +1277,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1205,31 +1292,31 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1241,22 +1328,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1265,31 +1352,31 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1298,31 +1385,31 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1337,13 +1424,13 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M16" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1359,10 +1446,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1371,31 +1458,31 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1410,13 +1497,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1425,31 +1512,31 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1461,22 +1548,22 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1485,31 +1572,31 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M22" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1524,13 +1611,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1539,31 +1626,31 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M24" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1575,22 +1662,22 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1598,40 +1685,40 @@
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1639,20 +1726,32 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M27" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1667,13 +1766,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M28" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1688,13 +1787,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M29" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1709,13 +1808,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M30" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1723,32 +1822,20 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M31" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1756,20 +1843,32 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M32" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1784,13 +1883,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M33" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1805,13 +1904,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M34" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1826,13 +1925,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M35" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1840,32 +1939,24 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M36" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1880,13 +1971,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1901,13 +1992,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M38" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1915,32 +2006,20 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M39" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1955,13 +2034,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M40" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1969,28 +2048,32 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M41" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2005,13 +2088,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M42" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2020,29 +2103,19 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M43" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2050,20 +2123,32 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M44" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2078,13 +2163,13 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2094,18 +2179,26 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M46" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2120,10 +2213,10 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M47" t="s">
         <v>140</v>
@@ -2134,32 +2227,30 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M48" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2174,13 +2265,13 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M49" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2195,13 +2286,13 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M50" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2216,13 +2307,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M51" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2234,20 +2325,16 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M52" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2255,20 +2342,32 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K53" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M53" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2283,13 +2382,13 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M54" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2304,13 +2403,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M55" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2322,20 +2421,16 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M56" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2347,16 +2442,20 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K57" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M57" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2371,13 +2470,13 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M58" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2392,13 +2491,13 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M59" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2410,20 +2509,16 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M60" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2435,16 +2530,20 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K61" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M61" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2459,13 +2558,13 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M62" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2480,13 +2579,13 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M63" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2494,32 +2593,20 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M64" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2531,16 +2618,20 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K65" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M65" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2555,13 +2646,13 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M66" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2571,26 +2662,18 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M67" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2600,26 +2683,18 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M68" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2627,20 +2702,32 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K69" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M69" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2655,13 +2742,13 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M70" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2669,32 +2756,20 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M71" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2704,18 +2779,26 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K72" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M72" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2725,18 +2808,26 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K73" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M73" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2746,26 +2837,18 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M74" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2775,26 +2858,18 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M75" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2802,20 +2877,32 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K76" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M76" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2830,13 +2917,13 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M77" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2845,29 +2932,19 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M78" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2877,18 +2954,26 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K79" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M79" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2898,18 +2983,26 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K80" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M80" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -2920,23 +3013,17 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M81" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2951,13 +3038,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M82" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -2966,19 +3053,29 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K83" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M83" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2989,23 +3086,17 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M84" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3020,13 +3111,13 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M85" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3037,17 +3128,23 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K86" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M86" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3057,26 +3154,18 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
       <c r="K87" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M87" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3087,23 +3176,17 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M88" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3115,22 +3198,22 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M89" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3140,26 +3223,18 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M90" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3174,13 +3249,13 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M91" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3190,18 +3265,26 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K92" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3213,22 +3296,22 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M93" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3239,17 +3322,23 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K94" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M94" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3259,18 +3348,26 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K95" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M95" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3281,23 +3378,17 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M96" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3312,13 +3403,13 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M97" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3329,17 +3420,23 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K98" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M98" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3348,29 +3445,19 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M99" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3385,13 +3472,13 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M100" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3402,17 +3489,23 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="H101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K101" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M101" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3427,13 +3520,13 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M102" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3442,29 +3535,19 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M103" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3473,19 +3556,29 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K104" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M104" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3500,13 +3593,13 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M105" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3516,26 +3609,18 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M106" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3545,26 +3630,18 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M107" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3573,19 +3650,29 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K108" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M108" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3600,13 +3687,13 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M109" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3615,29 +3702,19 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M110" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3647,18 +3724,26 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K111" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M111" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3668,18 +3753,26 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K112" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M112" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3689,26 +3782,18 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M113" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3718,26 +3803,18 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
       <c r="K114" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M114" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3746,19 +3823,29 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K115" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M115" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3773,13 +3860,13 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M116" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3787,32 +3874,20 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
       <c r="K117" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M117" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3822,18 +3897,26 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K118" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M118" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3843,18 +3926,26 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K119" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M119" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3869,13 +3960,13 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M120" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3890,13 +3981,13 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M121" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3905,31 +3996,31 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M122" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -3944,13 +4035,13 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M123" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -3960,26 +4051,18 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
       <c r="K124" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M124" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -3994,13 +4077,13 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M125" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4010,26 +4093,18 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
       <c r="K126" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M126" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4037,20 +4112,32 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K127" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M127" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4059,29 +4146,19 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
       <c r="K128" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M128" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4096,13 +4173,13 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M129" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4110,28 +4187,32 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G130" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M130" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4146,13 +4227,13 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M131" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4163,25 +4244,25 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M132" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4191,26 +4272,18 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
       <c r="K133" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M133" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4220,18 +4293,26 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K134" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M134" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4241,26 +4322,18 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
       <c r="K135" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M135" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4270,28 +4343,28 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M136" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4306,13 +4379,13 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M137" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4323,25 +4396,25 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M138" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4351,26 +4424,18 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
       <c r="K139" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M139" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4380,18 +4445,26 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
+      <c r="G140" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K140" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M140" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4402,25 +4475,25 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M141" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4430,26 +4503,18 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
       <c r="K142" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M142" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4459,18 +4524,26 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="G143" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K143" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M143" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4479,27 +4552,29 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G144" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M144" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4508,29 +4583,19 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
       <c r="K145" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M145" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4540,18 +4605,26 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="G146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K146" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M146" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4561,18 +4634,26 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
+      <c r="G147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K147" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M147" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4581,29 +4662,19 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
       <c r="K148" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M148" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4613,18 +4684,26 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="G149" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K149" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M149" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4635,25 +4714,25 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M150" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4668,13 +4747,13 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M151" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4685,25 +4764,25 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M152" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4712,19 +4791,29 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K153" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M153" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4733,29 +4822,19 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
       <c r="K154" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M154" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4770,13 +4849,13 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M155" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -4785,27 +4864,29 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G156" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M156" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -4820,13 +4901,13 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M157" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -4837,25 +4918,25 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M158" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -4870,13 +4951,13 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M159" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -4884,32 +4965,28 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
       <c r="G160" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M160" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -4924,13 +5001,13 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M161" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -4939,19 +5016,29 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K162" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M162" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -4966,25 +5053,909 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M163" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M164" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M165" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M167" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M168" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M169" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M170" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M171" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J172" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L163" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M163" t="s">
-        <v>161</v>
+      <c r="K172" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M172" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M174" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M175" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M176" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M177" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M178" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M179" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M180" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M181" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M182" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M183" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M184" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M185" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M186" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M193" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M194" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M195" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M196" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M197" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M198" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M199" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M200" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M201" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M202" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M203" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M204" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M205" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="249">
+  <mergeCells count="276">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A163"/>
+    <mergeCell ref="A26:A171"/>
+    <mergeCell ref="A172:A205"/>
     <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B163"/>
+    <mergeCell ref="B26:B171"/>
+    <mergeCell ref="B172:B205"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C163"/>
+    <mergeCell ref="C26:C171"/>
+    <mergeCell ref="C172:C205"/>
     <mergeCell ref="D2:D25"/>
-    <mergeCell ref="D26:D163"/>
+    <mergeCell ref="D26:D171"/>
+    <mergeCell ref="D172:D205"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E9"/>
@@ -4995,16 +5966,18 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E63"/>
-    <mergeCell ref="E64:E70"/>
-    <mergeCell ref="E71:E116"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="E122:E159"/>
-    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E32:E40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E52"/>
+    <mergeCell ref="E53:E68"/>
+    <mergeCell ref="E69:E75"/>
+    <mergeCell ref="E76:E121"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="E130:E167"/>
+    <mergeCell ref="E168:E171"/>
+    <mergeCell ref="E172:E205"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F9"/>
@@ -5015,26 +5988,28 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="F48:F63"/>
-    <mergeCell ref="F64:F70"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="F78:F98"/>
-    <mergeCell ref="F99:F102"/>
-    <mergeCell ref="F103:F109"/>
-    <mergeCell ref="F110:F116"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="F122:F127"/>
-    <mergeCell ref="F128:F135"/>
-    <mergeCell ref="F136:F144"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="F148:F153"/>
-    <mergeCell ref="F154:F159"/>
-    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="F53:F68"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="F83:F103"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="F108:F114"/>
+    <mergeCell ref="F115:F121"/>
+    <mergeCell ref="F122:F126"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="F130:F135"/>
+    <mergeCell ref="F136:F143"/>
+    <mergeCell ref="F144:F152"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="F156:F161"/>
+    <mergeCell ref="F162:F167"/>
+    <mergeCell ref="F168:F171"/>
+    <mergeCell ref="F172:F205"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
@@ -5045,187 +6020,206 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="G48:G63"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="G78:G86"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="G90:G98"/>
-    <mergeCell ref="G99:G102"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="G117:G121"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G32:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G52"/>
+    <mergeCell ref="G53:G68"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="G83:G91"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G95:G103"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="G112:G114"/>
+    <mergeCell ref="G115:G117"/>
+    <mergeCell ref="G119:G121"/>
+    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="G127:G129"/>
     <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G134:G135"/>
     <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="G147:G148"/>
     <mergeCell ref="G150:G151"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="G153:G155"/>
     <mergeCell ref="G156:G157"/>
     <mergeCell ref="G158:G159"/>
-    <mergeCell ref="G160:G163"/>
+    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="G162:G163"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="G168:G171"/>
+    <mergeCell ref="G172:G205"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="H48:H63"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="H114:H116"/>
-    <mergeCell ref="H117:H121"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H32:H40"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H52"/>
+    <mergeCell ref="H53:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="H112:H114"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="H127:H129"/>
     <mergeCell ref="H130:H131"/>
-    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="H134:H135"/>
     <mergeCell ref="H136:H137"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="H147:H148"/>
     <mergeCell ref="H150:H151"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="H154:H155"/>
+    <mergeCell ref="H153:H155"/>
     <mergeCell ref="H156:H157"/>
     <mergeCell ref="H158:H159"/>
-    <mergeCell ref="H160:H163"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="H168:H171"/>
+    <mergeCell ref="H172:H183"/>
+    <mergeCell ref="H184:H193"/>
+    <mergeCell ref="H194:H205"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="I99:I102"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="I114:I116"/>
-    <mergeCell ref="I117:I121"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="I104:I107"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="I112:I114"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="I127:I129"/>
     <mergeCell ref="I130:I131"/>
-    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="I134:I135"/>
     <mergeCell ref="I136:I137"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="I145:I147"/>
-    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="I147:I148"/>
     <mergeCell ref="I150:I151"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="I153:I155"/>
     <mergeCell ref="I156:I157"/>
     <mergeCell ref="I158:I159"/>
-    <mergeCell ref="I160:I163"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="I168:I171"/>
+    <mergeCell ref="I172:I183"/>
+    <mergeCell ref="I184:I193"/>
+    <mergeCell ref="I194:I205"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="J56:J59"/>
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="J96:J98"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="J114:J116"/>
-    <mergeCell ref="J117:J121"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="J104:J107"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="J115:J117"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="J122:J126"/>
+    <mergeCell ref="J127:J129"/>
     <mergeCell ref="J130:J131"/>
-    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="J134:J135"/>
     <mergeCell ref="J136:J137"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="J145:J147"/>
-    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="J147:J148"/>
     <mergeCell ref="J150:J151"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="J153:J155"/>
     <mergeCell ref="J156:J157"/>
     <mergeCell ref="J158:J159"/>
-    <mergeCell ref="J160:J163"/>
+    <mergeCell ref="J160:J161"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="J168:J171"/>
+    <mergeCell ref="J172:J183"/>
+    <mergeCell ref="J184:J193"/>
+    <mergeCell ref="J194:J205"/>
     <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K172:K183"/>
+    <mergeCell ref="K184:K193"/>
+    <mergeCell ref="K194:K205"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -454,7 +454,7 @@
     <t>['pr', 'tas']</t>
   </si>
   <si>
-    <t>['rsdscs', 'rldscs', 'zg250', 'rsds', 'rsut', 'zg1000', 'huss', 'zg925', 'hurs', 'snd', 'evspsbl']</t>
+    <t>['rsdscs', 'rldscs', 'zg250', 'rsds', 'rsut', 'zg1000', 'huss', 'zg925', 'hurs', 'snd', 'evspsbl', 'rsutcs', 'prsn', 'zg600', 'rlutcs', 'sfcWind']</t>
   </si>
   <si>
     <t>['hurs', 'pr', 'prw', 'sfcWind', 'tas']</t>

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -454,7 +454,7 @@
     <t>['pr', 'tas']</t>
   </si>
   <si>
-    <t>['rsdscs', 'rldscs', 'zg250', 'rsds', 'rsut', 'zg1000', 'huss', 'zg925', 'hurs', 'snd', 'evspsbl', 'rsutcs', 'prsn', 'zg600', 'rlutcs', 'sfcWind']</t>
+    <t>['rsdscs', 'rldscs', 'zg250', 'rsds', 'rsut', 'zg1000', 'huss', 'zg925', 'hurs', 'snd', 'evspsbl', 'rsutcs', 'prsn', 'zg600', 'rlutcs', 'sfcWind', 'zg300', 'zg400', 'uas', 'tasmax', 'tas', 'zg700', 'rlds', 'zg750', 'psl', 'mrro', 'clt', 'zg850', 'zg200', 'tasmin', 'sfcWindmax', 'zg500', 'mrso', 'mrros', 'rlut', 'snc', 'pr', 'vas', 'snw']</t>
   </si>
   <si>
     <t>['hurs', 'pr', 'prw', 'sfcWind', 'tas']</t>
@@ -960,7 +960,7 @@
     <col min="9" max="9" width="24.7109375" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="303.7109375" customWidth="1"/>
+    <col min="13" max="13" width="341.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">

--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="181">
   <si>
     <t>variable_id</t>
   </si>
@@ -61,9 +61,6 @@
     <t>CORDEX-CMIP6</t>
   </si>
   <si>
-    <t>sim_data</t>
-  </si>
-  <si>
     <t>CMIP5</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
     <t>CNRM-MF</t>
   </si>
   <si>
+    <t>HCLIMcom-DMI</t>
+  </si>
+  <si>
     <t>HCLIMcom-METNo</t>
   </si>
   <si>
@@ -151,6 +151,9 @@
     <t>CNRM-ESM2-1</t>
   </si>
   <si>
+    <t>IPSL-CM6A-LR</t>
+  </si>
+  <si>
     <t>NorESM2-MM</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
     <t>EC-Earth3</t>
   </si>
   <si>
-    <t>HCLIMcom-DMI</t>
-  </si>
-  <si>
     <t>evaluation</t>
   </si>
   <si>
@@ -190,9 +190,6 @@
     <t>ssp119</t>
   </si>
   <si>
-    <t>IPSL-CM6A-LR</t>
-  </si>
-  <si>
     <t>r0i0p0</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
     <t>v20250515</t>
   </si>
   <si>
+    <t>v20250516</t>
+  </si>
+  <si>
     <t>v20241205</t>
   </si>
   <si>
@@ -400,42 +400,6 @@
     <t>v20241009</t>
   </si>
   <si>
-    <t>clt</t>
-  </si>
-  <si>
-    <t>evspsbl</t>
-  </si>
-  <si>
-    <t>huss</t>
-  </si>
-  <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>psl</t>
-  </si>
-  <si>
-    <t>rlds</t>
-  </si>
-  <si>
-    <t>rsds</t>
-  </si>
-  <si>
-    <t>tas</t>
-  </si>
-  <si>
-    <t>tasmax</t>
-  </si>
-  <si>
-    <t>tasmin</t>
-  </si>
-  <si>
-    <t>uas</t>
-  </si>
-  <si>
-    <t>vas</t>
-  </si>
-  <si>
     <t>['orog', 'sftlf']</t>
   </si>
   <si>
@@ -457,6 +421,12 @@
     <t>['rsdscs', 'rldscs', 'zg250', 'rsds', 'rsut', 'zg1000', 'huss', 'zg925', 'hurs', 'snd', 'evspsbl', 'rsutcs', 'prsn', 'zg600', 'rlutcs', 'sfcWind', 'zg300', 'zg400', 'uas', 'tasmax', 'tas', 'zg700', 'rlds', 'zg750', 'psl', 'mrro', 'clt', 'zg850', 'zg200', 'tasmin', 'sfcWindmax', 'zg500', 'mrso', 'mrros', 'rlut', 'snc', 'pr', 'vas', 'snw']</t>
   </si>
   <si>
+    <t>['sfturf', 'sftlf', 'sftlaf', 'orog', 'areacella']</t>
+  </si>
+  <si>
+    <t>['od550aer', 'rsdscs', 'rldscs', 'rsds', 'rsut', 'snd', 'evspsbl', 'rsutcs', 'prsn', 'rlutcs', 'sfcWind', 'uas', 'tasmax', 'tas', 'rlds', 'psl', 'mrro', 'clt']</t>
+  </si>
+  <si>
     <t>['hurs', 'pr', 'prw', 'sfcWind', 'tas']</t>
   </si>
   <si>
@@ -532,6 +502,9 @@
     <t>['clt', 'evspsbl', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
   </si>
   <si>
+    <t>['tasmin', 'tasmax', 'tas', 'pr', 'rsds', 'uas', 'vas', 'rlds', 'evspsbl', 'huss', 'psl', 'clt']</t>
+  </si>
+  <si>
     <t>['clt', 'evspsbl', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'tas', 'tasmax', 'tasmin', 'uas', 'vas', 'zg500']</t>
   </si>
   <si>
@@ -584,9 +557,6 @@
   </si>
   <si>
     <t>['pr', 'psl', 'tas', 'tasmax', 'tasmin', 'rsds', 'rlds', 'evspsbl', 'uas', 'vas', 'sfcWind', 'clt']</t>
-  </si>
-  <si>
-    <t>['day']</t>
   </si>
 </sst>
 </file>
@@ -944,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +922,7 @@
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -1009,16 +979,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -1027,22 +997,22 @@
         <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1054,22 +1024,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1078,7 +1048,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>42</v>
@@ -1087,22 +1057,22 @@
         <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1114,22 +1084,22 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1138,7 +1108,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>42</v>
@@ -1147,22 +1117,22 @@
         <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1177,13 +1147,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1196,19 +1166,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1223,13 +1193,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1238,7 +1208,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>42</v>
@@ -1247,22 +1217,22 @@
         <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1277,13 +1247,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1292,7 +1262,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
@@ -1301,22 +1271,22 @@
         <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1328,22 +1298,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1352,7 +1322,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>42</v>
@@ -1361,22 +1331,22 @@
         <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1385,7 +1355,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>42</v>
@@ -1394,22 +1364,22 @@
         <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1424,13 +1394,13 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1446,10 +1416,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1458,7 +1428,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>42</v>
@@ -1467,22 +1437,22 @@
         <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1497,13 +1467,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1512,7 +1482,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>42</v>
@@ -1521,22 +1491,22 @@
         <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M20" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1548,22 +1518,22 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1572,7 +1542,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>42</v>
@@ -1581,22 +1551,22 @@
         <v>51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M22" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1611,13 +1581,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1626,7 +1596,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>42</v>
@@ -1635,22 +1605,22 @@
         <v>51</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1662,22 +1632,22 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1685,16 +1655,16 @@
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>43</v>
@@ -1703,22 +1673,22 @@
         <v>51</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M26" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1726,32 +1696,20 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M27" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1766,13 +1724,13 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M28" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1780,20 +1738,32 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1808,13 +1778,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M30" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1832,10 +1802,10 @@
         <v>94</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M31" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1843,32 +1813,20 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M32" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1883,13 +1841,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M33" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1897,20 +1855,32 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K34" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M34" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1925,13 +1895,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M35" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1943,20 +1913,16 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M36" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1971,13 +1937,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M37" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1989,16 +1955,20 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K38" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M38" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2013,13 +1983,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M39" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2037,10 +2007,10 @@
         <v>94</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M40" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2048,32 +2018,20 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M41" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2091,10 +2049,10 @@
         <v>93</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M42" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2102,20 +2060,32 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K43" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M43" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2123,32 +2093,20 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M44" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2166,10 +2124,10 @@
         <v>93</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M45" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2177,28 +2135,32 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M46" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2213,13 +2175,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M47" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2228,29 +2190,27 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M48" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2265,13 +2225,13 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M49" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2280,19 +2240,29 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K50" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M50" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2307,13 +2277,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M51" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2331,10 +2301,10 @@
         <v>94</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M52" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2342,32 +2312,20 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M53" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2382,13 +2340,13 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M54" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2396,20 +2354,32 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K55" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M55" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2427,10 +2397,10 @@
         <v>94</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M56" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2442,20 +2412,16 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M57" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2470,13 +2436,13 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M58" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2488,16 +2454,20 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K59" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M59" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2515,10 +2485,10 @@
         <v>94</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M60" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2530,20 +2500,16 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2558,13 +2524,13 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M62" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2576,16 +2542,20 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K63" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M63" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2603,10 +2573,10 @@
         <v>94</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M64" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2618,20 +2588,16 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M65" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2646,13 +2612,13 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M66" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2664,16 +2630,20 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K67" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M67" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2691,10 +2661,10 @@
         <v>94</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M68" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2702,32 +2672,20 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M69" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2745,10 +2703,10 @@
         <v>93</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M70" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2756,20 +2714,32 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K71" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M71" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2783,22 +2753,22 @@
         <v>54</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M72" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2812,22 +2782,22 @@
         <v>53</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M73" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2835,20 +2805,32 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K74" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M74" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2863,13 +2845,13 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M75" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2877,32 +2859,20 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M76" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2912,18 +2882,26 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M77" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -2933,10 +2911,18 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K78" s="1" t="s">
         <v>94</v>
       </c>
@@ -2944,7 +2930,7 @@
         <v>123</v>
       </c>
       <c r="M78" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2954,26 +2940,18 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M79" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2983,26 +2961,18 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3010,20 +2980,32 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K81" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M81" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3038,13 +3020,13 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M82" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3053,29 +3035,19 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M83" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3085,18 +3057,26 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M84" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3106,10 +3086,18 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K85" s="1" t="s">
         <v>94</v>
       </c>
@@ -3117,7 +3105,7 @@
         <v>123</v>
       </c>
       <c r="M85" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3128,23 +3116,17 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M86" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3165,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="M87" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3174,11 +3156,21 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K88" s="1" t="s">
         <v>94</v>
       </c>
@@ -3186,7 +3178,7 @@
         <v>123</v>
       </c>
       <c r="M88" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3197,23 +3189,17 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M89" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3234,7 +3220,7 @@
         <v>123</v>
       </c>
       <c r="M90" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3245,9 +3231,15 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="H91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K91" s="1" t="s">
         <v>94</v>
       </c>
@@ -3255,7 +3247,7 @@
         <v>123</v>
       </c>
       <c r="M91" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3265,26 +3257,18 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M92" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3295,15 +3279,9 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
         <v>93</v>
       </c>
@@ -3311,7 +3289,7 @@
         <v>123</v>
       </c>
       <c r="M93" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3323,22 +3301,22 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M94" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3348,26 +3326,18 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M95" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3388,7 +3358,7 @@
         <v>123</v>
       </c>
       <c r="M96" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3398,18 +3368,26 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K97" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M97" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3421,22 +3399,22 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M98" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3447,17 +3425,23 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="H99" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M99" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3467,10 +3451,18 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K100" s="1" t="s">
         <v>94</v>
       </c>
@@ -3478,7 +3470,7 @@
         <v>123</v>
       </c>
       <c r="M100" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3489,23 +3481,17 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M101" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3526,7 +3512,7 @@
         <v>123</v>
       </c>
       <c r="M102" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3537,9 +3523,15 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="H103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K103" s="1" t="s">
         <v>94</v>
       </c>
@@ -3547,7 +3539,7 @@
         <v>123</v>
       </c>
       <c r="M103" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3556,29 +3548,19 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M104" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3593,13 +3575,13 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M105" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3610,17 +3592,23 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="H106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K106" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M106" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3635,13 +3623,13 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M107" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3650,29 +3638,19 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M108" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3681,19 +3659,29 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K109" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M109" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3714,7 +3702,7 @@
         <v>123</v>
       </c>
       <c r="M110" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3724,20 +3712,12 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>123</v>
@@ -3753,26 +3733,18 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
       <c r="K112" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M112" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3781,19 +3753,29 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K113" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M113" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3808,13 +3790,13 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M114" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -3823,29 +3805,19 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
       <c r="K115" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M115" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -3855,18 +3827,26 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K116" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M116" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -3876,10 +3856,18 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K117" s="1" t="s">
         <v>94</v>
       </c>
@@ -3887,7 +3875,7 @@
         <v>123</v>
       </c>
       <c r="M117" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -3897,26 +3885,18 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M118" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -3926,26 +3906,18 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
       <c r="K119" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M119" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -3954,19 +3926,29 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K120" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M120" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -3981,13 +3963,13 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M121" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -3995,32 +3977,20 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
       <c r="K122" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M122" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4030,18 +4000,26 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K123" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M123" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4051,18 +4029,26 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K124" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M124" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4077,13 +4063,13 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M125" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4098,13 +4084,13 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M126" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4113,7 +4099,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>43</v>
@@ -4122,22 +4108,22 @@
         <v>51</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M127" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4152,13 +4138,13 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M128" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4173,13 +4159,13 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M129" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4187,32 +4173,20 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
       <c r="K130" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M130" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4230,10 +4204,10 @@
         <v>93</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M131" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4241,25 +4215,29 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G132" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M132" t="s">
         <v>172</v>
@@ -4277,13 +4255,13 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M133" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4293,26 +4271,18 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
       <c r="K134" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M134" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4320,20 +4290,32 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K135" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M135" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4342,29 +4324,19 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
       <c r="K136" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M136" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4374,18 +4346,26 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="G137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K137" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M137" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4395,26 +4375,18 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
       <c r="K138" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M138" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4424,18 +4396,26 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K139" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M139" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4445,26 +4425,18 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
       <c r="K140" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M140" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4473,27 +4445,29 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G141" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M141" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4508,13 +4482,13 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M142" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4525,25 +4499,25 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M143" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4552,29 +4526,19 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
       <c r="K144" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4584,18 +4548,26 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
+      <c r="G145" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K145" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M145" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4606,25 +4578,25 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M146" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4634,26 +4606,18 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
       <c r="K147" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M147" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4663,18 +4627,26 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="G148" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K148" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M148" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4683,27 +4655,29 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G149" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M149" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4713,26 +4687,18 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
       <c r="K150" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M150" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4742,18 +4708,26 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K151" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M151" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4764,25 +4738,25 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M152" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4791,29 +4765,19 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
       <c r="K153" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M153" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4823,18 +4787,26 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
+      <c r="G154" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K154" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M154" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4844,10 +4816,18 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="G155" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K155" s="1" t="s">
         <v>94</v>
       </c>
@@ -4855,7 +4835,7 @@
         <v>126</v>
       </c>
       <c r="M155" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -4864,29 +4844,19 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
       <c r="K156" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L156" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M156" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -4896,18 +4866,26 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
+      <c r="G157" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K157" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M157" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -4916,27 +4894,29 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G158" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L158" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M158" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -4951,13 +4931,13 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M159" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -4967,26 +4947,18 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
       <c r="K160" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M160" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -4995,19 +4967,29 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K161" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M161" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -5016,29 +4998,19 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
       <c r="K162" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M162" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -5048,18 +5020,26 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
+      <c r="G163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K163" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L163" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M163" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -5069,26 +5049,18 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
       <c r="K164" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M164" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -5098,18 +5070,26 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
+      <c r="G165" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K165" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M165" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -5119,26 +5099,18 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
       <c r="K166" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L166" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M166" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -5147,19 +5119,29 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K167" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M167" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -5167,32 +5149,20 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
       <c r="K168" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M168" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -5202,18 +5172,26 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
+      <c r="G169" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K169" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M169" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -5228,13 +5206,13 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M170" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -5244,59 +5222,47 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
+      <c r="G171" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K171" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M171" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
       <c r="K172" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M172" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -5304,18 +5270,32 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="L173" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M173" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -5329,12 +5309,14 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
+      <c r="K174" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="L174" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M174" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -5348,12 +5330,14 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
+      <c r="K175" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L175" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M175" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -5367,595 +5351,26 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
+      <c r="K176" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L176" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M176" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M179" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M180" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M181" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M182" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M183" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L184" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M184" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M185" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M186" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M187" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      